--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Suggestions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$F$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$6:$G$42</definedName>
   </definedNames>
   <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
   <si>
     <t>Issue No.</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Something is causing the system to lock up at the shell prompt right in the middle of typing a new command (you go to type CAT and after typing C the system hangs).  I am not sure what command(s) is leading to this.</t>
   </si>
   <si>
-    <t>1004/1026</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -230,13 +227,28 @@
   </si>
   <si>
     <t xml:space="preserve"> Fixed in…</t>
+  </si>
+  <si>
+    <t>1004/1016</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Which NIC/Driver ?</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>Same correction applied to ARP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,16 +264,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -284,11 +323,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -300,9 +456,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -315,6 +468,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,10 +839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:F43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,598 +851,635 @@
     <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.26953125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
+      <c r="B7" s="1">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1004</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <f>B7+1</f>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <v>1004</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
-        <f>B8+1</f>
-        <v>101</v>
+        <f t="shared" ref="B9:B33" si="0">B8+1</f>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <v>1004</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="58.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1">
-        <f t="shared" ref="B10:B34" si="0">B9+1</f>
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
         <v>1004</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
         <v>1004</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2">
         <v>1004</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="1">
+        <f t="shared" ref="B19:B20" si="1">B18+1</f>
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1004</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="B20" s="1">
-        <f t="shared" ref="B20:B21" si="1">B19+1</f>
-        <v>112</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1004</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="203" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2">
         <v>1004</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="203" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2">
         <v>1004</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="E22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1016</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1016</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1016</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1016</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="2">
-        <v>1004</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1026</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1026</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1026</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
       <c r="D27" s="2">
-        <v>1026</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+        <v>1016</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2">
-        <v>1026</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+        <v>1016</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1026</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="F30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="F32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="F33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F43" t="s">
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G42" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:F43">
+  <autoFilter ref="A6:G42">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="V"/>
       </filters>
     </filterColumn>
@@ -1256,7 +1502,7 @@
     <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1270,7 +1516,7 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E1" t="s">
@@ -1289,7 +1535,7 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E3" t="s">
@@ -1300,7 +1546,7 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
@@ -1311,7 +1557,7 @@
       <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E5" t="s">

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="68">
   <si>
     <t>Issue No.</t>
   </si>
@@ -830,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -842,7 +842,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,8 +1123,8 @@
         <v>34</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" t="s">
-        <v>28</v>
+      <c r="G15">
+        <v>1019</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
   <si>
     <t>Issue No.</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Same correction applied to ARP</t>
+  </si>
+  <si>
+    <t>quick fix for PAUSE:limited to CR</t>
   </si>
 </sst>
 </file>
@@ -841,8 +844,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1258,7 +1261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -1277,7 +1280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>116</v>
@@ -1296,7 +1299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>117</v>
@@ -1314,7 +1317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>118</v>
@@ -1328,11 +1331,11 @@
       <c r="E25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>119</v>
@@ -1350,7 +1353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -1368,7 +1371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>121</v>
@@ -1382,11 +1385,14 @@
       <c r="E28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>122</v>
@@ -1395,7 +1401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>123</v>
@@ -1404,7 +1410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>124</v>
@@ -1413,7 +1419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -1422,7 +1428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>126</v>
@@ -1431,47 +1437,47 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G42" t="s">
         <v>28</v>
       </c>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="10880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
   <si>
     <t>Issue No.</t>
   </si>
@@ -245,6 +245,10 @@
   </si>
   <si>
     <t>quick fix for PAUSE:limited to CR</t>
+  </si>
+  <si>
+    <t>-N implemented
+(Pipe is SHELL related)</t>
   </si>
 </sst>
 </file>
@@ -833,7 +837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -844,23 +848,23 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
@@ -875,7 +879,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
         <v>57</v>
@@ -888,7 +892,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20"/>
       <c r="B4" s="21" t="s">
         <v>55</v>
@@ -901,12 +905,12 @@
       <c r="F4" s="23"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
@@ -929,7 +933,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -950,7 +954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -994,7 +998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="72.599999999999994" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1040,7 +1044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="29.1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1147,8 +1151,11 @@
       <c r="E16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G16" t="s">
-        <v>28</v>
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16">
+        <v>1022</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
@@ -1173,7 +1180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1195,7 +1202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1217,7 +1224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="57.95" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1239,7 +1246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="203.1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1261,7 +1268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="57.95" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -1280,7 +1287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>116</v>
@@ -1299,7 +1306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>117</v>
@@ -1317,7 +1324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>118</v>
@@ -1335,7 +1342,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>119</v>
@@ -1353,7 +1360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="72.599999999999994" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -1392,7 +1399,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>122</v>
@@ -1401,7 +1408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>123</v>
@@ -1410,7 +1417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>124</v>
@@ -1419,7 +1426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -1428,7 +1435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>126</v>
@@ -1437,47 +1444,47 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="G34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="G35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="G36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="G37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="G38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="G39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="G40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="G41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="G42" t="s">
         <v>28</v>
       </c>
@@ -1503,16 +1510,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>45</v>
       </c>
@@ -1548,7 +1555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="29.1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -1559,7 +1566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="57.95" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -1570,127 +1577,127 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>45</v>
       </c>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81252005-B00F-42CD-96D8-DBA5784BDE69}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$6:$G$42</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
   <si>
     <t>Issue No.</t>
   </si>
@@ -250,11 +256,65 @@
     <t>-N implemented
 (Pipe is SHELL related)</t>
   </si>
+  <si>
+    <t>S0004</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DATE command should have options for returning the Day of Week (-w) as # (-W) as word, month (-m) as # (-M) as word, the day (-d) and the year (-y) 2 digit (-Y) 4 digit. </t>
+  </si>
+  <si>
+    <t>S0005</t>
+  </si>
+  <si>
+    <t>WHO</t>
+  </si>
+  <si>
+    <t>Need a who command once we have logins going.</t>
+  </si>
+  <si>
+    <t>S0006</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>Need a clear screen command CLEAR or CLS.</t>
+  </si>
+  <si>
+    <t>S0007</t>
+  </si>
+  <si>
+    <t>V/H TAB</t>
+  </si>
+  <si>
+    <t>Need something along the lines of Basics VTAB HTAB so we can position the cursor before an Echo statement.  This may also require a way to do Echo's that don’t have CR/LF.</t>
+  </si>
+  <si>
+    <t>S0008</t>
+  </si>
+  <si>
+    <t>ECHO</t>
+  </si>
+  <si>
+    <t>A way to echo special chars (VT100 stuff, MouseText Chars)</t>
+  </si>
+  <si>
+    <t>S0009</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Word (-w), Line (-l) and Char (-c) count command.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -837,22 +897,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
@@ -1454,43 +1514,43 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:G42">
+  <autoFilter ref="A6:G42" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="V"/>
@@ -1503,14 +1563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1577,32 +1637,86 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="E7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="E8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="E9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="E10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="E11" t="s">
         <v>45</v>
       </c>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81252005-B00F-42CD-96D8-DBA5784BDE69}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E906D233-A04F-4860-8FF4-6E963B5D80FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
   <si>
     <t>Issue No.</t>
   </si>
@@ -263,9 +263,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t xml:space="preserve">The DATE command should have options for returning the Day of Week (-w) as # (-W) as word, month (-m) as # (-M) as word, the day (-d) and the year (-y) 2 digit (-Y) 4 digit. </t>
-  </si>
-  <si>
     <t>S0005</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>ECHO</t>
   </si>
   <si>
-    <t>A way to echo special chars (VT100 stuff, MouseText Chars)</t>
-  </si>
-  <si>
     <t>S0009</t>
   </si>
   <si>
@@ -309,6 +303,114 @@
   </si>
   <si>
     <t>Word (-w), Line (-l) and Char (-c) count command.</t>
+  </si>
+  <si>
+    <t>S0010</t>
+  </si>
+  <si>
+    <t>CUT</t>
+  </si>
+  <si>
+    <t>We need a cut command which could be used to pull fields of data out of output or files (CUT file types out of L listings, or CUT user ID from passwd file). -d option to delimit by char (:). -f pulls fields by that delimiter.</t>
+  </si>
+  <si>
+    <t>S0011</t>
+  </si>
+  <si>
+    <t>GREP</t>
+  </si>
+  <si>
+    <t>Parse lines and filter by pattern.</t>
+  </si>
+  <si>
+    <t>The DATE command should have options for returning the Day of Week (-w) as # (-W) as word, month (-m) as # (-M) as word, the day (-d) and the year (-y) 2 digit (-Y) 4 digit.</t>
+  </si>
+  <si>
+    <t>S0012</t>
+  </si>
+  <si>
+    <t>EXPR</t>
+  </si>
+  <si>
+    <t>One option to adding a complete/extensive expression evaluator into the shell (making it bigger) is to move this to a separate command EXPR.</t>
+  </si>
+  <si>
+    <t>S0013</t>
+  </si>
+  <si>
+    <t>SHELL CASE</t>
+  </si>
+  <si>
+    <t>Case statement in shell.</t>
+  </si>
+  <si>
+    <t>S0014</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>FOR x in list, DO … DONE</t>
+  </si>
+  <si>
+    <t>S0015</t>
+  </si>
+  <si>
+    <t>WHILE / UNTIL</t>
+  </si>
+  <si>
+    <t>Add to the shell support for WHILE and UNTIL loop constructs.</t>
+  </si>
+  <si>
+    <t>S0016</t>
+  </si>
+  <si>
+    <t>S0017</t>
+  </si>
+  <si>
+    <t>S0018</t>
+  </si>
+  <si>
+    <t>S0019</t>
+  </si>
+  <si>
+    <t>S0020</t>
+  </si>
+  <si>
+    <t>S0021</t>
+  </si>
+  <si>
+    <t>S0022</t>
+  </si>
+  <si>
+    <t>S0023</t>
+  </si>
+  <si>
+    <t>S0024</t>
+  </si>
+  <si>
+    <t>S0025</t>
+  </si>
+  <si>
+    <t>A way to echo special chars (VT100 stuff, MouseText Chars).  Also echo should support standard special chars  \n Newline \b backspace \t tab \0nnn ascii char nnn.</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>Some of the things in STARTUP should problably be in an /etc/profile file (set PATH, TERM, PS1, etc.)</t>
+  </si>
+  <si>
+    <t>$0-S9 vars; SHIFT</t>
+  </si>
+  <si>
+    <t>PRINTF</t>
+  </si>
+  <si>
+    <t>A command version of C func.  Basically a very advanced version of Echo that allows formatting.  By making it external, can save mem of code/data space.</t>
+  </si>
+  <si>
+    <t>Does shell/script support the standard way of accessing arguments/parameters, $* for all, $1 first 1, SHIFT to eat $1 and move others left. $0 pgm name $# num args.</t>
   </si>
 </sst>
 </file>
@@ -511,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -519,10 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -591,6 +689,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,52 +1019,52 @@
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G5" t="s">
@@ -971,25 +1072,25 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1006,10 +1107,10 @@
       <c r="D7" s="2">
         <v>1004</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="5"/>
       <c r="G7" t="s">
         <v>28</v>
       </c>
@@ -1028,10 +1129,10 @@
       <c r="D8" s="2">
         <v>1004</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5"/>
       <c r="G8" t="s">
         <v>28</v>
       </c>
@@ -1050,10 +1151,10 @@
       <c r="D9" s="2">
         <v>1004</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="5"/>
       <c r="G9" t="s">
         <v>28</v>
       </c>
@@ -1072,10 +1173,10 @@
       <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G10">
@@ -1096,10 +1197,10 @@
       <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="5"/>
       <c r="G11" t="s">
         <v>28</v>
       </c>
@@ -1118,10 +1219,10 @@
       <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G12" t="s">
@@ -1142,10 +1243,10 @@
       <c r="D13" s="2">
         <v>1004</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="5"/>
       <c r="G13" t="s">
         <v>28</v>
       </c>
@@ -1164,10 +1265,10 @@
       <c r="D14" s="2">
         <v>1004</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="5"/>
       <c r="G14" t="s">
         <v>28</v>
       </c>
@@ -1186,10 +1287,10 @@
       <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="5"/>
       <c r="G15">
         <v>1019</v>
       </c>
@@ -1208,10 +1309,10 @@
       <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G16">
@@ -1232,10 +1333,10 @@
       <c r="D17" s="2">
         <v>1004</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="5"/>
       <c r="G17" t="s">
         <v>28</v>
       </c>
@@ -1254,10 +1355,10 @@
       <c r="D18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="5"/>
       <c r="G18" t="s">
         <v>28</v>
       </c>
@@ -1276,10 +1377,10 @@
       <c r="D19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="5"/>
       <c r="G19" t="s">
         <v>28</v>
       </c>
@@ -1298,10 +1399,10 @@
       <c r="D20" s="2">
         <v>1004</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="5"/>
       <c r="G20" t="s">
         <v>28</v>
       </c>
@@ -1320,10 +1421,10 @@
       <c r="D21" s="2">
         <v>1004</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="5"/>
       <c r="G21" t="s">
         <v>28</v>
       </c>
@@ -1339,10 +1440,10 @@
       <c r="D22" s="2">
         <v>1004</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="5"/>
       <c r="G22" t="s">
         <v>28</v>
       </c>
@@ -1358,10 +1459,10 @@
       <c r="D23" s="2">
         <v>1016</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="5"/>
       <c r="G23" t="s">
         <v>28</v>
       </c>
@@ -1377,7 +1478,7 @@
       <c r="D24" s="2">
         <v>1016</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G24" t="s">
@@ -1395,7 +1496,7 @@
       <c r="D25" s="2">
         <v>1016</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G25">
@@ -1413,7 +1514,7 @@
       <c r="D26" s="2">
         <v>1016</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G26" t="s">
@@ -1431,7 +1532,7 @@
       <c r="D27" s="2">
         <v>1016</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G27" t="s">
@@ -1449,10 +1550,10 @@
       <c r="D28" s="2">
         <v>1016</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G28">
@@ -1567,256 +1668,360 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29.1" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="57.95" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E30" t="s">
+      <c r="D12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="5" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E906D233-A04F-4860-8FF4-6E963B5D80FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9976CE70-AC20-4F1E-B7DA-E66C0751774D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="123">
   <si>
     <t>Issue No.</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>Does shell/script support the standard way of accessing arguments/parameters, $* for all, $1 first 1, SHIFT to eat $1 and move others left. $0 pgm name $# num args.</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -691,6 +694,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1668,21 +1677,21 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="54.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="2.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="5" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="29" t="s">
@@ -1694,8 +1703,8 @@
       <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>45</v>
+      <c r="E1" s="29" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1768,6 +1777,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>75</v>
       </c>
@@ -1777,8 +1789,8 @@
       <c r="D8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
+      <c r="E8" s="5">
+        <v>0.91</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9976CE70-AC20-4F1E-B7DA-E66C0751774D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A55ACBF-ADD0-4E7A-88BA-3A1468D4FCF2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
     <sheet name="Suggestions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$6:$G$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$43</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
   <si>
     <t>Issue No.</t>
   </si>
@@ -180,8 +180,243 @@
     <t>CloseMerging all upper/lower case file name issues  from above into this one master issue.  A separate note should be written up on this topic specifying the desired behavior for all commands and APIs.</t>
   </si>
   <si>
+    <t>CM to 115</t>
+  </si>
+  <si>
+    <t>DNSINFO host Ipaddr does not add the passed entry to the local dns table.</t>
+  </si>
+  <si>
+    <t>At shell prompt does nothing.  In script it pauses and waits for a keypress regardless of parameter passed.</t>
+  </si>
+  <si>
+    <t>Edit cannot keep up with a moderate amount of typing.  It starts dropping characters.</t>
+  </si>
+  <si>
+    <t>Something is causing the system to lock up at the shell prompt right in the middle of typing a new command (you go to type CAT and after typing C the system hangs).  I am not sure what command(s) is leading to this.</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Closed Merged into another issue No.</t>
+  </si>
+  <si>
+    <t>Verified, means issue was retested and still exists.  Build Col will show orig build issue appeared and last tested build.</t>
+  </si>
+  <si>
+    <t>SHELL</t>
+  </si>
+  <si>
+    <t>If you do a PAUSE or SLEEP command at the shell prompt, the prompt starts to act weird.  After each command (LS or CAT) the command does what you want (display a dir) but then sits there blinking at you until you press return and then the prompt appears.  It keeps doing this until you reboot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fixed in…</t>
+  </si>
+  <si>
+    <t>1004/1016</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>-N implemented
+(Pipe is SHELL related)</t>
+  </si>
+  <si>
+    <t>S0004</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>S0005</t>
+  </si>
+  <si>
+    <t>WHO</t>
+  </si>
+  <si>
+    <t>Need a who command once we have logins going.</t>
+  </si>
+  <si>
+    <t>S0006</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>Need a clear screen command CLEAR or CLS.</t>
+  </si>
+  <si>
+    <t>S0007</t>
+  </si>
+  <si>
+    <t>V/H TAB</t>
+  </si>
+  <si>
+    <t>Need something along the lines of Basics VTAB HTAB so we can position the cursor before an Echo statement.  This may also require a way to do Echo's that don’t have CR/LF.</t>
+  </si>
+  <si>
+    <t>S0008</t>
+  </si>
+  <si>
+    <t>ECHO</t>
+  </si>
+  <si>
+    <t>S0009</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Word (-w), Line (-l) and Char (-c) count command.</t>
+  </si>
+  <si>
+    <t>S0010</t>
+  </si>
+  <si>
+    <t>CUT</t>
+  </si>
+  <si>
+    <t>We need a cut command which could be used to pull fields of data out of output or files (CUT file types out of L listings, or CUT user ID from passwd file). -d option to delimit by char (:). -f pulls fields by that delimiter.</t>
+  </si>
+  <si>
+    <t>S0011</t>
+  </si>
+  <si>
+    <t>GREP</t>
+  </si>
+  <si>
+    <t>Parse lines and filter by pattern.</t>
+  </si>
+  <si>
+    <t>The DATE command should have options for returning the Day of Week (-w) as # (-W) as word, month (-m) as # (-M) as word, the day (-d) and the year (-y) 2 digit (-Y) 4 digit.</t>
+  </si>
+  <si>
+    <t>S0012</t>
+  </si>
+  <si>
+    <t>EXPR</t>
+  </si>
+  <si>
+    <t>One option to adding a complete/extensive expression evaluator into the shell (making it bigger) is to move this to a separate command EXPR.</t>
+  </si>
+  <si>
+    <t>S0013</t>
+  </si>
+  <si>
+    <t>SHELL CASE</t>
+  </si>
+  <si>
+    <t>Case statement in shell.</t>
+  </si>
+  <si>
+    <t>S0014</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>FOR x in list, DO … DONE</t>
+  </si>
+  <si>
+    <t>S0015</t>
+  </si>
+  <si>
+    <t>WHILE / UNTIL</t>
+  </si>
+  <si>
+    <t>Add to the shell support for WHILE and UNTIL loop constructs.</t>
+  </si>
+  <si>
+    <t>S0016</t>
+  </si>
+  <si>
+    <t>S0017</t>
+  </si>
+  <si>
+    <t>S0018</t>
+  </si>
+  <si>
+    <t>S0019</t>
+  </si>
+  <si>
+    <t>S0020</t>
+  </si>
+  <si>
+    <t>S0021</t>
+  </si>
+  <si>
+    <t>S0022</t>
+  </si>
+  <si>
+    <t>S0023</t>
+  </si>
+  <si>
+    <t>S0024</t>
+  </si>
+  <si>
+    <t>S0025</t>
+  </si>
+  <si>
+    <t>A way to echo special chars (VT100 stuff, MouseText Chars).  Also echo should support standard special chars  \n Newline \b backspace \t tab \0nnn ascii char nnn.</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>Some of the things in STARTUP should problably be in an /etc/profile file (set PATH, TERM, PS1, etc.)</t>
+  </si>
+  <si>
+    <t>$0-S9 vars; SHIFT</t>
+  </si>
+  <si>
+    <t>PRINTF</t>
+  </si>
+  <si>
+    <t>A command version of C func.  Basically a very advanced version of Echo that allows formatting.  By making it external, can save mem of code/data space.</t>
+  </si>
+  <si>
+    <t>Does shell/script support the standard way of accessing arguments/parameters, $* for all, $1 first 1, SHIFT to eat $1 and move others left. $0 pgm name $# num args.</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>$# reports 2 In IFTEST, it should be 0 as no args are passed to IFTEST.  IFTEST arg1 arg2 would report 2.  That is why the shell and command file have special vars and are not "args" and counted in arg count.</t>
+  </si>
+  <si>
+    <t>I have not seen this again in the latest builds and cannot repeat so closing issue. PK</t>
+  </si>
+  <si>
+    <t>Same correction applied to ARP.  Fixed.</t>
+  </si>
+  <si>
+    <t>1004/1027</t>
+  </si>
+  <si>
+    <t>Verified in latest.  Boot, -run, at prompt EDIT A.  Then type some stuff, then ctrl-S  PRESS ESCAPE and then type aaa and return.  Error 40</t>
+  </si>
+  <si>
+    <t>Which NIC/Driver ? -RG This is on AppleWin using NET script.  I need to test this on a real Apple, it may be the Eth driver in AppleWin is reporting it wrong to you. -PK</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Hardware Test, means issue should be retested on real Apple HW to ensure it is not an AppleWin related problem (timing).</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Telnet to A80s works but to Linux box you always get a </t>
+      <t xml:space="preserve">Telnet to A80s connects but at end of session you get a </t>
     </r>
     <r>
       <rPr>
@@ -194,226 +429,46 @@
       </rPr>
       <t>Socket Error : $27</t>
     </r>
-  </si>
-  <si>
-    <t>CM to 115</t>
-  </si>
-  <si>
-    <t>DNSINFO host Ipaddr does not add the passed entry to the local dns table.</t>
-  </si>
-  <si>
-    <t>At shell prompt does nothing.  In script it pauses and waits for a keypress regardless of parameter passed.</t>
-  </si>
-  <si>
-    <t>Edit cannot keep up with a moderate amount of typing.  It starts dropping characters.</t>
-  </si>
-  <si>
-    <t>Something is causing the system to lock up at the shell prompt right in the middle of typing a new command (you go to type CAT and after typing C the system hangs).  I am not sure what command(s) is leading to this.</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Closed Merged into another issue No.</t>
-  </si>
-  <si>
-    <t>Verified, means issue was retested and still exists.  Build Col will show orig build issue appeared and last tested build.</t>
-  </si>
-  <si>
-    <t>SHELL</t>
-  </si>
-  <si>
-    <t>If you do a PAUSE or SLEEP command at the shell prompt, the prompt starts to act weird.  After each command (LS or CAT) the command does what you want (display a dir) but then sits there blinking at you until you press return and then the prompt appears.  It keeps doing this until you reboot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fixed in…</t>
-  </si>
-  <si>
-    <t>1004/1016</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Which NIC/Driver ?</t>
-  </si>
-  <si>
-    <t>Status:</t>
-  </si>
-  <si>
-    <t>Same correction applied to ARP</t>
-  </si>
-  <si>
-    <t>quick fix for PAUSE:limited to CR</t>
-  </si>
-  <si>
-    <t>-N implemented
-(Pipe is SHELL related)</t>
-  </si>
-  <si>
-    <t>S0004</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>S0005</t>
-  </si>
-  <si>
-    <t>WHO</t>
-  </si>
-  <si>
-    <t>Need a who command once we have logins going.</t>
-  </si>
-  <si>
-    <t>S0006</t>
-  </si>
-  <si>
-    <t>CLS</t>
-  </si>
-  <si>
-    <t>Need a clear screen command CLEAR or CLS.</t>
-  </si>
-  <si>
-    <t>S0007</t>
-  </si>
-  <si>
-    <t>V/H TAB</t>
-  </si>
-  <si>
-    <t>Need something along the lines of Basics VTAB HTAB so we can position the cursor before an Echo statement.  This may also require a way to do Echo's that don’t have CR/LF.</t>
-  </si>
-  <si>
-    <t>S0008</t>
-  </si>
-  <si>
-    <t>ECHO</t>
-  </si>
-  <si>
-    <t>S0009</t>
-  </si>
-  <si>
-    <t>WC</t>
-  </si>
-  <si>
-    <t>Word (-w), Line (-l) and Char (-c) count command.</t>
-  </si>
-  <si>
-    <t>S0010</t>
-  </si>
-  <si>
-    <t>CUT</t>
-  </si>
-  <si>
-    <t>We need a cut command which could be used to pull fields of data out of output or files (CUT file types out of L listings, or CUT user ID from passwd file). -d option to delimit by char (:). -f pulls fields by that delimiter.</t>
-  </si>
-  <si>
-    <t>S0011</t>
-  </si>
-  <si>
-    <t>GREP</t>
-  </si>
-  <si>
-    <t>Parse lines and filter by pattern.</t>
-  </si>
-  <si>
-    <t>The DATE command should have options for returning the Day of Week (-w) as # (-W) as word, month (-m) as # (-M) as word, the day (-d) and the year (-y) 2 digit (-Y) 4 digit.</t>
-  </si>
-  <si>
-    <t>S0012</t>
-  </si>
-  <si>
-    <t>EXPR</t>
-  </si>
-  <si>
-    <t>One option to adding a complete/extensive expression evaluator into the shell (making it bigger) is to move this to a separate command EXPR.</t>
-  </si>
-  <si>
-    <t>S0013</t>
-  </si>
-  <si>
-    <t>SHELL CASE</t>
-  </si>
-  <si>
-    <t>Case statement in shell.</t>
-  </si>
-  <si>
-    <t>S0014</t>
-  </si>
-  <si>
-    <t>FOR</t>
-  </si>
-  <si>
-    <t>FOR x in list, DO … DONE</t>
-  </si>
-  <si>
-    <t>S0015</t>
-  </si>
-  <si>
-    <t>WHILE / UNTIL</t>
-  </si>
-  <si>
-    <t>Add to the shell support for WHILE and UNTIL loop constructs.</t>
-  </si>
-  <si>
-    <t>S0016</t>
-  </si>
-  <si>
-    <t>S0017</t>
-  </si>
-  <si>
-    <t>S0018</t>
-  </si>
-  <si>
-    <t>S0019</t>
-  </si>
-  <si>
-    <t>S0020</t>
-  </si>
-  <si>
-    <t>S0021</t>
-  </si>
-  <si>
-    <t>S0022</t>
-  </si>
-  <si>
-    <t>S0023</t>
-  </si>
-  <si>
-    <t>S0024</t>
-  </si>
-  <si>
-    <t>S0025</t>
-  </si>
-  <si>
-    <t>A way to echo special chars (VT100 stuff, MouseText Chars).  Also echo should support standard special chars  \n Newline \b backspace \t tab \0nnn ascii char nnn.</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>Some of the things in STARTUP should problably be in an /etc/profile file (set PATH, TERM, PS1, etc.)</t>
-  </si>
-  <si>
-    <t>$0-S9 vars; SHIFT</t>
-  </si>
-  <si>
-    <t>PRINTF</t>
-  </si>
-  <si>
-    <t>A command version of C func.  Basically a very advanced version of Echo that allows formatting.  By making it external, can save mem of code/data space.</t>
-  </si>
-  <si>
-    <t>Does shell/script support the standard way of accessing arguments/parameters, $* for all, $1 first 1, SHIFT to eat $1 and move others left. $0 pgm name $# num args.</t>
-  </si>
-  <si>
-    <t>Target</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  when pressing return when session is over.  On connections to a Linux box you always get a session Connected followed immediately by a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Socket Error : $27 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and you don’t actually get a connected session.</t>
+    </r>
+  </si>
+  <si>
+    <t>Type DNSINFO ME 1.1.1.1 and after do another DNSINFO and see that ME was not added</t>
+  </si>
+  <si>
+    <t>I can still get it to drop chars if I type fast enough (I can type fast, a hunt and pecker will not see this issue).</t>
+  </si>
+  <si>
+    <t>quick fix for PAUSE:limited to CR -RG  Sleep is fixed, Pause working for return only.  Will Close this issue but open one for PAUSE to accept keypress.</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1071,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,92 +1091,84 @@
     <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1004</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" t="s">
-        <v>28</v>
+      <c r="F7" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1129,459 +1176,506 @@
         <v>46</v>
       </c>
       <c r="B8" s="1">
-        <f>B7+1</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
         <v>1004</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="58.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ref="B9:B33" si="0">B8+1</f>
-        <v>102</v>
+        <f>B8+1</f>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <v>1004</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="58.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
+        <f t="shared" ref="B10:B34" si="0">B9+1</f>
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1004</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10">
+      <c r="F11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11">
         <v>1018</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="F12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="F13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>1004</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="29.1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29.1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>1004</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="F15" s="5"/>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15">
+      <c r="F16" s="5"/>
+      <c r="G16">
         <v>1019</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16">
+      <c r="F17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17">
         <v>1022</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="18" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>1004</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="F18" s="5"/>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" ref="B19:B20" si="1">B18+1</f>
+      <c r="F19" s="5"/>
+      <c r="G19">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" ref="B20:B21" si="1">B19+1</f>
         <v>112</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="57.95" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="F20" s="5"/>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="57.95" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>1004</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="203.1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="203.1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>1004</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="57.95" x14ac:dyDescent="0.35">
-      <c r="B22" s="1">
+      <c r="F22" s="5"/>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57.95" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>1004</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
+      <c r="F23" s="5"/>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>1016</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
-      <c r="B24" s="1">
+      <c r="E24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>1016</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
-      <c r="B25" s="1">
+      <c r="E25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>1016</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25">
+      <c r="E26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26">
         <v>1020</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
-      <c r="B26" s="1">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="2">
-        <v>1016</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="B27" s="1">
+      <c r="D27" s="2">
+        <v>1027</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <v>1016</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="B28" s="1">
+      <c r="E28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1016</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="2">
-        <v>1016</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28">
+      <c r="F29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
         <v>1020</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B29" s="1">
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>123</v>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1017</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="G30" t="s">
         <v>28</v>
@@ -1590,7 +1684,7 @@
     <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
         <v>28</v>
@@ -1599,7 +1693,7 @@
     <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
@@ -1608,13 +1702,17 @@
     <row r="33" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="G34" t="s">
         <v>28</v>
       </c>
@@ -1624,7 +1722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="G36" t="s">
         <v>28</v>
       </c>
@@ -1659,8 +1757,13 @@
         <v>28</v>
       </c>
     </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:G42" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:G43" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="V"/>
@@ -1676,7 +1779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1704,7 +1807,7 @@
         <v>37</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1750,13 +1853,13 @@
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>45</v>
@@ -1764,13 +1867,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>45</v>
@@ -1781,13 +1884,13 @@
         <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5">
         <v>0.91</v>
@@ -1795,13 +1898,13 @@
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>45</v>
@@ -1809,13 +1912,13 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>45</v>
@@ -1823,13 +1926,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>45</v>
@@ -1837,13 +1940,13 @@
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>45</v>
@@ -1851,13 +1954,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>45</v>
@@ -1865,13 +1968,13 @@
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>45</v>
@@ -1879,13 +1982,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>45</v>
@@ -1893,13 +1996,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>45</v>
@@ -1907,13 +2010,13 @@
     </row>
     <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>45</v>
@@ -1921,13 +2024,13 @@
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>45</v>
@@ -1935,13 +2038,13 @@
     </row>
     <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>45</v>
@@ -1949,13 +2052,13 @@
     </row>
     <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>45</v>
@@ -1963,7 +2066,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>45</v>
@@ -1971,7 +2074,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>45</v>
@@ -1979,7 +2082,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>45</v>
@@ -1987,7 +2090,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>45</v>
@@ -1995,7 +2098,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>45</v>
@@ -2003,7 +2106,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>45</v>
@@ -2011,7 +2114,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>45</v>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A55ACBF-ADD0-4E7A-88BA-3A1468D4FCF2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F08DFE-024F-4D3F-85E5-006932DAF71D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="131">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,6 +1643,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>121</v>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F08DFE-024F-4D3F-85E5-006932DAF71D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ADC317-8959-4F30-B426-EE19767A79DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="147">
   <si>
     <t>Issue No.</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>CloseMerging all upper/lower case file name issues  from above into this one master issue.  A separate note should be written up on this topic specifying the desired behavior for all commands and APIs.</t>
-  </si>
-  <si>
-    <t>CM to 115</t>
   </si>
   <si>
     <t>DNSINFO host Ipaddr does not add the passed entry to the local dns table.</t>
@@ -469,6 +466,57 @@
   </si>
   <si>
     <t>quick fix for PAUSE:limited to CR -RG  Sleep is fixed, Pause working for return only.  Will Close this issue but open one for PAUSE to accept keypress.</t>
+  </si>
+  <si>
+    <t>ProDOS</t>
+  </si>
+  <si>
+    <t>The Version of ProDOS on BUILD (and I assume BOOT) is V2.0.3.  The most current version is 2.4.2.  We should update the version of ProDOS on our discs to match (largley to keep up with the date/clock corrections) and bug fixes.</t>
+  </si>
+  <si>
+    <t>SysInfo</t>
+  </si>
+  <si>
+    <t>Make a new Program called SYSINFO.  Be default it should return the HOSTNAME, System Type (//e, gs. Etc), OS Name, Version (0.92), boot device, etc.  Their should also be options (-H hostname, -S systype, -V version, etc), for each data item so one can write programs that get just the bit they want (like current os version).</t>
+  </si>
+  <si>
+    <t>When you CAT IFTEST you see the whole file, but if you MORE IFTEST, the screen clears and then the file displays.  I believe it is processing the \f on the first line of the file.  This may be good for things like MAN pages that are designed to be formatted, but not desirable for displaying code like IFTEST.  I suggest a option be added to MORE (-S process screen codes) that will do the clears and other VT100 codes, but that the default behavior is to NOT process these codes and behave more like CAT.</t>
+  </si>
+  <si>
+    <t>After MORE displays a page of text and pauses waiting for input, SPACE should display another page (which it does), RETURN should display one more line.  Q (single letter q) should exit more immediately and return to command line.</t>
+  </si>
+  <si>
+    <t>VOL</t>
+  </si>
+  <si>
+    <t>There should be a VOL or VOLUME command that allows you to get or set the name of a VOLUME by device ID (S7D1).  There should be a VOL - A option that lists all vols by device (like L /) but VOL command sould list drives with no VOL. This command would be the way to rename a volume.</t>
+  </si>
+  <si>
+    <t>RETURN Code</t>
+  </si>
+  <si>
+    <t>It would be nice to implment $? (if I echo that I always get 0 so I think you are already planning this one).  Allow a SCRIPT to set it (RETURN 1 or RETURN 10 or RETURN 0 etc).  Also commands should set RETURN codes based on success.  This code has to pass back between shells (can't be lost like ENV is).</t>
+  </si>
+  <si>
+    <t>CAT badfile</t>
+  </si>
+  <si>
+    <t>CAT of a file that does not exists does not return an error, should return "cat: badifle: No such file".</t>
+  </si>
+  <si>
+    <t>STARTUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I suggest renaming the A2OSX.STARTUP file to INIT and placing in the ETC directory.  A2OSX.SYSTEM should look for it there. </t>
+  </si>
+  <si>
+    <t>SHELL exit</t>
+  </si>
+  <si>
+    <t>Exiting shell (Ctrl-D) then relog in puts you in a nomans land for CD/PWD and then gives FreeMem error.</t>
+  </si>
+  <si>
+    <t>TELNET WORKS FINE for connecting.  The Linux problem was I was trying to go to boxes that only have SSH.  I forgot that I have a special non-SSH regular TELNET box setup (the one you have tested against) and it works fine.  Note though that ALL Telnet sessions (A80s, linux, etc.) end with the Socket Error, but otherwise work fine.</t>
   </si>
 </sst>
 </file>
@@ -1070,11 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,16 +1135,16 @@
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="11"/>
@@ -1107,10 +1154,10 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="16"/>
@@ -1120,10 +1167,10 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="16"/>
@@ -1133,10 +1180,10 @@
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="21"/>
@@ -1165,13 +1212,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1192,7 +1239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1214,9 +1261,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ref="B10:B34" si="0">B9+1</f>
@@ -1248,13 +1295,13 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11">
         <v>1018</v>
@@ -1262,7 +1309,7 @@
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
@@ -1272,13 +1319,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -1286,7 +1333,7 @@
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
@@ -1296,21 +1343,21 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
@@ -1330,7 +1377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29.1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1352,7 +1399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1364,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>34</v>
@@ -1386,21 +1433,21 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17">
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -1420,7 +1467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1432,7 +1479,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>32</v>
@@ -1444,7 +1491,7 @@
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ref="B20:B21" si="1">B19+1</f>
@@ -1454,7 +1501,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>31</v>
@@ -1464,9 +1511,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="57.95" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -1486,7 +1533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="203.1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -1508,7 +1555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57.95" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -1527,9 +1574,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
@@ -1542,16 +1589,18 @@
         <v>1016</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="G24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
@@ -1564,16 +1613,16 @@
         <v>1016</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1588,7 +1637,7 @@
         <v>1016</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>1020</v>
@@ -1596,7 +1645,7 @@
     </row>
     <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
@@ -1609,10 +1658,10 @@
         <v>1027</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
         <v>28</v>
@@ -1633,10 +1682,10 @@
         <v>1016</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28">
         <v>1026</v>
@@ -1651,16 +1700,16 @@
         <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2">
         <v>1016</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29">
         <v>1020</v>
@@ -1672,60 +1721,96 @@
         <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="2">
         <v>1017</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1027</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="G31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1027</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="G32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1027</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="G33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1027</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="G34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>28</v>
       </c>
@@ -1766,13 +1851,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G43" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="V"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:G43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1782,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,7 +1889,7 @@
         <v>37</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,13 +1935,13 @@
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>45</v>
@@ -1870,13 +1949,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>45</v>
@@ -1887,13 +1966,13 @@
         <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E8" s="5">
         <v>0.91</v>
@@ -1901,13 +1980,13 @@
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>45</v>
@@ -1915,13 +1994,13 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>45</v>
@@ -1929,13 +2008,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>45</v>
@@ -1943,13 +2022,13 @@
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>45</v>
@@ -1957,13 +2036,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>45</v>
@@ -1971,13 +2050,13 @@
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>45</v>
@@ -1985,13 +2064,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>45</v>
@@ -1999,13 +2078,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>45</v>
@@ -2013,13 +2092,13 @@
     </row>
     <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>45</v>
@@ -2027,13 +2106,13 @@
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>45</v>
@@ -2041,13 +2120,13 @@
     </row>
     <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>45</v>
@@ -2055,53 +2134,83 @@
     </row>
     <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>108</v>
+      <c r="C25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>45</v>
@@ -2109,7 +2218,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>45</v>
@@ -2117,7 +2226,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>45</v>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ADC317-8959-4F30-B426-EE19767A79DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$43</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="157">
   <si>
     <t>Issue No.</t>
   </si>
@@ -518,11 +512,50 @@
   <si>
     <t>TELNET WORKS FINE for connecting.  The Linux problem was I was trying to go to boxes that only have SSH.  I forgot that I have a special non-SSH regular TELNET box setup (the one you have tested against) and it works fine.  Note though that ALL Telnet sessions (A80s, linux, etc.) end with the Socket Error, but otherwise work fine.</t>
   </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>A2OSX.SRC is FULL
+- Will merge BUILD+SRC in a HD image (32mb) booting MASM3.SYSTEM
+- Rename BUILD -&gt; BOOT800, booting A2osX
+- Create a script MAKEB800 to build BOOT800</t>
+  </si>
+  <si>
+    <t>UNAME, instead ?</t>
+  </si>
+  <si>
+    <t>Planned to close an old issue at GH</t>
+  </si>
+  <si>
+    <t>Multi Protocol stack
+- Remove Config Code in LIBTCPIP
+- Merge Config Code+DHCPCLNT -&gt; IPCONFIG (new switches : -d -s -r)
+- Rename TCPIPD -&gt; NETD
+- Make LIBTCPIP,LIBETLK... to be bound to ETHx by NETD
+- Add etc/netd.conf for protocol binding</t>
+  </si>
+  <si>
+    <t>REN works win file dir, and volume</t>
+  </si>
+  <si>
+    <t>it's a BUG, to be moved in ISSUES
+Should already behave like this!!!</t>
+  </si>
+  <si>
+    <t>Linked to S0022, see comment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -719,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -730,9 +763,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -795,14 +825,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,115 +1146,116 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="2"/>
+    <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="18"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1231,15 +1268,15 @@
       <c r="D8" s="2">
         <v>1004</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
       <c r="G8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1253,15 +1290,15 @@
       <c r="D9" s="2">
         <v>1004</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1275,15 +1312,15 @@
       <c r="D10" s="2">
         <v>1004</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
       <c r="G10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1297,17 +1334,17 @@
       <c r="D11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>120</v>
       </c>
       <c r="G11">
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -1321,17 +1358,17 @@
       <c r="D12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -1345,17 +1382,17 @@
       <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -1369,15 +1406,15 @@
       <c r="D14" s="2">
         <v>1004</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
       <c r="G14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1391,15 +1428,15 @@
       <c r="D15" s="2">
         <v>1004</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="4"/>
       <c r="G15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1413,15 +1450,15 @@
       <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
       <c r="G16">
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1445,7 +1482,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1459,15 +1496,15 @@
       <c r="D18" s="2">
         <v>1004</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
       <c r="G18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1481,15 +1518,15 @@
       <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
       <c r="G19">
         <v>1027</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -1503,15 +1540,15 @@
       <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
       <c r="G20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -1525,15 +1562,15 @@
       <c r="D21" s="2">
         <v>1004</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="4"/>
       <c r="G21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -1547,15 +1584,15 @@
       <c r="D22" s="2">
         <v>1004</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
       <c r="G22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -1566,15 +1603,15 @@
       <c r="D23" s="2">
         <v>1004</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="4"/>
       <c r="G23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1588,17 +1625,17 @@
       <c r="D24" s="2">
         <v>1016</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>146</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -1618,11 +1655,11 @@
       <c r="F25" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1643,7 +1680,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -1667,7 +1704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -1691,7 +1728,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -1715,7 +1752,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>122</v>
@@ -1733,7 +1770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>123</v>
@@ -1751,7 +1788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>124</v>
@@ -1769,7 +1806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -1783,11 +1820,14 @@
       <c r="E33" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="F33" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="G33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>126</v>
@@ -1805,445 +1845,463 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G43" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A7:G43">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="HT"/>
+        <filter val="V"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="6.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="62.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8" style="3" customWidth="1"/>
+    <col min="6" max="6" width="60.90625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="31" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E2" s="5" t="s">
+      <c r="F1" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="5" t="s">
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="5" t="s">
+    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="5" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="5" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="5" t="s">
+    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="5" t="s">
+    <row r="18" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="5" t="s">
+    <row r="19" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="5" t="s">
+    <row r="20" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="5" t="s">
+    <row r="21" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F21" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F24" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="5" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="5" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E27" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="5" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E28" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="5" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E29" s="3" t="s">
         <v>45</v>
       </c>
     </row>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA78E1E9-5292-4922-8D94-711FC823AB3F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$43</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="156">
   <si>
     <t>Issue No.</t>
   </si>
@@ -406,8 +412,104 @@
     <t>Hardware Test, means issue should be retested on real Apple HW to ensure it is not an AppleWin related problem (timing).</t>
   </si>
   <si>
+    <t>Type DNSINFO ME 1.1.1.1 and after do another DNSINFO and see that ME was not added</t>
+  </si>
+  <si>
+    <t>I can still get it to drop chars if I type fast enough (I can type fast, a hunt and pecker will not see this issue).</t>
+  </si>
+  <si>
+    <t>quick fix for PAUSE:limited to CR -RG  Sleep is fixed, Pause working for return only.  Will Close this issue but open one for PAUSE to accept keypress.</t>
+  </si>
+  <si>
+    <t>ProDOS</t>
+  </si>
+  <si>
+    <t>The Version of ProDOS on BUILD (and I assume BOOT) is V2.0.3.  The most current version is 2.4.2.  We should update the version of ProDOS on our discs to match (largley to keep up with the date/clock corrections) and bug fixes.</t>
+  </si>
+  <si>
+    <t>SysInfo</t>
+  </si>
+  <si>
+    <t>Make a new Program called SYSINFO.  Be default it should return the HOSTNAME, System Type (//e, gs. Etc), OS Name, Version (0.92), boot device, etc.  Their should also be options (-H hostname, -S systype, -V version, etc), for each data item so one can write programs that get just the bit they want (like current os version).</t>
+  </si>
+  <si>
+    <t>When you CAT IFTEST you see the whole file, but if you MORE IFTEST, the screen clears and then the file displays.  I believe it is processing the \f on the first line of the file.  This may be good for things like MAN pages that are designed to be formatted, but not desirable for displaying code like IFTEST.  I suggest a option be added to MORE (-S process screen codes) that will do the clears and other VT100 codes, but that the default behavior is to NOT process these codes and behave more like CAT.</t>
+  </si>
+  <si>
+    <t>After MORE displays a page of text and pauses waiting for input, SPACE should display another page (which it does), RETURN should display one more line.  Q (single letter q) should exit more immediately and return to command line.</t>
+  </si>
+  <si>
+    <t>VOL</t>
+  </si>
+  <si>
+    <t>There should be a VOL or VOLUME command that allows you to get or set the name of a VOLUME by device ID (S7D1).  There should be a VOL - A option that lists all vols by device (like L /) but VOL command sould list drives with no VOL. This command would be the way to rename a volume.</t>
+  </si>
+  <si>
+    <t>RETURN Code</t>
+  </si>
+  <si>
+    <t>It would be nice to implment $? (if I echo that I always get 0 so I think you are already planning this one).  Allow a SCRIPT to set it (RETURN 1 or RETURN 10 or RETURN 0 etc).  Also commands should set RETURN codes based on success.  This code has to pass back between shells (can't be lost like ENV is).</t>
+  </si>
+  <si>
+    <t>CAT badfile</t>
+  </si>
+  <si>
+    <t>CAT of a file that does not exists does not return an error, should return "cat: badifle: No such file".</t>
+  </si>
+  <si>
+    <t>STARTUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I suggest renaming the A2OSX.STARTUP file to INIT and placing in the ETC directory.  A2OSX.SYSTEM should look for it there. </t>
+  </si>
+  <si>
+    <t>SHELL exit</t>
+  </si>
+  <si>
+    <t>Exiting shell (Ctrl-D) then relog in puts you in a nomans land for CD/PWD and then gives FreeMem error.</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>A2OSX.SRC is FULL
+- Will merge BUILD+SRC in a HD image (32mb) booting MASM3.SYSTEM
+- Rename BUILD -&gt; BOOT800, booting A2osX
+- Create a script MAKEB800 to build BOOT800</t>
+  </si>
+  <si>
+    <t>UNAME, instead ?</t>
+  </si>
+  <si>
+    <t>Planned to close an old issue at GH</t>
+  </si>
+  <si>
+    <t>Multi Protocol stack
+- Remove Config Code in LIBTCPIP
+- Merge Config Code+DHCPCLNT -&gt; IPCONFIG (new switches : -d -s -r)
+- Rename TCPIPD -&gt; NETD
+- Make LIBTCPIP,LIBETLK... to be bound to ETHx by NETD
+- Add etc/netd.conf for protocol binding</t>
+  </si>
+  <si>
+    <t>REN works win file dir, and volume</t>
+  </si>
+  <si>
+    <t>it's a BUG, to be moved in ISSUES
+Should already behave like this!!!</t>
+  </si>
+  <si>
+    <t>Linked to S0022, see comment</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Telnet to A80s connects but at end of session you get a </t>
+      <t xml:space="preserve">All Telnet sessions when terminated from the host end with a </t>
     </r>
     <r>
       <rPr>
@@ -428,134 +530,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  when pressing return when session is over.  On connections to a Linux box you always get a session Connected followed immediately by a </t>
+      <t xml:space="preserve">  </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Socket Error : $27 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and you don’t actually get a connected session.</t>
-    </r>
-  </si>
-  <si>
-    <t>Type DNSINFO ME 1.1.1.1 and after do another DNSINFO and see that ME was not added</t>
-  </si>
-  <si>
-    <t>I can still get it to drop chars if I type fast enough (I can type fast, a hunt and pecker will not see this issue).</t>
-  </si>
-  <si>
-    <t>quick fix for PAUSE:limited to CR -RG  Sleep is fixed, Pause working for return only.  Will Close this issue but open one for PAUSE to accept keypress.</t>
-  </si>
-  <si>
-    <t>ProDOS</t>
-  </si>
-  <si>
-    <t>The Version of ProDOS on BUILD (and I assume BOOT) is V2.0.3.  The most current version is 2.4.2.  We should update the version of ProDOS on our discs to match (largley to keep up with the date/clock corrections) and bug fixes.</t>
-  </si>
-  <si>
-    <t>SysInfo</t>
-  </si>
-  <si>
-    <t>Make a new Program called SYSINFO.  Be default it should return the HOSTNAME, System Type (//e, gs. Etc), OS Name, Version (0.92), boot device, etc.  Their should also be options (-H hostname, -S systype, -V version, etc), for each data item so one can write programs that get just the bit they want (like current os version).</t>
-  </si>
-  <si>
-    <t>When you CAT IFTEST you see the whole file, but if you MORE IFTEST, the screen clears and then the file displays.  I believe it is processing the \f on the first line of the file.  This may be good for things like MAN pages that are designed to be formatted, but not desirable for displaying code like IFTEST.  I suggest a option be added to MORE (-S process screen codes) that will do the clears and other VT100 codes, but that the default behavior is to NOT process these codes and behave more like CAT.</t>
-  </si>
-  <si>
-    <t>After MORE displays a page of text and pauses waiting for input, SPACE should display another page (which it does), RETURN should display one more line.  Q (single letter q) should exit more immediately and return to command line.</t>
-  </si>
-  <si>
-    <t>VOL</t>
-  </si>
-  <si>
-    <t>There should be a VOL or VOLUME command that allows you to get or set the name of a VOLUME by device ID (S7D1).  There should be a VOL - A option that lists all vols by device (like L /) but VOL command sould list drives with no VOL. This command would be the way to rename a volume.</t>
-  </si>
-  <si>
-    <t>RETURN Code</t>
-  </si>
-  <si>
-    <t>It would be nice to implment $? (if I echo that I always get 0 so I think you are already planning this one).  Allow a SCRIPT to set it (RETURN 1 or RETURN 10 or RETURN 0 etc).  Also commands should set RETURN codes based on success.  This code has to pass back between shells (can't be lost like ENV is).</t>
-  </si>
-  <si>
-    <t>CAT badfile</t>
-  </si>
-  <si>
-    <t>CAT of a file that does not exists does not return an error, should return "cat: badifle: No such file".</t>
-  </si>
-  <si>
-    <t>STARTUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I suggest renaming the A2OSX.STARTUP file to INIT and placing in the ETC directory.  A2OSX.SYSTEM should look for it there. </t>
-  </si>
-  <si>
-    <t>SHELL exit</t>
-  </si>
-  <si>
-    <t>Exiting shell (Ctrl-D) then relog in puts you in a nomans land for CD/PWD and then gives FreeMem error.</t>
-  </si>
-  <si>
-    <t>TELNET WORKS FINE for connecting.  The Linux problem was I was trying to go to boxes that only have SSH.  I forgot that I have a special non-SSH regular TELNET box setup (the one you have tested against) and it works fine.  Note though that ALL Telnet sessions (A80s, linux, etc.) end with the Socket Error, but otherwise work fine.</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>A2OSX.SRC is FULL
-- Will merge BUILD+SRC in a HD image (32mb) booting MASM3.SYSTEM
-- Rename BUILD -&gt; BOOT800, booting A2osX
-- Create a script MAKEB800 to build BOOT800</t>
-  </si>
-  <si>
-    <t>UNAME, instead ?</t>
-  </si>
-  <si>
-    <t>Planned to close an old issue at GH</t>
-  </si>
-  <si>
-    <t>Multi Protocol stack
-- Remove Config Code in LIBTCPIP
-- Merge Config Code+DHCPCLNT -&gt; IPCONFIG (new switches : -d -s -r)
-- Rename TCPIPD -&gt; NETD
-- Make LIBTCPIP,LIBETLK... to be bound to ETHx by NETD
-- Add etc/netd.conf for protocol binding</t>
-  </si>
-  <si>
-    <t>REN works win file dir, and volume</t>
-  </si>
-  <si>
-    <t>it's a BUG, to be moved in ISSUES
-Should already behave like this!!!</t>
-  </si>
-  <si>
-    <t>Linked to S0022, see comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1146,34 +1128,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>63</v>
       </c>
@@ -1188,7 +1170,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
         <v>55</v>
@@ -1201,7 +1183,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>124</v>
@@ -1214,7 +1196,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
         <v>53</v>
@@ -1227,12 +1209,12 @@
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
@@ -1255,7 +1237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1276,7 +1258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1298,7 +1280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1320,7 +1302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1344,9 +1326,9 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
@@ -1368,7 +1350,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -1392,7 +1374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -1436,7 +1418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1504,7 +1486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1526,7 +1508,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -1548,7 +1530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -1570,7 +1552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -1592,7 +1574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -1611,7 +1593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1626,18 +1608,16 @@
         <v>1016</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F24" s="4"/>
       <c r="G24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
@@ -1653,13 +1633,13 @@
         <v>49</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25">
         <v>1034</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1680,7 +1660,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -1698,13 +1678,13 @@
         <v>51</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -1728,7 +1708,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -1746,13 +1726,13 @@
         <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29">
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>122</v>
@@ -1770,7 +1750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>123</v>
@@ -1782,13 +1762,13 @@
         <v>1027</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>124</v>
@@ -1800,98 +1780,98 @@
         <v>1027</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="2">
         <v>1027</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="2">
         <v>1027</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G43">
+  <autoFilter ref="A7:G43" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="HT"/>
@@ -1905,25 +1885,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="62.1796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="6" width="60.90625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="4"/>
+    <col min="6" max="6" width="60.85546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
@@ -1943,7 +1923,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
@@ -1954,10 +1934,10 @@
         <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1965,10 +1945,10 @@
         <v>40</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -1976,13 +1956,13 @@
         <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
@@ -1996,7 +1976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>67</v>
       </c>
@@ -2007,10 +1987,10 @@
         <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>46</v>
       </c>
@@ -2024,7 +2004,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>73</v>
       </c>
@@ -2038,7 +2018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>76</v>
       </c>
@@ -2052,7 +2032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>78</v>
       </c>
@@ -2066,7 +2046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>81</v>
       </c>
@@ -2080,7 +2060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>84</v>
       </c>
@@ -2094,7 +2074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>88</v>
       </c>
@@ -2108,7 +2088,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>91</v>
       </c>
@@ -2122,7 +2102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
@@ -2136,7 +2116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>97</v>
       </c>
@@ -2150,7 +2130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>100</v>
       </c>
@@ -2164,7 +2144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>101</v>
       </c>
@@ -2178,7 +2158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>102</v>
       </c>
@@ -2192,89 +2172,89 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>108</v>
       </c>
@@ -2282,7 +2262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>109</v>
       </c>
@@ -2290,17 +2270,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E27" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="s">
         <v>45</v>
       </c>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA78E1E9-5292-4922-8D94-711FC823AB3F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058D442D-FD08-4289-A665-2D76E884ABF9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
     <sheet name="Suggestions" sheetId="2" r:id="rId2"/>
+    <sheet name="Commands" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$43</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="247">
   <si>
     <t>Issue No.</t>
   </si>
@@ -499,13 +500,6 @@
   </si>
   <si>
     <t>REN works win file dir, and volume</t>
-  </si>
-  <si>
-    <t>it's a BUG, to be moved in ISSUES
-Should already behave like this!!!</t>
-  </si>
-  <si>
-    <t>Linked to S0022, see comment</t>
   </si>
   <si>
     <r>
@@ -532,6 +526,298 @@
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
+  </si>
+  <si>
+    <t>SHELL Return Codes</t>
+  </si>
+  <si>
+    <t>$? Does not report return codes properly or return codes are not being set by commands/scripts.  There should also be an explicit RETURN statement for scripts so you can return your own codes from one script to another and check them.</t>
+  </si>
+  <si>
+    <t>Moved from S0022.</t>
+  </si>
+  <si>
+    <t>Related to issue 127.</t>
+  </si>
+  <si>
+    <t>Closed, moved to issue 127.</t>
+  </si>
+  <si>
+    <t>Manpage</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Help (-h)</t>
+  </si>
+  <si>
+    <t>ECHO Hello</t>
+  </si>
+  <si>
+    <t>ECHO $TERM</t>
+  </si>
+  <si>
+    <t>Echo $term</t>
+  </si>
+  <si>
+    <t>EXIT</t>
+  </si>
+  <si>
+    <t>IF -d -e -f filename</t>
+  </si>
+  <si>
+    <t>ELSE</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>PAUSE</t>
+  </si>
+  <si>
+    <t>READ var</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>SET PK1=”Hello World”</t>
+  </si>
+  <si>
+    <t>SET PK1=</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Redirection</t>
+  </si>
+  <si>
+    <t>&gt; </t>
+  </si>
+  <si>
+    <t>&gt;&gt; </t>
+  </si>
+  <si>
+    <t>1&gt;</t>
+  </si>
+  <si>
+    <t>2&gt;</t>
+  </si>
+  <si>
+    <t>1&gt;&gt;</t>
+  </si>
+  <si>
+    <t>2&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt; </t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>CAT -A</t>
+  </si>
+  <si>
+    <t>CAT -N</t>
+  </si>
+  <si>
+    <t>CAT -S</t>
+  </si>
+  <si>
+    <t>CHTYP</t>
+  </si>
+  <si>
+    <t>CHTYP -C</t>
+  </si>
+  <si>
+    <t>CHTYP -R</t>
+  </si>
+  <si>
+    <t>CHGRP</t>
+  </si>
+  <si>
+    <t>CHOWN</t>
+  </si>
+  <si>
+    <t>CP etc/hosts /vol</t>
+  </si>
+  <si>
+    <t>CP ETC/HOSTS /vol</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DNSINFO </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hostname ipaddr</t>
+    </r>
+  </si>
+  <si>
+    <t>EDIT filename</t>
+  </si>
+  <si>
+    <t>FORMAT S6D2 VOLNAME</t>
+  </si>
+  <si>
+    <t>KILL</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L fn/wildcard</t>
+  </si>
+  <si>
+    <t>LSDEV</t>
+  </si>
+  <si>
+    <t>LSOF</t>
+  </si>
+  <si>
+    <t>MD5 -dhelloworld</t>
+  </si>
+  <si>
+    <t>MD5 -dHELLOWORLD</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>MORE filename</t>
+  </si>
+  <si>
+    <t>MORE -N filename</t>
+  </si>
+  <si>
+    <t>MORE -P filename</t>
+  </si>
+  <si>
+    <t>NETSTAT</t>
+  </si>
+  <si>
+    <t>NFSMOUNT</t>
+  </si>
+  <si>
+    <t>NSCUTIL</t>
+  </si>
+  <si>
+    <t>NTPDATE</t>
+  </si>
+  <si>
+    <t>PASSWD</t>
+  </si>
+  <si>
+    <t>TELNET (TL2 script file)</t>
+  </si>
+  <si>
+    <t>TELNET hostname</t>
+  </si>
+  <si>
+    <t>TOUCH</t>
+  </si>
+  <si>
+    <t>UMOUNT</t>
+  </si>
+  <si>
+    <t>USERADD</t>
+  </si>
+  <si>
+    <t>USERDEL</t>
+  </si>
+  <si>
+    <t>Comp.</t>
+  </si>
+  <si>
+    <t>Doc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>This new sheet has multiple purposes.  1) It is to make sure that every command is being tracked and we have 1 complete list somewhere.  2) To track completion of commands (Col C, RG), that doc is written if appropriate (B, PK), a MAN page is written (E, PK), a test script is written for the command (F, PK) and that each command has imbeded help/usage (-h option) (Col G, RG).</t>
+  </si>
+  <si>
+    <t>UNAME -a -s -n -v -m -o</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>We need a document that discusses the tools and processes one uses to work on the A2OSX project.  Examples include the TortoiseSVN package to contribute, MarkDownPad to edit MD and other DOC files on github.  Github tools and registration.  How to edit, compile and run a program under A2OSX.</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Need a product specification for V1.0 and V2.0 of MAN system.</t>
+  </si>
+  <si>
+    <t>Assign to PK</t>
+  </si>
+  <si>
+    <t>LS -A -L -R wildcards</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>S0026</t>
+  </si>
+  <si>
+    <t>S0027</t>
+  </si>
+  <si>
+    <t>S0028</t>
+  </si>
+  <si>
+    <t>S0029</t>
+  </si>
+  <si>
+    <t>S0030</t>
+  </si>
+  <si>
+    <t>S0031</t>
+  </si>
+  <si>
+    <t>S0032</t>
+  </si>
+  <si>
+    <t>S0033</t>
+  </si>
+  <si>
+    <t>S0034</t>
+  </si>
+  <si>
+    <t>S0035</t>
+  </si>
+  <si>
+    <t>S0036</t>
+  </si>
+  <si>
+    <t>S0037</t>
+  </si>
+  <si>
+    <t>We need an 80x40 pixel 16 color logo. BMP format, A2OSX has tool to convert to PIX.</t>
+  </si>
+  <si>
+    <t>PIX</t>
+  </si>
+  <si>
+    <t>Need to document PIX format.  Need to write PIX image viewer/editor/</t>
   </si>
 </sst>
 </file>
@@ -590,7 +876,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -730,11 +1016,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -760,9 +1070,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -772,9 +1079,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -786,9 +1090,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -799,7 +1100,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -821,6 +1121,36 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,17 +1467,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E27"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="29" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1162,52 +1492,52 @@
       <c r="B2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="30" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
@@ -1215,25 +1545,25 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1285,7 +1615,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:B34" si="0">B9+1</f>
+        <f t="shared" ref="B10:B57" si="0">B9+1</f>
         <v>102</v>
       </c>
       <c r="C10" t="s">
@@ -1334,7 +1664,7 @@
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1358,7 +1688,7 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1516,7 +1846,7 @@
         <f t="shared" ref="B20:B21" si="1">B19+1</f>
         <v>112</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1579,7 +1909,7 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="2">
@@ -1601,14 +1931,14 @@
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="2">
         <v>1016</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" t="s">
@@ -1623,7 +1953,7 @@
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2">
@@ -1668,7 +1998,7 @@
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2">
@@ -1737,7 +2067,7 @@
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="2">
@@ -1755,7 +2085,7 @@
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="2">
@@ -1773,7 +2103,7 @@
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="2">
@@ -1791,7 +2121,7 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="29" t="s">
         <v>139</v>
       </c>
       <c r="D33" s="2">
@@ -1801,7 +2131,7 @@
         <v>140</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
@@ -1812,7 +2142,7 @@
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="29" t="s">
         <v>143</v>
       </c>
       <c r="D34" s="2">
@@ -1825,49 +2155,181 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <f>B34+1</f>
+        <v>127</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1034</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="G35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <f t="shared" ref="B36:B57" si="2">B35+1</f>
+        <v>128</v>
+      </c>
       <c r="G36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
       <c r="G37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
       <c r="G38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
       <c r="G39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
       <c r="G40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
       <c r="G41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
       <c r="G42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
       <c r="G43" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <f t="shared" si="2"/>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1886,15 +2348,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="62.140625" style="4" customWidth="1"/>
@@ -1904,22 +2366,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1991,7 +2453,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2130,7 +2592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>100</v>
       </c>
@@ -2144,7 +2606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>101</v>
       </c>
@@ -2158,7 +2620,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>102</v>
       </c>
@@ -2172,7 +2634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>103</v>
       </c>
@@ -2186,7 +2648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>104</v>
       </c>
@@ -2203,7 +2665,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>105</v>
       </c>
@@ -2220,7 +2682,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>106</v>
       </c>
@@ -2234,10 +2699,10 @@
         <v>146</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>107</v>
       </c>
@@ -2254,35 +2719,843 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="C25" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E25" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="C26" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="E26" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="E27" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="E28" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="E29" s="3" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620F4F3B-4970-4434-93DB-A4807F82A4E1}">
+  <dimension ref="B4:J100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="J31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="J33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="J34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="J35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="J38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="J39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="J40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="J41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="J43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="J44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="J45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="J47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="J48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="J49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="J50" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="J52" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="J54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="J55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="J57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="J59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="J61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="J62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="J63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="J64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="J69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="J70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="J71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="J72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="J73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J74" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="J76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="J77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>225</v>
+      </c>
+      <c r="I80" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058D442D-FD08-4289-A665-2D76E884ABF9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BDECE4-0197-4EBE-BF63-2A0114A4254D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Commands" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$57</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="291">
   <si>
     <t>Issue No.</t>
   </si>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>UNAME, instead ?</t>
-  </si>
-  <si>
-    <t>Planned to close an old issue at GH</t>
   </si>
   <si>
     <t>Multi Protocol stack
@@ -576,9 +573,6 @@
     <t>PAUSE</t>
   </si>
   <si>
-    <t>READ var</t>
-  </si>
-  <si>
     <t>SET</t>
   </si>
   <si>
@@ -819,12 +813,150 @@
   <si>
     <t>Need to document PIX format.  Need to write PIX image viewer/editor/</t>
   </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Need to pick a license type and put a license file on the disks.</t>
+  </si>
+  <si>
+    <t>ThunderClock</t>
+  </si>
+  <si>
+    <t>Need to verify that A2OSX works on real Apple with Thunderclock installed. Test Slots 1 2 and 3.</t>
+  </si>
+  <si>
+    <t>Control-D at boot</t>
+  </si>
+  <si>
+    <t>TCPIP.CONF file</t>
+  </si>
+  <si>
+    <t>HOSTS file</t>
+  </si>
+  <si>
+    <t>HOSTNAME file</t>
+  </si>
+  <si>
+    <t>STARTUP/INIT file</t>
+  </si>
+  <si>
+    <t>PROFILE files</t>
+  </si>
+  <si>
+    <t>Standard ENV Vars (PS1 PATH)</t>
+  </si>
+  <si>
+    <t>SET command</t>
+  </si>
+  <si>
+    <t>INSTALL</t>
+  </si>
+  <si>
+    <t>We need a document on how to install A2OSX on your existing ProDOS HD/CF Card.</t>
+  </si>
+  <si>
+    <t>Shutdown</t>
+  </si>
+  <si>
+    <t>There should be a shutdown command that closes open sockets, open files, executes ETC/INIT0 script and then does standard ProDOS exit (loads bitsy.bye type thing).  IS that what QUITCODE is?</t>
+  </si>
+  <si>
+    <t>Was GH #40, closed there too.</t>
+  </si>
+  <si>
+    <t>Ctrl-C now gives FreeMem:52=Bad hMem (or 53).  I was able to reproduce reliably, boot, -RUN, login, NET then PING 10.0.0.67 and Ctrl-C after 10 or so pings.</t>
+  </si>
+  <si>
+    <t>DB Engine</t>
+  </si>
+  <si>
+    <t>PK to write spec sheet for a DB Engine or client/servier API for DB.</t>
+  </si>
+  <si>
+    <t>PUSHD</t>
+  </si>
+  <si>
+    <t>POPD</t>
+  </si>
+  <si>
+    <t>IF = != (strings)</t>
+  </si>
+  <si>
+    <t>IF -eq -ne -lt -gt -ge -le (int)</t>
+  </si>
+  <si>
+    <t>SSC/SSCI</t>
+  </si>
+  <si>
+    <t>TELNETD</t>
+  </si>
+  <si>
+    <t>Same with setting up and using TELNETD</t>
+  </si>
+  <si>
+    <t>ls test</t>
+  </si>
+  <si>
+    <t>Here is one thought on this, how about a SET +U/SET -U option that says Uppercase all file names, no lowercase support.</t>
+  </si>
+  <si>
+    <t>Open-Apple</t>
+  </si>
+  <si>
+    <t>Need to document as a way to stop error messages if they start scrolling on screen (like FreeMem). Can also be used during boot to see msgs at each stage.</t>
+  </si>
+  <si>
+    <t>Screen Shots</t>
+  </si>
+  <si>
+    <t>PK to update Screen Shots on GitHub and in Readme.</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>READ -P "Prompt Phrase" $var</t>
+  </si>
+  <si>
+    <t>Write one doc for all SHELL internals, redirection, etc. and need to talk about "." before script.</t>
+  </si>
+  <si>
+    <t>Make a list of the VT100 codes you can use with echo and what they do.</t>
+  </si>
+  <si>
+    <t>Need to document setting up and using SSC.  What is needed on both client and server computers, what VT100 software to use, etc.  What is diff between SSC and SSCI?</t>
+  </si>
+  <si>
+    <t>Needs to be rewritten to use buffered IO and be preemptive compliant</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>Contact blondie7575 from GH about joining project for adding WeeGUI</t>
+  </si>
+  <si>
+    <t>GH #26</t>
+  </si>
+  <si>
+    <t>GH #4</t>
+  </si>
+  <si>
+    <t>Startup Bypass</t>
+  </si>
+  <si>
+    <t>From GH #35, implement Ctrl-D bypass of startup file.  Tested, confirm bypass works, but when you get the prompt, if you press Ctrl-D again it locks up the system.  This becomes a problem because people might hit ctrl-d multiple times at start to bypass and the extra one then locks you up.</t>
+  </si>
+  <si>
+    <t>GH #35</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,6 +987,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -876,7 +1015,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1016,35 +1155,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1080,6 +1195,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1089,6 +1207,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1128,29 +1249,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,15 +1589,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="31" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1492,7 +1612,7 @@
       <c r="B2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="8"/>
@@ -1500,44 +1620,44 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
@@ -1545,29 +1665,29 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1588,7 +1708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1610,7 +1730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1632,7 +1752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1664,7 +1784,7 @@
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1688,7 +1808,7 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1726,7 +1846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1748,7 +1868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1770,7 +1890,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1816,7 +1936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1833,7 +1953,9 @@
       <c r="E19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="G19">
         <v>1027</v>
       </c>
@@ -1846,7 +1968,7 @@
         <f t="shared" ref="B20:B21" si="1">B19+1</f>
         <v>112</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1882,7 +2004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -1909,7 +2031,7 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="31" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="2">
@@ -1918,7 +2040,9 @@
       <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="41" t="s">
+        <v>273</v>
+      </c>
       <c r="G23" t="s">
         <v>28</v>
       </c>
@@ -1931,14 +2055,14 @@
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="2">
         <v>1016</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" t="s">
@@ -1953,7 +2077,7 @@
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2">
@@ -1969,7 +2093,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1998,7 +2122,7 @@
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2">
@@ -2014,7 +2138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2038,7 +2162,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2067,7 +2191,7 @@
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="31" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="2">
@@ -2085,7 +2209,7 @@
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="2">
@@ -2103,7 +2227,7 @@
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="2">
@@ -2121,7 +2245,7 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="31" t="s">
         <v>139</v>
       </c>
       <c r="D33" s="2">
@@ -2131,7 +2255,7 @@
         <v>140</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
@@ -2142,7 +2266,7 @@
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="31" t="s">
         <v>143</v>
       </c>
       <c r="D34" s="2">
@@ -2160,44 +2284,71 @@
         <f>B34+1</f>
         <v>127</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>154</v>
+      <c r="C35" s="31" t="s">
+        <v>153</v>
       </c>
       <c r="D35" s="2">
         <v>1034</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" ref="B36:B57" si="2">B35+1</f>
         <v>128</v>
       </c>
+      <c r="C36" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="G36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
+      <c r="C37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1034</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="G37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" si="2"/>
         <v>130</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1034</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="G38" t="s">
         <v>28</v>
@@ -2333,9 +2484,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G43" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:G57" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters blank="1">
+        <filter val="C"/>
         <filter val="HT"/>
         <filter val="V"/>
       </filters>
@@ -2350,13 +2502,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="62.140625" style="4" customWidth="1"/>
@@ -2366,22 +2518,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="30" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2421,7 +2573,7 @@
         <v>147</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2453,7 +2605,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2647,6 +2799,9 @@
       <c r="E20" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="F20" s="4" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -2679,11 +2834,11 @@
         <v>145</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2699,7 +2854,7 @@
         <v>146</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2716,7 +2871,7 @@
         <v>45</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2724,16 +2879,16 @@
         <v>108</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2741,10 +2896,10 @@
         <v>109</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>45</v>
@@ -2752,13 +2907,13 @@
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>45</v>
@@ -2766,15 +2921,30 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>45</v>
@@ -2782,47 +2952,68 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2833,729 +3024,837 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620F4F3B-4970-4434-93DB-A4807F82A4E1}">
-  <dimension ref="B4:J100"/>
+  <dimension ref="B4:J111"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="C4" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+      <c r="J9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="J10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="J9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="J11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="J14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="J11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+      <c r="J15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="J12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
+      <c r="J16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="J17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="J18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="J14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="J19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="J15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
+      <c r="J20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="J16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36" t="s">
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="J19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="J20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="J21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="J26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="J22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="J23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="35" t="s">
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="J24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+      <c r="J29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="J25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
+      <c r="J30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="J26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
+      <c r="J31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="38"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="38"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="38"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="38"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="38"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="38"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="J27" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
+      <c r="J42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="J28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="35" t="s">
+      <c r="J43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="J31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="J44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="J32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="J45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="J33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="36" t="s">
+      <c r="J46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="J34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="35" t="s">
+      <c r="J47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="J35" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="35" t="s">
+      <c r="J48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="J36" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="36" t="s">
+      <c r="J49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="J37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36" t="s">
+      <c r="J50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="J38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="36" t="s">
+      <c r="J51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J39" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="35" t="s">
+      <c r="J52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="J40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="36" t="s">
+      <c r="J54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="J41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="36" t="s">
+      <c r="I55" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="J55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="J43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="36" t="s">
+      <c r="J56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="J44" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="36" t="s">
+      <c r="J58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="J45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="36" t="s">
+      <c r="J59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="J47" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="35" t="s">
+      <c r="J60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="J61" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="J48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="36" t="s">
+      <c r="J62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="J49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="J50" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="36" t="s">
+      <c r="J63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="J51" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="36" t="s">
+      <c r="J65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="J52" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="35" t="s">
+      <c r="J66" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="J54" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="36" t="s">
+      <c r="J67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="J55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="36" t="s">
+      <c r="J68" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="J56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="35" t="s">
+      <c r="J69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="J57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="35" t="s">
+      <c r="J70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="J58" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="36" t="s">
+      <c r="J72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="J59" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="36" t="s">
+      <c r="J73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="J61" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="36" t="s">
+      <c r="J74" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="J62" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="J63" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="J64" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="J65" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J67" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="J69" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="J70" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="J71" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="J72" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="J73" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="J74" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J75" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="38" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="J76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J80" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="J81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="J82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="J83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="J84" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="J85" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="J87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="J88" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B91" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I91" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="J77" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J78" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J79" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>225</v>
-      </c>
-      <c r="I80" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="J80" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J81" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J82" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J83" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J84" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J85" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J86" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J87" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J88" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J89" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J90" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J92" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="I93" s="31" t="s">
+        <v>258</v>
+      </c>
       <c r="J93" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="39" t="s">
+        <v>250</v>
+      </c>
       <c r="J94" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="39" t="s">
+        <v>251</v>
+      </c>
       <c r="J95" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="40" t="s">
+        <v>252</v>
+      </c>
       <c r="J96" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="40" t="s">
+        <v>253</v>
+      </c>
       <c r="J97" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="40" t="s">
+        <v>254</v>
+      </c>
       <c r="J98" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J99" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="40" t="s">
+        <v>255</v>
+      </c>
       <c r="J100" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="J101" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B103" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="I103" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J103" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="I104" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I105" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J105" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B106" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="I106" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I109" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BDECE4-0197-4EBE-BF63-2A0114A4254D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$57</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="299">
   <si>
     <t>Issue No.</t>
   </si>
@@ -471,9 +465,6 @@
   </si>
   <si>
     <t>0.92</t>
-  </si>
-  <si>
-    <t>0.9</t>
   </si>
   <si>
     <t>0.93</t>
@@ -494,9 +485,6 @@
 - Rename TCPIPD -&gt; NETD
 - Make LIBTCPIP,LIBETLK... to be bound to ETHx by NETD
 - Add etc/netd.conf for protocol binding</t>
-  </si>
-  <si>
-    <t>REN works win file dir, and volume</t>
   </si>
   <si>
     <r>
@@ -951,11 +939,43 @@
   <si>
     <t>GH #35</t>
   </si>
+  <si>
+    <t>missing stz hFrameIn in LIBTCPIP.S.ICMP</t>
+  </si>
+  <si>
+    <t>0,93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implemented in…</t>
+  </si>
+  <si>
+    <t>SHELL will handle SYS files, calling API shutown with arg=.SYS file
+this will pass .SYS file to A2osX QC</t>
+  </si>
+  <si>
+    <t>0,92</t>
+  </si>
+  <si>
+    <t>my son did it ! Coming soon…</t>
+  </si>
+  <si>
+    <t>Some already impemented, see GH readme.md</t>
+  </si>
+  <si>
+    <t>CSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI….
+Same for "FNT": A2osX bitmap font format </t>
+  </si>
+  <si>
+    <t>REN works with file dir, and volume</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1578,22 +1598,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
@@ -1687,7 +1707,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1708,7 +1728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1730,12 +1750,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:B57" si="0">B9+1</f>
+        <f t="shared" ref="B10:B34" si="0">B9+1</f>
         <v>102</v>
       </c>
       <c r="C10" t="s">
@@ -1752,7 +1772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1776,7 +1796,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1846,7 +1866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1868,7 +1888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1890,7 +1910,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1936,7 +1956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1954,10 +1974,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G19">
-        <v>1027</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2004,7 +2024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2041,7 +2061,7 @@
         <v>48</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -2062,14 +2082,14 @@
         <v>1016</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2093,7 +2113,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2138,7 +2158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2162,7 +2182,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2255,7 +2275,7 @@
         <v>140</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
@@ -2279,22 +2299,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f>B34+1</f>
         <v>127</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D35" s="2">
         <v>1034</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
@@ -2306,10 +2326,10 @@
         <v>128</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G36" t="s">
         <v>28</v>
@@ -2327,10 +2347,13 @@
         <v>1034</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
+        <v>260</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G37">
+        <v>1039</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="90" x14ac:dyDescent="0.25">
@@ -2339,16 +2362,16 @@
         <v>130</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D38" s="2">
         <v>1034</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G38" t="s">
         <v>28</v>
@@ -2484,10 +2507,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G57" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:G57">
     <filterColumn colId="0">
       <filters blank="1">
-        <filter val="C"/>
         <filter val="HT"/>
         <filter val="V"/>
       </filters>
@@ -2499,25 +2521,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="62.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="6" width="60.85546875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="4"/>
+    <col min="6" max="6" width="62.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
@@ -2536,8 +2559,11 @@
       <c r="F1" s="30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G1" s="25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
@@ -2548,21 +2574,24 @@
         <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2570,13 +2599,13 @@
         <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
@@ -2587,10 +2616,10 @@
         <v>87</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>67</v>
       </c>
@@ -2601,10 +2630,10 @@
         <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>46</v>
       </c>
@@ -2618,7 +2647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>73</v>
       </c>
@@ -2632,7 +2661,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>76</v>
       </c>
@@ -2643,10 +2672,13 @@
         <v>110</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>78</v>
       </c>
@@ -2660,7 +2692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>81</v>
       </c>
@@ -2674,7 +2706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>84</v>
       </c>
@@ -2688,7 +2720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>88</v>
       </c>
@@ -2702,7 +2734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>91</v>
       </c>
@@ -2716,7 +2748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
@@ -2730,7 +2762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>97</v>
       </c>
@@ -2741,10 +2773,10 @@
         <v>99</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>100</v>
       </c>
@@ -2758,7 +2790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>101</v>
       </c>
@@ -2771,8 +2803,11 @@
       <c r="E18" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>102</v>
       </c>
@@ -2785,8 +2820,11 @@
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>103</v>
       </c>
@@ -2800,10 +2838,10 @@
         <v>45</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>104</v>
       </c>
@@ -2817,10 +2855,10 @@
         <v>45</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>105</v>
       </c>
@@ -2834,10 +2872,10 @@
         <v>145</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>46</v>
       </c>
@@ -2850,14 +2888,11 @@
       <c r="D23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>107</v>
       </c>
@@ -2868,152 +2903,164 @@
         <v>142</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F26" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="C31" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3023,14 +3070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620F4F3B-4970-4434-93DB-A4807F82A4E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J111"/>
   <sheetViews>
     <sheetView topLeftCell="B73" workbookViewId="0">
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.5703125" style="39" customWidth="1"/>
     <col min="9" max="9" width="45.7109375" style="31" customWidth="1"/>
@@ -3041,24 +3088,24 @@
         <v>1</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E4" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>158</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -3073,108 +3120,108 @@
     </row>
     <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -3182,97 +3229,97 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -3295,7 +3342,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -3303,95 +3350,95 @@
         <v>7</v>
       </c>
       <c r="J41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
@@ -3399,34 +3446,34 @@
         <v>11</v>
       </c>
       <c r="J53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I55" s="31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -3434,55 +3481,55 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J60" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -3490,55 +3537,55 @@
         <v>19</v>
       </c>
       <c r="J64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -3546,47 +3593,47 @@
         <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J74" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J75" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J76" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -3594,7 +3641,7 @@
         <v>24</v>
       </c>
       <c r="J77" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -3602,7 +3649,7 @@
         <v>30</v>
       </c>
       <c r="J78" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -3610,230 +3657,230 @@
         <v>25</v>
       </c>
       <c r="J79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J80" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J84" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J86" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J87" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J88" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J89" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J90" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B91" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I91" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J91" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I93" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J93" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J94" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J95" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J97" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J98" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J99" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J100" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J101" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B103" s="40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I103" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J103" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I104" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I105" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J105" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B106" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I106" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J107" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J108" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -3841,20 +3888,20 @@
         <v>58</v>
       </c>
       <c r="I109" s="31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA952096-73E6-4FC4-B220-FACCCD7F5199}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$57</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="327">
   <si>
     <t>Issue No.</t>
   </si>
@@ -211,9 +218,6 @@
     <t xml:space="preserve"> Fixed in…</t>
   </si>
   <si>
-    <t>1004/1016</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -392,9 +396,6 @@
     <t>Same correction applied to ARP.  Fixed.</t>
   </si>
   <si>
-    <t>1004/1027</t>
-  </si>
-  <si>
     <t>Verified in latest.  Boot, -run, at prompt EDIT A.  Then type some stuff, then ctrl-S  PRESS ESCAPE and then type aaa and return.  Error 40</t>
   </si>
   <si>
@@ -420,12 +421,6 @@
   </si>
   <si>
     <t>The Version of ProDOS on BUILD (and I assume BOOT) is V2.0.3.  The most current version is 2.4.2.  We should update the version of ProDOS on our discs to match (largley to keep up with the date/clock corrections) and bug fixes.</t>
-  </si>
-  <si>
-    <t>SysInfo</t>
-  </si>
-  <si>
-    <t>Make a new Program called SYSINFO.  Be default it should return the HOSTNAME, System Type (//e, gs. Etc), OS Name, Version (0.92), boot device, etc.  Their should also be options (-H hostname, -S systype, -V version, etc), for each data item so one can write programs that get just the bit they want (like current os version).</t>
   </si>
   <si>
     <t>When you CAT IFTEST you see the whole file, but if you MORE IFTEST, the screen clears and then the file displays.  I believe it is processing the \f on the first line of the file.  This may be good for things like MAN pages that are designed to be formatted, but not desirable for displaying code like IFTEST.  I suggest a option be added to MORE (-S process screen codes) that will do the clears and other VT100 codes, but that the default behavior is to NOT process these codes and behave more like CAT.</t>
@@ -474,9 +469,6 @@
 - Will merge BUILD+SRC in a HD image (32mb) booting MASM3.SYSTEM
 - Rename BUILD -&gt; BOOT800, booting A2osX
 - Create a script MAKEB800 to build BOOT800</t>
-  </si>
-  <si>
-    <t>UNAME, instead ?</t>
   </si>
   <si>
     <t>Multi Protocol stack
@@ -886,9 +878,6 @@
     <t>ls test</t>
   </si>
   <si>
-    <t>Here is one thought on this, how about a SET +U/SET -U option that says Uppercase all file names, no lowercase support.</t>
-  </si>
-  <si>
     <t>Open-Apple</t>
   </si>
   <si>
@@ -934,13 +923,7 @@
     <t>Startup Bypass</t>
   </si>
   <si>
-    <t>From GH #35, implement Ctrl-D bypass of startup file.  Tested, confirm bypass works, but when you get the prompt, if you press Ctrl-D again it locks up the system.  This becomes a problem because people might hit ctrl-d multiple times at start to bypass and the extra one then locks you up.</t>
-  </si>
-  <si>
     <t>GH #35</t>
-  </si>
-  <si>
-    <t>missing stz hFrameIn in LIBTCPIP.S.ICMP</t>
   </si>
   <si>
     <t>0,93</t>
@@ -970,13 +953,155 @@
   </si>
   <si>
     <t>REN works with file dir, and volume</t>
+  </si>
+  <si>
+    <t>On a Linux host, if you are doing something that productes a lot of output (ls -l /usr/bin or ps -ef) there are times of noticable pauses and they grow longer and longer.  And in Linux if you want to abort the command and get back to prompt its Ctrl-C, which aborts TELNET (its handled locally rather than passed to session).  For Telnet you should pass Ctrl-C then have another abort key or sequence (maybe Escape Ctrl-C).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L </t>
+  </si>
+  <si>
+    <t>Boot, you are in A2/ROOT.  Type L, gives right listing.  Type CD .. You are moved to top of VOL.  Type L again and you get the listing for ROOT.  Ls dispplays the right listing.  Note too, the script file for L seems wrong, It should start with $1?  And for whats its worth, there is no L command so this should probably jsut go away.</t>
+  </si>
+  <si>
+    <t>PAUSE should accept any keystroke to continue not just return.</t>
+  </si>
+  <si>
+    <t>Planned 0.93 or after.</t>
+  </si>
+  <si>
+    <t>MD5 should return its result in all lowercase (as do most other MD5 utils/sites).</t>
+  </si>
+  <si>
+    <t>When you ping a host, sometimes it starts listing returns, other times it just sits there for 5 secs before giving timeouts and then sometimes you get 2-4 returns and then the time outs.  This is to know good hosts.</t>
+  </si>
+  <si>
+    <t>Always returns syntax error.  Tried NSCUTIL 12/21/21 17:12:35</t>
+  </si>
+  <si>
+    <t>LS -R /VOLNAME</t>
+  </si>
+  <si>
+    <t>If you do an LS -R /VOLname like "LS -R /A2OSX.BUILD" it will list only PART of the top dir and then give you a volume error $45.</t>
+  </si>
+  <si>
+    <t>L on etc, bin, anydir responds quickly.  L to / there is a little pause (to be expected) before listing volumes.  L /PKA2OSX (my virt drive) respomnds little delay but L /A2OSX.BUILD there is a long pause (+3sec) and then listing.</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>REN /vol /newvol works.  But REN file newfile returns [$40]:Invalid path. REN dir newdir also error 40. if you REN /vol/file /vol/newfile it works.</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>Like there is MKDIR alias for MD, there should be an alias RMDIR for RD.  BTW, why is MKDIR BIN?  What extra is there as a bin rather then a script? Like L is to LS.</t>
+  </si>
+  <si>
+    <t>Control-C out of many programs (telnet, ping, memdump) end with [$03]:Unknown Error.</t>
+  </si>
+  <si>
+    <t>$# now reports 1 high.  It reports 1 when no args are passed, and 12 when I pass 11. This is in 1047</t>
+  </si>
+  <si>
+    <t>Closed CD/PWD issue fixed, but other/more problems see #133.</t>
+  </si>
+  <si>
+    <t>1) Boot, then EXIT then re-login (return/return) after 2nd return you get a "FreeMem:hMem already freed,BIN=/A2OSX.BUILD/SBIN/SHELL" message. Then prompt as expected.  2) Boot, then NET, then EXIT, then re-login try LS, CRASH to monitor or worse.</t>
+  </si>
+  <si>
+    <t>When you cancel a ping with Ctrl-C you get a [$03]:Unknown Error.</t>
+  </si>
+  <si>
+    <t>Merged into 138, its happens on all commands.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">missing stz hFrameIn in LIBTCPIP.S.ICMP   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirmed still in 1047</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>From GH #35, implement Ctrl-D bypass of startup file.  Tested, confirm bypass works, but when you get the prompt,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if you press Ctrl-D again it locks up the system. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This becomes a problem because people might hit ctrl-d multiple times at start to bypass and the extra one then locks you up.</t>
+    </r>
+  </si>
+  <si>
+    <t>echo \e does not seem to do anything.  This is inverse yes?  I tried in script ECHO "abc \e def \e hello" and no inverse. Tested \b \f \n \% \\ all ok.</t>
+  </si>
+  <si>
+    <t>Tested with multiple commands. No issues found 1047.</t>
+  </si>
+  <si>
+    <t>ARGTEST and SHIFTTEST created.</t>
+  </si>
+  <si>
+    <t>Make a new Program called UNAME.  By default it should return the HOSTNAME, System Type (//e, gs. Etc), OS Name, Version (0.92), boot device, etc.  Their should also be options (-H hostname, -S systype, -V version, etc), for each data item so one can write programs that get just the bit they want (like current os version).</t>
+  </si>
+  <si>
+    <t>UNAME</t>
+  </si>
+  <si>
+    <t>SHELL $PWD</t>
+  </si>
+  <si>
+    <t>RPCDUMP</t>
+  </si>
+  <si>
+    <t>Locks system regardless if NET loaded or not.</t>
+  </si>
+  <si>
+    <t>SHELL script</t>
+  </si>
+  <si>
+    <t>In a script file I have the line "CAT IFTEST" that when the script is run returns an Error 46:File Not Found and the debug ----^ ends 2 spaces after the end of the filename on the line.  If I put CAT /PKA2OSX/TESTS/IFTEST then it works. I think this is related to 141.</t>
+  </si>
+  <si>
+    <t>There should be a way to remove an entry to manually added.</t>
+  </si>
+  <si>
+    <t>If you add a host with DNSINFO myhost 10.0.0.88 and then add the same host again (repear command) the DNS table appears to get corrupted (pasted image in Slack)</t>
+  </si>
+  <si>
+    <t>At command line PWD shows right value, but in script it shows $HOME though I am in a different dir. If you change HOME at cmdline and then run script $PWD in script displays new HOME value.  MORE on this.  My current dir is /PKA2OSX/TESTS, I do LS no prob.  I do L and I get listing for /A2OSX.BUILD/ROOT.  I manually change HOME to PK/TESTS and do L again and I get the right dir.  Somehow L is looking at the same mem address the $PWD is to do the listing or something.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,8 +1139,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,6 +1185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1251,18 +1411,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1290,6 +1438,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1598,28 +1774,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="27" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1627,12 +1802,12 @@
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="8"/>
@@ -1656,10 +1831,10 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="14"/>
@@ -1691,7 +1866,7 @@
       <c r="B7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -1701,13 +1876,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1728,7 +1903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1750,7 +1925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1772,7 +1947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1783,20 +1958,20 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>61</v>
+      <c r="D11" s="2">
+        <v>1004</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11">
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1804,17 +1979,17 @@
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>121</v>
+      <c r="D12" s="2">
+        <v>1004</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G12">
         <v>1034</v>
@@ -1822,29 +1997,29 @@
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>61</v>
+      <c r="D13" s="2">
+        <v>1004</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -1866,7 +2041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1888,7 +2063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1899,8 +2074,8 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
+      <c r="D16" s="2">
+        <v>1004</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>34</v>
@@ -1910,7 +2085,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1921,20 +2096,20 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
+      <c r="D17" s="2">
+        <v>1004</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17">
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1956,7 +2131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1967,14 +2142,14 @@
       <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>61</v>
+      <c r="D19" s="2">
+        <v>1004</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G19">
         <v>1039</v>
@@ -1985,14 +2160,14 @@
         <v>53</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ref="B20:B21" si="1">B19+1</f>
+        <f>B19+1</f>
         <v>112</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
+      <c r="D20" s="2">
+        <v>1004</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>31</v>
@@ -2002,12 +2177,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="1"/>
+        <f>B20+1</f>
         <v>113</v>
       </c>
       <c r="C21" t="s">
@@ -2024,7 +2199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2047,11 +2222,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="2">
@@ -2060,8 +2238,8 @@
       <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="41" t="s">
-        <v>271</v>
+      <c r="F23" s="37" t="s">
+        <v>315</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -2075,21 +2253,21 @@
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="2">
         <v>1016</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2097,7 +2275,7 @@
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2">
@@ -2107,13 +2285,13 @@
         <v>49</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G25">
         <v>1034</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2142,7 +2320,7 @@
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2">
@@ -2152,13 +2330,13 @@
         <v>51</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2176,13 +2354,13 @@
         <v>52</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28">
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2200,1712 +2378,2039 @@
         <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G29">
         <v>1020</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="2">
         <v>1017</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>307</v>
       </c>
       <c r="G30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="2">
         <v>1027</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="2">
         <v>1027</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>139</v>
+      <c r="C33" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="D33" s="2">
         <v>1027</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>143</v>
+      <c r="C34" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="D34" s="2">
         <v>1027</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B35" s="1">
         <f>B34+1</f>
         <v>127</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>151</v>
+      <c r="C35" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="D35" s="2">
         <v>1034</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="B36" s="1">
-        <f t="shared" ref="B36:B57" si="2">B35+1</f>
+        <f t="shared" ref="B36:B57" si="1">B35+1</f>
         <v>128</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>245</v>
+      <c r="C36" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="2">
         <v>1034</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="G37">
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>286</v>
+      <c r="C38" s="27" t="s">
+        <v>280</v>
       </c>
       <c r="D38" s="2">
         <v>1034</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>131</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1037</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="G39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1037</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>133</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>309</v>
       </c>
       <c r="G41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>134</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="G42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="B43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>135</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>311</v>
       </c>
       <c r="G43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G45">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="165" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>143</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>146</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1047</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G57">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="HT"/>
-        <filter val="V"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <autoFilter ref="A7:G57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="E1" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="E2" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="E3" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="E4" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C6" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="C13" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="44" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B23" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="G24" s="44">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F25" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F26" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F27" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="F28" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="F31" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" s="45"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="44" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="E34" s="45"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="C35" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="E35" s="45"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="44" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C2" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="I15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="34"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="34"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="34"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="34"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="34"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="34"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="I48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="I49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="I52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="I53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="I54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="I56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="I58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="I59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="I64" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="I66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="I67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="I68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="I70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="I71" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="I72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="I74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="I79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I82" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="I85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="I86" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B89" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="H89" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="I89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="I91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="I92" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="I93" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="I94" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="I95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="J11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="I96" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I98" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="I99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B101" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="H101" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="I101" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H102" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="I102" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H103" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="I103" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B104" s="36" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="J14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="J16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="J17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="J18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="J19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="J20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="J23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="J25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="J26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="J28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="J29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="J30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="J31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="38" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="38"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="38"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="38"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="38"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="38"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="J42" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="J43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="J44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="J45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="J46" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="J47" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="J49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="J50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="J51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="J52" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="J54" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="I55" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="J55" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="J56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="J58" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="J59" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="J60" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="J61" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="J62" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="J63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="J65" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="J66" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="J67" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J68" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="J69" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="J70" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="J72" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="J73" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="J74" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="J75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="J76" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J78" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J79" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="J80" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="J81" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="J82" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="J83" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="J84" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="J85" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J86" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="J87" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="J88" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J89" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J90" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="B91" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="I91" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="J91" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J92" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="I93" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="J93" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="J94" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="J95" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="J96" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="J97" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="J98" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J99" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="J100" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="J101" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J102" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B103" s="40" t="s">
+      <c r="H104" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="I103" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="J103" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="I104" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="J104" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I105" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="J105" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B106" s="40" t="s">
+      <c r="I104" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H107" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="I106" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="J106" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J107" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J108" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="I109" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="J109" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J110" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J111" t="s">
-        <v>218</v>
+      <c r="I107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA952096-73E6-4FC4-B220-FACCCD7F5199}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -20,8 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$57</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="337">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1096,11 +1089,50 @@
   <si>
     <t>At command line PWD shows right value, but in script it shows $HOME though I am in a different dir. If you change HOME at cmdline and then run script $PWD in script displays new HOME value.  MORE on this.  My current dir is /PKA2OSX/TESTS, I do LS no prob.  I do L and I get listing for /A2OSX.BUILD/ROOT.  I manually change HOME to PK/TESTS and do L again and I get the right dir.  Somehow L is looking at the same mem address the $PWD is to do the listing or something.</t>
   </si>
+  <si>
+    <t xml:space="preserve">DNSINFO did not check TCPIP status before managing DNS cache. Always resetting cache before displaying/updating </t>
+  </si>
+  <si>
+    <t>Remapped $03 to "User Interrupt" Error message</t>
+  </si>
+  <si>
+    <t>\e is ESC
+INV = \e[7m
+NORM = \e[0m
+to do what you want you need:
+ECHO "abc \e[7m def \e[0m hello"</t>
+  </si>
+  <si>
+    <t>no fix needed</t>
+  </si>
+  <si>
+    <t>L -R /VOLNAME/ works….miss adding / for proper PATH recursion.
+CP,MV,RM should also be impacted</t>
+  </si>
+  <si>
+    <t>REN is a simple binting to ProDOS API: 
+syntax is : REN oldpath newpath
+if you want REN oldpath newNAME, it is an enhencement</t>
+  </si>
+  <si>
+    <t>Beware of bad VBL emulation in Applewin
+should be flagged HT</t>
+  </si>
+  <si>
+    <t>side note : Applewin does not allow Writing to NSC
+should be flagged HT</t>
+  </si>
+  <si>
+    <t>Switched to Ctrl-T</t>
+  </si>
+  <si>
+    <t>$PWD always reset to $HOME</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1169,7 +1201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1191,6 +1223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1466,6 +1504,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1774,33 +1815,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="27" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1815,7 +1857,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -1828,7 +1870,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>122</v>
@@ -1841,7 +1883,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -1854,12 +1896,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -1882,7 +1924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1903,7 +1945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1925,7 +1967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1947,7 +1989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1971,7 +2013,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1995,7 +2037,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -2019,7 +2061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2041,7 +2083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2063,7 +2105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2085,7 +2127,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2109,7 +2151,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -2131,7 +2173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2155,7 +2197,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2177,7 +2219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2199,7 +2241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2221,7 +2263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2245,7 +2287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2267,7 +2309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2291,7 +2333,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2312,7 +2354,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2336,7 +2378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2360,7 +2402,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2384,7 +2426,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -2408,7 +2450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2429,7 +2471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -2450,7 +2492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2474,7 +2516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -2498,7 +2540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -2522,7 +2564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -2540,7 +2582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2564,7 +2606,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2588,7 +2630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
@@ -2605,11 +2647,14 @@
       <c r="E39" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="F39" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G39">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -2630,7 +2675,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B41" s="1">
         <f t="shared" si="1"/>
         <v>133</v>
@@ -2648,7 +2693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="1">
         <f t="shared" si="1"/>
         <v>134</v>
@@ -2669,7 +2714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2693,7 +2738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B44" s="1">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -2707,8 +2752,11 @@
       <c r="E44" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F44" s="48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B45" s="1">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -2722,11 +2770,14 @@
       <c r="E45" s="3" t="s">
         <v>298</v>
       </c>
+      <c r="F45" s="48" t="s">
+        <v>334</v>
+      </c>
       <c r="G45">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="1">
         <f t="shared" si="1"/>
         <v>138</v>
@@ -2740,8 +2791,14 @@
       <c r="E46" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F46" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B47" s="1">
         <f t="shared" si="1"/>
         <v>139</v>
@@ -2755,8 +2812,14 @@
       <c r="E47" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="F47" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="G47">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B48" s="1">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -2771,7 +2834,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B49" s="1">
         <f t="shared" si="1"/>
         <v>141</v>
@@ -2785,8 +2848,11 @@
       <c r="E49" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F49" s="48" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B50" s="1">
         <f t="shared" si="1"/>
         <v>142</v>
@@ -2800,8 +2866,14 @@
       <c r="E50" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="F50" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="G50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="145" x14ac:dyDescent="0.35">
       <c r="B51" s="1">
         <f t="shared" si="1"/>
         <v>143</v>
@@ -2815,8 +2887,14 @@
       <c r="E51" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="G51">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -2831,7 +2909,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B53" s="1">
         <f t="shared" si="1"/>
         <v>145</v>
@@ -2846,7 +2924,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B54" s="1">
         <f t="shared" si="1"/>
         <v>146</v>
@@ -2860,53 +2938,65 @@
       <c r="E54" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A7:G57">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="V"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="4"/>
+    <col min="4" max="4" width="51.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
@@ -2997,7 +3087,7 @@
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="44" t="s">
         <v>66</v>
@@ -3014,7 +3104,7 @@
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>46</v>
       </c>
@@ -3031,7 +3121,7 @@
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
     </row>
-    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A8" s="43"/>
       <c r="B8" s="44" t="s">
         <v>72</v>
@@ -3067,7 +3157,7 @@
       </c>
       <c r="G9" s="44"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="44" t="s">
         <v>77</v>
@@ -3101,7 +3191,7 @@
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="44" t="s">
         <v>83</v>
@@ -3118,7 +3208,7 @@
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
     </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
       <c r="B13" s="44" t="s">
         <v>87</v>
@@ -3135,7 +3225,7 @@
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="43"/>
       <c r="B14" s="44" t="s">
         <v>90</v>
@@ -3152,7 +3242,7 @@
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
       <c r="B15" s="44" t="s">
         <v>93</v>
@@ -3169,7 +3259,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="43"/>
       <c r="B16" s="44" t="s">
         <v>96</v>
@@ -3186,7 +3276,7 @@
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
     </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="43"/>
       <c r="B17" s="44" t="s">
         <v>99</v>
@@ -3203,7 +3293,7 @@
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
     </row>
-    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
         <v>46</v>
       </c>
@@ -3224,7 +3314,7 @@
       </c>
       <c r="G18" s="44"/>
     </row>
-    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A19" s="43"/>
       <c r="B19" s="44" t="s">
         <v>101</v>
@@ -3243,7 +3333,7 @@
       </c>
       <c r="G19" s="44"/>
     </row>
-    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A20" s="43"/>
       <c r="B20" s="44" t="s">
         <v>102</v>
@@ -3262,7 +3352,7 @@
       </c>
       <c r="G20" s="44"/>
     </row>
-    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.35">
       <c r="A21" s="43"/>
       <c r="B21" s="44" t="s">
         <v>103</v>
@@ -3279,7 +3369,7 @@
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
     </row>
-    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A22" s="43" t="s">
         <v>46</v>
       </c>
@@ -3300,7 +3390,7 @@
       </c>
       <c r="G22" s="44"/>
     </row>
-    <row r="23" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
         <v>46</v>
       </c>
@@ -3319,7 +3409,7 @@
       </c>
       <c r="G23" s="44"/>
     </row>
-    <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
         <v>46</v>
       </c>
@@ -3342,7 +3432,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="43"/>
       <c r="B25" s="44" t="s">
         <v>107</v>
@@ -3361,7 +3451,7 @@
       </c>
       <c r="G25" s="44"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="43"/>
       <c r="B26" s="44" t="s">
         <v>108</v>
@@ -3380,7 +3470,7 @@
       </c>
       <c r="G26" s="44"/>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="43"/>
       <c r="B27" s="44" t="s">
         <v>223</v>
@@ -3399,7 +3489,7 @@
       </c>
       <c r="G27" s="44"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="43"/>
       <c r="B28" s="44" t="s">
         <v>224</v>
@@ -3418,7 +3508,7 @@
       </c>
       <c r="G28" s="44"/>
     </row>
-    <row r="29" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A29" s="43"/>
       <c r="B29" s="44" t="s">
         <v>225</v>
@@ -3437,7 +3527,7 @@
       </c>
       <c r="G29" s="44"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="43"/>
       <c r="B30" s="44" t="s">
         <v>226</v>
@@ -3452,7 +3542,7 @@
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="43"/>
       <c r="B31" s="44" t="s">
         <v>227</v>
@@ -3469,7 +3559,7 @@
       </c>
       <c r="G31" s="44"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A32" s="43"/>
       <c r="B32" s="44" t="s">
         <v>228</v>
@@ -3484,7 +3574,7 @@
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
     </row>
-    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A33" s="43"/>
       <c r="B33" s="44" t="s">
         <v>229</v>
@@ -3499,7 +3589,7 @@
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
     </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A34" s="43"/>
       <c r="B34" s="44" t="s">
         <v>230</v>
@@ -3514,7 +3604,7 @@
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="43"/>
       <c r="B35" s="44" t="s">
         <v>231</v>
@@ -3529,7 +3619,7 @@
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="43"/>
       <c r="B36" s="44" t="s">
         <v>232</v>
@@ -3540,7 +3630,7 @@
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="43"/>
       <c r="B37" s="44" t="s">
         <v>233</v>
@@ -3551,7 +3641,7 @@
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="43"/>
       <c r="B38" s="44" t="s">
         <v>234</v>
@@ -3569,23 +3659,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B79" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" style="35" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="53.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" customWidth="1"/>
+    <col min="8" max="8" width="53.54296875" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
@@ -3608,7 +3698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
         <v>242</v>
       </c>
@@ -3618,7 +3708,7 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
         <v>65</v>
       </c>
@@ -3631,7 +3721,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>155</v>
       </c>
@@ -3647,7 +3737,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>157</v>
       </c>
@@ -3655,7 +3745,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
         <v>158</v>
       </c>
@@ -3663,17 +3753,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>159</v>
       </c>
@@ -3681,7 +3771,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
         <v>160</v>
       </c>
@@ -3689,7 +3779,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="34" t="s">
         <v>161</v>
       </c>
@@ -3697,7 +3787,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
         <v>271</v>
       </c>
@@ -3705,7 +3795,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>162</v>
       </c>
@@ -3713,7 +3803,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="34" t="s">
         <v>163</v>
       </c>
@@ -3721,7 +3811,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="34" t="s">
         <v>164</v>
       </c>
@@ -3729,7 +3819,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="34" t="s">
         <v>4</v>
       </c>
@@ -3737,7 +3827,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="34" t="s">
         <v>165</v>
       </c>
@@ -3745,7 +3835,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="34" t="s">
         <v>166</v>
       </c>
@@ -3753,7 +3843,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="34" t="s">
         <v>167</v>
       </c>
@@ -3761,7 +3851,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="34" t="s">
         <v>168</v>
       </c>
@@ -3769,7 +3859,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
         <v>169</v>
       </c>
@@ -3777,7 +3867,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="34" t="s">
         <v>170</v>
       </c>
@@ -3785,7 +3875,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="34" t="s">
         <v>171</v>
       </c>
@@ -3793,7 +3883,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="34" t="s">
         <v>172</v>
       </c>
@@ -3801,7 +3891,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>173</v>
       </c>
@@ -3809,7 +3899,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="34" t="s">
         <v>174</v>
       </c>
@@ -3817,40 +3907,40 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="34" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="34" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="34"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="34"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="34"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="34"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="34"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="34"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I38" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="34" t="s">
         <v>7</v>
       </c>
@@ -3858,7 +3948,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="34" t="s">
         <v>175</v>
       </c>
@@ -3866,7 +3956,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="34" t="s">
         <v>176</v>
       </c>
@@ -3874,7 +3964,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="34" t="s">
         <v>177</v>
       </c>
@@ -3882,7 +3972,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="34" t="s">
         <v>178</v>
       </c>
@@ -3890,7 +3980,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="34" t="s">
         <v>179</v>
       </c>
@@ -3898,7 +3988,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="34" t="s">
         <v>180</v>
       </c>
@@ -3906,7 +3996,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="34" t="s">
         <v>181</v>
       </c>
@@ -3914,7 +4004,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="34" t="s">
         <v>182</v>
       </c>
@@ -3922,7 +4012,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="34" t="s">
         <v>183</v>
       </c>
@@ -3930,7 +4020,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="34" t="s">
         <v>184</v>
       </c>
@@ -3938,7 +4028,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="34" t="s">
         <v>185</v>
       </c>
@@ -3946,7 +4036,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="34" t="s">
         <v>11</v>
       </c>
@@ -3954,7 +4044,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="34" t="s">
         <v>186</v>
       </c>
@@ -3962,7 +4052,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B53" s="34" t="s">
         <v>187</v>
       </c>
@@ -3973,7 +4063,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="34" t="s">
         <v>188</v>
       </c>
@@ -3981,7 +4071,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="34" t="s">
         <v>14</v>
       </c>
@@ -3989,7 +4079,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="34" t="s">
         <v>189</v>
       </c>
@@ -3997,7 +4087,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="34" t="s">
         <v>190</v>
       </c>
@@ -4005,7 +4095,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="34" t="s">
         <v>191</v>
       </c>
@@ -4013,7 +4103,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="34" t="s">
         <v>221</v>
       </c>
@@ -4021,7 +4111,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="34" t="s">
         <v>192</v>
       </c>
@@ -4029,7 +4119,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="34" t="s">
         <v>193</v>
       </c>
@@ -4037,7 +4127,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="34" t="s">
         <v>19</v>
       </c>
@@ -4045,7 +4135,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="34" t="s">
         <v>194</v>
       </c>
@@ -4053,7 +4143,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="34" t="s">
         <v>195</v>
       </c>
@@ -4061,7 +4151,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="34" t="s">
         <v>196</v>
       </c>
@@ -4069,7 +4159,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="34" t="s">
         <v>197</v>
       </c>
@@ -4077,7 +4167,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="34" t="s">
         <v>198</v>
       </c>
@@ -4085,7 +4175,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="34" t="s">
         <v>199</v>
       </c>
@@ -4093,7 +4183,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="34" t="s">
         <v>23</v>
       </c>
@@ -4101,7 +4191,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="34" t="s">
         <v>200</v>
       </c>
@@ -4109,7 +4199,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="34" t="s">
         <v>201</v>
       </c>
@@ -4117,7 +4207,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="34" t="s">
         <v>202</v>
       </c>
@@ -4125,7 +4215,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="34" t="s">
         <v>203</v>
       </c>
@@ -4133,7 +4223,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="34" t="s">
         <v>204</v>
       </c>
@@ -4141,7 +4231,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="34" t="s">
         <v>24</v>
       </c>
@@ -4149,7 +4239,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="34" t="s">
         <v>30</v>
       </c>
@@ -4157,7 +4247,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="34" t="s">
         <v>25</v>
       </c>
@@ -4165,7 +4255,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="34" t="s">
         <v>205</v>
       </c>
@@ -4173,7 +4263,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="34" t="s">
         <v>206</v>
       </c>
@@ -4181,7 +4271,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="34" t="s">
         <v>207</v>
       </c>
@@ -4189,7 +4279,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="34" t="s">
         <v>208</v>
       </c>
@@ -4197,7 +4287,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="34" t="s">
         <v>209</v>
       </c>
@@ -4205,7 +4295,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="34" t="s">
         <v>210</v>
       </c>
@@ -4213,12 +4303,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I84" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="31" t="s">
         <v>218</v>
       </c>
@@ -4226,7 +4316,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B86" s="31" t="s">
         <v>215</v>
       </c>
@@ -4234,17 +4324,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I87" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I88" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B89" s="35" t="s">
         <v>216</v>
       </c>
@@ -4255,12 +4345,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I90" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B91" s="35" t="s">
         <v>250</v>
       </c>
@@ -4271,7 +4361,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B92" s="35" t="s">
         <v>243</v>
       </c>
@@ -4279,7 +4369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B93" s="35" t="s">
         <v>244</v>
       </c>
@@ -4287,7 +4377,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B94" s="36" t="s">
         <v>245</v>
       </c>
@@ -4295,7 +4385,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B95" s="36" t="s">
         <v>246</v>
       </c>
@@ -4303,7 +4393,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B96" s="36" t="s">
         <v>247</v>
       </c>
@@ -4311,12 +4401,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I97" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B98" s="36" t="s">
         <v>248</v>
       </c>
@@ -4324,7 +4414,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B99" s="36" t="s">
         <v>249</v>
       </c>
@@ -4332,12 +4422,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I100" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B101" s="36" t="s">
         <v>262</v>
       </c>
@@ -4348,7 +4438,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B102" s="36" t="s">
         <v>263</v>
       </c>
@@ -4359,7 +4449,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H103" s="27" t="s">
         <v>265</v>
       </c>
@@ -4367,7 +4457,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B104" s="36" t="s">
         <v>266</v>
       </c>
@@ -4378,17 +4468,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I105" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I106" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B107" s="35" t="s">
         <v>58</v>
       </c>
@@ -4399,12 +4489,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I108" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I109" t="s">
         <v>213</v>
       </c>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBD785-95F0-4BE3-B3DD-7435C668B0EE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$57</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="339">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1128,11 +1134,17 @@
   <si>
     <t>$PWD always reset to $HOME</t>
   </si>
+  <si>
+    <t>In 1050, half fixed.  If you DNSINFO host ip  twice in row from command line no more problem.  but if DNSINFO host ip is in script, 2nd time you run script machine LOCKS at that line in script, so calling from script is bad some how.</t>
+  </si>
+  <si>
+    <t>Change name to RV or MV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1377,7 +1389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1508,6 +1520,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1815,34 +1830,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="27" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1857,7 +1872,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -1870,7 +1885,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>122</v>
@@ -1883,7 +1898,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -1896,12 +1911,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -1924,7 +1939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1945,7 +1960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1967,7 +1982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1989,7 +2004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2037,7 +2052,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -2061,7 +2076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2105,7 +2120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2151,7 +2166,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -2173,7 +2188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2197,7 +2212,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2219,7 +2234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2241,7 +2256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2287,7 +2302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2309,7 +2324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2354,7 +2369,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2378,7 +2393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2426,7 +2441,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -2450,7 +2465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2471,7 +2486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -2492,7 +2507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2564,7 +2579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -2582,7 +2597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2630,9 +2645,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2654,7 +2669,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -2675,7 +2690,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f t="shared" si="1"/>
         <v>133</v>
@@ -2693,7 +2708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f t="shared" si="1"/>
         <v>134</v>
@@ -2714,7 +2729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2738,7 +2753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -2756,7 +2771,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -2777,7 +2795,10 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
         <v>138</v>
@@ -2798,7 +2819,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <f t="shared" si="1"/>
         <v>139</v>
@@ -2819,7 +2840,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -2834,7 +2855,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <f t="shared" si="1"/>
         <v>141</v>
@@ -2851,8 +2872,14 @@
       <c r="F49" s="48" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
         <v>142</v>
@@ -2873,7 +2900,10 @@
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
         <v>143</v>
@@ -2894,7 +2924,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -2909,7 +2939,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <f t="shared" si="1"/>
         <v>145</v>
@@ -2924,7 +2954,10 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
         <v>146</v>
@@ -2941,30 +2974,33 @@
       <c r="F54" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="G54">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G54" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="H54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G57">
+  <autoFilter ref="A7:G57" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="V"/>
@@ -2977,26 +3013,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.1796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="4"/>
+    <col min="4" max="4" width="51.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
@@ -3036,7 +3072,7 @@
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
     </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="44" t="s">
         <v>43</v>
@@ -3053,7 +3089,7 @@
       </c>
       <c r="G3" s="44"/>
     </row>
-    <row r="4" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="44" t="s">
         <v>44</v>
@@ -3087,7 +3123,7 @@
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="44" t="s">
         <v>66</v>
@@ -3104,7 +3140,7 @@
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>46</v>
       </c>
@@ -3121,7 +3157,7 @@
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
     </row>
-    <row r="8" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="44" t="s">
         <v>72</v>
@@ -3157,7 +3193,7 @@
       </c>
       <c r="G9" s="44"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="44" t="s">
         <v>77</v>
@@ -3174,7 +3210,7 @@
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
     </row>
-    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="44" t="s">
         <v>80</v>
@@ -3191,7 +3227,7 @@
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="44" t="s">
         <v>83</v>
@@ -3208,7 +3244,7 @@
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
     </row>
-    <row r="13" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="44" t="s">
         <v>87</v>
@@ -3225,7 +3261,7 @@
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="44" t="s">
         <v>90</v>
@@ -3242,7 +3278,7 @@
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="44" t="s">
         <v>93</v>
@@ -3259,7 +3295,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="44" t="s">
         <v>96</v>
@@ -3276,7 +3312,7 @@
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
     </row>
-    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="44" t="s">
         <v>99</v>
@@ -3293,7 +3329,7 @@
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
     </row>
-    <row r="18" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>46</v>
       </c>
@@ -3314,7 +3350,7 @@
       </c>
       <c r="G18" s="44"/>
     </row>
-    <row r="19" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="44" t="s">
         <v>101</v>
@@ -3333,7 +3369,7 @@
       </c>
       <c r="G19" s="44"/>
     </row>
-    <row r="20" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="44" t="s">
         <v>102</v>
@@ -3352,7 +3388,7 @@
       </c>
       <c r="G20" s="44"/>
     </row>
-    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="44" t="s">
         <v>103</v>
@@ -3369,7 +3405,7 @@
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
     </row>
-    <row r="22" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>46</v>
       </c>
@@ -3390,7 +3426,7 @@
       </c>
       <c r="G22" s="44"/>
     </row>
-    <row r="23" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>46</v>
       </c>
@@ -3409,7 +3445,7 @@
       </c>
       <c r="G23" s="44"/>
     </row>
-    <row r="24" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>46</v>
       </c>
@@ -3432,7 +3468,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="44" t="s">
         <v>107</v>
@@ -3451,7 +3487,7 @@
       </c>
       <c r="G25" s="44"/>
     </row>
-    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="44" t="s">
         <v>108</v>
@@ -3470,7 +3506,7 @@
       </c>
       <c r="G26" s="44"/>
     </row>
-    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="44" t="s">
         <v>223</v>
@@ -3489,7 +3525,7 @@
       </c>
       <c r="G27" s="44"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="44" t="s">
         <v>224</v>
@@ -3508,7 +3544,7 @@
       </c>
       <c r="G28" s="44"/>
     </row>
-    <row r="29" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="44" t="s">
         <v>225</v>
@@ -3527,7 +3563,7 @@
       </c>
       <c r="G29" s="44"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="44" t="s">
         <v>226</v>
@@ -3542,7 +3578,7 @@
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="44" t="s">
         <v>227</v>
@@ -3559,7 +3595,7 @@
       </c>
       <c r="G31" s="44"/>
     </row>
-    <row r="32" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="44" t="s">
         <v>228</v>
@@ -3574,7 +3610,7 @@
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
     </row>
-    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="44" t="s">
         <v>229</v>
@@ -3589,7 +3625,7 @@
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
     </row>
-    <row r="34" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
       <c r="B34" s="44" t="s">
         <v>230</v>
@@ -3604,7 +3640,7 @@
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="44" t="s">
         <v>231</v>
@@ -3619,7 +3655,7 @@
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="44" t="s">
         <v>232</v>
@@ -3630,7 +3666,7 @@
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="44" t="s">
         <v>233</v>
@@ -3641,7 +3677,7 @@
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="44" t="s">
         <v>234</v>
@@ -3659,23 +3695,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I109"/>
   <sheetViews>
     <sheetView topLeftCell="B79" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.7265625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" customWidth="1"/>
-    <col min="8" max="8" width="53.54296875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
@@ -3698,7 +3734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
         <v>242</v>
       </c>
@@ -3708,7 +3744,7 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
         <v>65</v>
       </c>
@@ -3721,7 +3757,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>155</v>
       </c>
@@ -3737,7 +3773,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>157</v>
       </c>
@@ -3745,7 +3781,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
         <v>158</v>
       </c>
@@ -3753,17 +3789,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>159</v>
       </c>
@@ -3771,7 +3807,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
         <v>160</v>
       </c>
@@ -3779,7 +3815,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="34" t="s">
         <v>161</v>
       </c>
@@ -3787,7 +3823,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
         <v>271</v>
       </c>
@@ -3795,7 +3831,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>162</v>
       </c>
@@ -3803,7 +3839,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
         <v>163</v>
       </c>
@@ -3811,7 +3847,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="s">
         <v>164</v>
       </c>
@@ -3819,7 +3855,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>4</v>
       </c>
@@ -3827,7 +3863,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>165</v>
       </c>
@@ -3835,7 +3871,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="34" t="s">
         <v>166</v>
       </c>
@@ -3843,7 +3879,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="34" t="s">
         <v>167</v>
       </c>
@@ -3851,7 +3887,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="s">
         <v>168</v>
       </c>
@@ -3859,7 +3895,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="34" t="s">
         <v>169</v>
       </c>
@@ -3867,7 +3903,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="34" t="s">
         <v>170</v>
       </c>
@@ -3875,7 +3911,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="34" t="s">
         <v>171</v>
       </c>
@@ -3883,7 +3919,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="34" t="s">
         <v>172</v>
       </c>
@@ -3891,7 +3927,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="34" t="s">
         <v>173</v>
       </c>
@@ -3899,7 +3935,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="34" t="s">
         <v>174</v>
       </c>
@@ -3907,40 +3943,40 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="34" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="34" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="34"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="34"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="34"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="34"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="34"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="34"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="34" t="s">
         <v>7</v>
       </c>
@@ -3948,7 +3984,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="34" t="s">
         <v>175</v>
       </c>
@@ -3956,7 +3992,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="34" t="s">
         <v>176</v>
       </c>
@@ -3964,7 +4000,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="34" t="s">
         <v>177</v>
       </c>
@@ -3972,7 +4008,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="34" t="s">
         <v>178</v>
       </c>
@@ -3980,7 +4016,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="34" t="s">
         <v>179</v>
       </c>
@@ -3988,7 +4024,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="34" t="s">
         <v>180</v>
       </c>
@@ -3996,7 +4032,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="34" t="s">
         <v>181</v>
       </c>
@@ -4004,7 +4040,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
         <v>182</v>
       </c>
@@ -4012,7 +4048,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="34" t="s">
         <v>183</v>
       </c>
@@ -4020,7 +4056,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="34" t="s">
         <v>184</v>
       </c>
@@ -4028,7 +4064,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="34" t="s">
         <v>185</v>
       </c>
@@ -4036,7 +4072,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="34" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4080,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="34" t="s">
         <v>186</v>
       </c>
@@ -4052,7 +4088,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="34" t="s">
         <v>187</v>
       </c>
@@ -4063,7 +4099,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="34" t="s">
         <v>188</v>
       </c>
@@ -4071,7 +4107,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="34" t="s">
         <v>14</v>
       </c>
@@ -4079,7 +4115,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="34" t="s">
         <v>189</v>
       </c>
@@ -4087,7 +4123,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="34" t="s">
         <v>190</v>
       </c>
@@ -4095,7 +4131,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="34" t="s">
         <v>191</v>
       </c>
@@ -4103,7 +4139,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="34" t="s">
         <v>221</v>
       </c>
@@ -4111,7 +4147,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="34" t="s">
         <v>192</v>
       </c>
@@ -4119,7 +4155,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="34" t="s">
         <v>193</v>
       </c>
@@ -4127,7 +4163,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="34" t="s">
         <v>19</v>
       </c>
@@ -4135,7 +4171,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="34" t="s">
         <v>194</v>
       </c>
@@ -4143,7 +4179,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="34" t="s">
         <v>195</v>
       </c>
@@ -4151,7 +4187,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="34" t="s">
         <v>196</v>
       </c>
@@ -4159,7 +4195,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="34" t="s">
         <v>197</v>
       </c>
@@ -4167,7 +4203,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="34" t="s">
         <v>198</v>
       </c>
@@ -4175,7 +4211,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="34" t="s">
         <v>199</v>
       </c>
@@ -4183,7 +4219,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="34" t="s">
         <v>23</v>
       </c>
@@ -4191,7 +4227,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="34" t="s">
         <v>200</v>
       </c>
@@ -4199,7 +4235,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="34" t="s">
         <v>201</v>
       </c>
@@ -4207,7 +4243,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="34" t="s">
         <v>202</v>
       </c>
@@ -4215,7 +4251,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="34" t="s">
         <v>203</v>
       </c>
@@ -4223,7 +4259,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="34" t="s">
         <v>204</v>
       </c>
@@ -4231,7 +4267,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="34" t="s">
         <v>24</v>
       </c>
@@ -4239,7 +4275,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="34" t="s">
         <v>30</v>
       </c>
@@ -4247,7 +4283,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="34" t="s">
         <v>25</v>
       </c>
@@ -4255,7 +4291,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="34" t="s">
         <v>205</v>
       </c>
@@ -4263,7 +4299,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="34" t="s">
         <v>206</v>
       </c>
@@ -4271,7 +4307,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="34" t="s">
         <v>207</v>
       </c>
@@ -4279,7 +4315,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="34" t="s">
         <v>208</v>
       </c>
@@ -4287,7 +4323,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="34" t="s">
         <v>209</v>
       </c>
@@ -4295,7 +4331,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="34" t="s">
         <v>210</v>
       </c>
@@ -4303,12 +4339,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="31" t="s">
         <v>218</v>
       </c>
@@ -4316,7 +4352,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="31" t="s">
         <v>215</v>
       </c>
@@ -4324,17 +4360,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B89" s="35" t="s">
         <v>216</v>
       </c>
@@ -4345,12 +4381,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="35" t="s">
         <v>250</v>
       </c>
@@ -4361,7 +4397,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="35" t="s">
         <v>243</v>
       </c>
@@ -4369,7 +4405,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="35" t="s">
         <v>244</v>
       </c>
@@ -4377,7 +4413,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="36" t="s">
         <v>245</v>
       </c>
@@ -4385,7 +4421,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="36" t="s">
         <v>246</v>
       </c>
@@ -4393,7 +4429,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="36" t="s">
         <v>247</v>
       </c>
@@ -4401,12 +4437,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="36" t="s">
         <v>248</v>
       </c>
@@ -4414,7 +4450,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="36" t="s">
         <v>249</v>
       </c>
@@ -4422,12 +4458,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I100" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="36" t="s">
         <v>262</v>
       </c>
@@ -4438,7 +4474,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="36" t="s">
         <v>263</v>
       </c>
@@ -4449,7 +4485,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H103" s="27" t="s">
         <v>265</v>
       </c>
@@ -4457,7 +4493,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B104" s="36" t="s">
         <v>266</v>
       </c>
@@ -4468,17 +4504,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I105" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I106" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B107" s="35" t="s">
         <v>58</v>
       </c>
@@ -4489,12 +4525,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I108" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I109" t="s">
         <v>213</v>
       </c>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBD785-95F0-4BE3-B3DD-7435C668B0EE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1192773-6D67-48D4-88B4-D335560C8B0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="283">
   <si>
     <t>Issue No.</t>
   </si>
@@ -528,190 +528,18 @@
     <t>Help (-h)</t>
   </si>
   <si>
-    <t>ECHO Hello</t>
-  </si>
-  <si>
-    <t>ECHO $TERM</t>
-  </si>
-  <si>
-    <t>Echo $term</t>
-  </si>
-  <si>
     <t>EXIT</t>
   </si>
   <si>
-    <t>IF -d -e -f filename</t>
-  </si>
-  <si>
-    <t>ELSE</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
     <t>PAUSE</t>
   </si>
   <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>SET PK1=”Hello World”</t>
-  </si>
-  <si>
-    <t>SET PK1=</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>Redirection</t>
-  </si>
-  <si>
-    <t>&gt; </t>
-  </si>
-  <si>
-    <t>&gt;&gt; </t>
-  </si>
-  <si>
-    <t>1&gt;</t>
-  </si>
-  <si>
-    <t>2&gt;</t>
-  </si>
-  <si>
-    <t>1&gt;&gt;</t>
-  </si>
-  <si>
-    <t>2&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt; </t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>CAT -A</t>
-  </si>
-  <si>
-    <t>CAT -N</t>
-  </si>
-  <si>
-    <t>CAT -S</t>
-  </si>
-  <si>
-    <t>CHTYP</t>
-  </si>
-  <si>
-    <t>CHTYP -C</t>
-  </si>
-  <si>
-    <t>CHTYP -R</t>
-  </si>
-  <si>
-    <t>CHGRP</t>
-  </si>
-  <si>
-    <t>CHOWN</t>
-  </si>
-  <si>
-    <t>CP etc/hosts /vol</t>
-  </si>
-  <si>
-    <t>CP ETC/HOSTS /vol</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DNSINFO </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hostname ipaddr</t>
-    </r>
-  </si>
-  <si>
-    <t>EDIT filename</t>
-  </si>
-  <si>
-    <t>FORMAT S6D2 VOLNAME</t>
-  </si>
-  <si>
-    <t>KILL</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L fn/wildcard</t>
-  </si>
-  <si>
-    <t>LSDEV</t>
-  </si>
-  <si>
-    <t>LSOF</t>
-  </si>
-  <si>
-    <t>MD5 -dhelloworld</t>
-  </si>
-  <si>
-    <t>MD5 -dHELLOWORLD</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>MORE filename</t>
-  </si>
-  <si>
-    <t>MORE -N filename</t>
-  </si>
-  <si>
-    <t>MORE -P filename</t>
-  </si>
-  <si>
-    <t>NETSTAT</t>
-  </si>
-  <si>
-    <t>NFSMOUNT</t>
-  </si>
-  <si>
     <t>NSCUTIL</t>
   </si>
   <si>
-    <t>NTPDATE</t>
-  </si>
-  <si>
-    <t>PASSWD</t>
-  </si>
-  <si>
-    <t>TELNET (TL2 script file)</t>
-  </si>
-  <si>
-    <t>TELNET hostname</t>
-  </si>
-  <si>
-    <t>TOUCH</t>
-  </si>
-  <si>
-    <t>UMOUNT</t>
-  </si>
-  <si>
     <t>USERADD</t>
   </si>
   <si>
-    <t>USERDEL</t>
-  </si>
-  <si>
     <t>Comp.</t>
   </si>
   <si>
@@ -721,15 +549,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>This new sheet has multiple purposes.  1) It is to make sure that every command is being tracked and we have 1 complete list somewhere.  2) To track completion of commands (Col C, RG), that doc is written if appropriate (B, PK), a MAN page is written (E, PK), a test script is written for the command (F, PK) and that each command has imbeded help/usage (-h option) (Col G, RG).</t>
-  </si>
-  <si>
-    <t>UNAME -a -s -n -v -m -o</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
     <t>We need a document that discusses the tools and processes one uses to work on the A2OSX project.  Examples include the TortoiseSVN package to contribute, MarkDownPad to edit MD and other DOC files on github.  Github tools and registration.  How to edit, compile and run a program under A2OSX.</t>
   </si>
   <si>
@@ -742,9 +561,6 @@
     <t>Assign to PK</t>
   </si>
   <si>
-    <t>LS -A -L -R wildcards</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
@@ -805,33 +621,6 @@
     <t>Need to verify that A2OSX works on real Apple with Thunderclock installed. Test Slots 1 2 and 3.</t>
   </si>
   <si>
-    <t>Control-D at boot</t>
-  </si>
-  <si>
-    <t>TCPIP.CONF file</t>
-  </si>
-  <si>
-    <t>HOSTS file</t>
-  </si>
-  <si>
-    <t>HOSTNAME file</t>
-  </si>
-  <si>
-    <t>STARTUP/INIT file</t>
-  </si>
-  <si>
-    <t>PROFILE files</t>
-  </si>
-  <si>
-    <t>Standard ENV Vars (PS1 PATH)</t>
-  </si>
-  <si>
-    <t>SET command</t>
-  </si>
-  <si>
-    <t>INSTALL</t>
-  </si>
-  <si>
     <t>We need a document on how to install A2OSX on your existing ProDOS HD/CF Card.</t>
   </si>
   <si>
@@ -853,33 +642,9 @@
     <t>PK to write spec sheet for a DB Engine or client/servier API for DB.</t>
   </si>
   <si>
-    <t>PUSHD</t>
-  </si>
-  <si>
-    <t>POPD</t>
-  </si>
-  <si>
-    <t>IF = != (strings)</t>
-  </si>
-  <si>
-    <t>IF -eq -ne -lt -gt -ge -le (int)</t>
-  </si>
-  <si>
-    <t>SSC/SSCI</t>
-  </si>
-  <si>
-    <t>TELNETD</t>
-  </si>
-  <si>
     <t>Same with setting up and using TELNETD</t>
   </si>
   <si>
-    <t>ls test</t>
-  </si>
-  <si>
-    <t>Open-Apple</t>
-  </si>
-  <si>
     <t>Need to document as a way to stop error messages if they start scrolling on screen (like FreeMem). Can also be used during boot to see msgs at each stage.</t>
   </si>
   <si>
@@ -892,9 +657,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>READ -P "Prompt Phrase" $var</t>
-  </si>
-  <si>
     <t>Write one doc for all SHELL internals, redirection, etc. and need to talk about "." before script.</t>
   </si>
   <si>
@@ -926,9 +688,6 @@
   </si>
   <si>
     <t>0,93</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Implemented in…</t>
   </si>
   <si>
     <t>SHELL will handle SYS files, calling API shutown with arg=.SYS file
@@ -1139,6 +898,66 @@
   </si>
   <si>
     <t>Change name to RV or MV</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>A file comparison tool to see if too files are equal.  In the short term I can write a script that uses MD5 to hash both files and if the hash is the same the files are the same.</t>
+  </si>
+  <si>
+    <t>PROFILE</t>
+  </si>
+  <si>
+    <t>Have login run /etc/profile at user login ($SHELL -N $ROOT/ETC/PROFILE)</t>
+  </si>
+  <si>
+    <t>Should create an entry in etc/passwd with USER:PW:UID:GID:GECOS:HOME:SHELL</t>
+  </si>
+  <si>
+    <t>S0038</t>
+  </si>
+  <si>
+    <t>When editing a previous command (hit up arrow) and you move left and change a letter or two and press return to execute command it clears the remainder of the line.  Bash retains the whole line and executes edited command.</t>
+  </si>
+  <si>
+    <t>Future enhancement</t>
+  </si>
+  <si>
+    <t>S0039</t>
+  </si>
+  <si>
+    <t>S0040</t>
+  </si>
+  <si>
+    <t>S0041</t>
+  </si>
+  <si>
+    <t>S0042</t>
+  </si>
+  <si>
+    <t>S0043</t>
+  </si>
+  <si>
+    <t>S0044</t>
+  </si>
+  <si>
+    <t>S0045</t>
+  </si>
+  <si>
+    <t>S0046</t>
+  </si>
+  <si>
+    <t>S0047</t>
+  </si>
+  <si>
+    <t>S0048</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This new sheet has multiple purposes.  1) It is to make sure that every command is being tracked and we have 1 complete list somewhere.  2) To track completion of commands (Col C, RG), that doc is written if appropriate (B, PK), a MAN page is written (E, PK), a test script is written for the command (F, PK) and that each command has imbeded help/usage (-h option) (Col G, RG). </t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1470,23 +1289,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1512,9 +1314,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1523,6 +1322,33 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1841,19 +1667,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="27" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2206,7 +2032,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="G19">
         <v>1039</v>
@@ -2295,8 +2121,8 @@
       <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>315</v>
+      <c r="F23" s="30" t="s">
+        <v>239</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -2458,8 +2284,8 @@
       <c r="E30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="47" t="s">
-        <v>307</v>
+      <c r="F30" s="39" t="s">
+        <v>231</v>
       </c>
       <c r="G30" t="s">
         <v>28</v>
@@ -2549,7 +2375,7 @@
         <v>140</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
@@ -2588,10 +2414,10 @@
         <v>128</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="G36" t="s">
         <v>28</v>
@@ -2612,10 +2438,10 @@
         <v>1034</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="G37">
         <v>1039</v>
@@ -2630,16 +2456,16 @@
         <v>130</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="D38" s="2">
         <v>1034</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="G38" t="s">
         <v>28</v>
@@ -2660,10 +2486,10 @@
         <v>1037</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>335</v>
+        <v>215</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>259</v>
       </c>
       <c r="G39">
         <v>1050</v>
@@ -2678,13 +2504,13 @@
         <v>132</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="D40" s="2">
         <v>1037</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="G40">
         <v>1047</v>
@@ -2696,13 +2522,13 @@
         <v>133</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D41" s="2">
         <v>1047</v>
       </c>
-      <c r="E41" s="47" t="s">
-        <v>309</v>
+      <c r="E41" s="39" t="s">
+        <v>233</v>
       </c>
       <c r="G41" t="s">
         <v>28</v>
@@ -2714,16 +2540,16 @@
         <v>134</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D42" s="2">
         <v>1047</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>294</v>
+        <v>218</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="G42" t="s">
         <v>28</v>
@@ -2744,10 +2570,10 @@
         <v>1047</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F43" s="47" t="s">
-        <v>311</v>
+        <v>234</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>235</v>
       </c>
       <c r="G43" t="s">
         <v>28</v>
@@ -2765,10 +2591,10 @@
         <v>1047</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>333</v>
+        <v>221</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2780,16 +2606,16 @@
         <v>137</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="D45" s="2">
         <v>1047</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>334</v>
+        <v>222</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="G45">
         <v>1050</v>
@@ -2810,10 +2636,10 @@
         <v>1047</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>328</v>
+        <v>230</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>252</v>
       </c>
       <c r="G46">
         <v>1050</v>
@@ -2825,16 +2651,16 @@
         <v>139</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="D47" s="2">
         <v>1047</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>331</v>
+        <v>224</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>255</v>
       </c>
       <c r="G47">
         <v>1050</v>
@@ -2852,28 +2678,31 @@
         <v>1047</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="D49" s="2">
         <v>1047</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F49" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="G49" t="s">
-        <v>338</v>
+        <v>227</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="H49" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -2891,13 +2720,13 @@
         <v>1047</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>329</v>
+        <v>238</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>253</v>
       </c>
       <c r="G50" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -2909,16 +2738,16 @@
         <v>143</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="D51" s="2">
         <v>1047</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F51" s="48" t="s">
-        <v>336</v>
+        <v>250</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>260</v>
       </c>
       <c r="G51">
         <v>1050</v>
@@ -2930,13 +2759,13 @@
         <v>144</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="D52" s="2">
         <v>1047</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>321</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -2945,13 +2774,13 @@
         <v>145</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>322</v>
+        <v>246</v>
       </c>
       <c r="D53" s="2">
         <v>1047</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -2969,16 +2798,16 @@
         <v>1047</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="G54" s="49" t="s">
-        <v>337</v>
+        <v>249</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>261</v>
       </c>
       <c r="H54" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3014,679 +2843,808 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>283</v>
+      <c r="G1" s="35" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="44" t="s">
+      <c r="E3" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="E5" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="G9" s="44"/>
+      <c r="E9" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="E16" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="G18" s="44"/>
+      <c r="F18" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="G19" s="44"/>
+      <c r="F19" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="37">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="37"/>
+    </row>
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+    </row>
+    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+    </row>
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="38"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+    </row>
+    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+    </row>
+    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+    </row>
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="G22" s="44"/>
-    </row>
-    <row r="23" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" s="44"/>
-    </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="F24" s="44" t="s">
+      <c r="C47" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G24" s="44">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="G27" s="44"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="G28" s="44"/>
-    </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="G31" s="44"/>
-    </row>
-    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="E35" s="45"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="D48" s="27"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3696,846 +3654,615 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:I109"/>
+  <dimension ref="B1:I106"/>
   <sheetViews>
-    <sheetView topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="53.5703125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="8" style="43" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="43"/>
+    <col min="6" max="6" width="5.85546875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="43"/>
+    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="30" t="s">
+      <c r="C4" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F4" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G4" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H4" s="47" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>273</v>
+      <c r="I4" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="I5" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I7" t="s">
-        <v>213</v>
+      <c r="B6" s="6"/>
+      <c r="I6" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="I7" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" t="s">
-        <v>213</v>
+      <c r="B8" s="6"/>
+      <c r="I8" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="I9" t="s">
-        <v>213</v>
+      <c r="B9" s="6"/>
+      <c r="I9" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
-        <v>261</v>
+      <c r="B10" s="6"/>
+      <c r="I10" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>260</v>
+      <c r="B11" s="6"/>
+      <c r="I11" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="I12" t="s">
-        <v>213</v>
+      <c r="B12" s="6"/>
+      <c r="I12" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13" t="s">
-        <v>213</v>
+      <c r="B13" s="6"/>
+      <c r="I13" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" t="s">
-        <v>213</v>
+      <c r="B14" s="6"/>
+      <c r="I14" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="I15" t="s">
-        <v>213</v>
+      <c r="B15" s="6"/>
+      <c r="I15" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="I16" t="s">
-        <v>213</v>
+      <c r="B16" s="6"/>
+      <c r="I16" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="I17" t="s">
-        <v>213</v>
+      <c r="B17" s="6"/>
+      <c r="I17" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" t="s">
-        <v>213</v>
+      <c r="B18" s="6"/>
+      <c r="I18" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" t="s">
-        <v>213</v>
+      <c r="B19" s="6"/>
+      <c r="I19" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="I20" t="s">
-        <v>213</v>
+      <c r="B20" s="6"/>
+      <c r="I20" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="I21" t="s">
-        <v>213</v>
+      <c r="B21" s="6"/>
+      <c r="I21" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" t="s">
-        <v>213</v>
+      <c r="B22" s="6"/>
+      <c r="I22" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" t="s">
-        <v>213</v>
+      <c r="B23" s="6"/>
+      <c r="I23" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24" t="s">
-        <v>213</v>
+      <c r="B24" s="6"/>
+      <c r="I24" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="I25" t="s">
-        <v>213</v>
+      <c r="B25" s="6"/>
+      <c r="I25" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I26" t="s">
-        <v>213</v>
+      <c r="B26" s="6"/>
+      <c r="I26" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" t="s">
-        <v>213</v>
+      <c r="B27" s="6"/>
+      <c r="I27" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" t="s">
-        <v>213</v>
+      <c r="B28" s="6"/>
+      <c r="I28" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" t="s">
-        <v>213</v>
+      <c r="B29" s="6"/>
+      <c r="I29" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
-        <v>258</v>
+      <c r="B30" s="6"/>
+      <c r="I30" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
-        <v>259</v>
+      <c r="B31" s="6"/>
+      <c r="I31" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
+      <c r="B32" s="6"/>
+      <c r="I32" s="43" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
+      <c r="B33" s="6"/>
+      <c r="I33" s="43" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="34"/>
+      <c r="B34" s="6"/>
+      <c r="I34" s="43" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="34"/>
+      <c r="B35" s="6"/>
+      <c r="I35" s="43" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
+      <c r="B36" s="6"/>
+      <c r="I36" s="43" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="34"/>
+      <c r="B37" s="6"/>
+      <c r="I37" s="43" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I38" t="s">
-        <v>213</v>
+      <c r="B38" s="6"/>
+      <c r="I38" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" t="s">
-        <v>213</v>
+      <c r="B39" s="6"/>
+      <c r="I39" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="I40" t="s">
-        <v>213</v>
+      <c r="I40" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="I41" t="s">
-        <v>213</v>
+      <c r="B41" s="6"/>
+      <c r="I41" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I42" t="s">
-        <v>213</v>
+      <c r="B42" s="6"/>
+      <c r="I42" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="I43" t="s">
-        <v>213</v>
+      <c r="B43" s="6"/>
+      <c r="I43" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="I44" t="s">
-        <v>213</v>
+      <c r="B44" s="6"/>
+      <c r="I44" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="I45" t="s">
-        <v>213</v>
+      <c r="B45" s="6"/>
+      <c r="I45" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46" t="s">
-        <v>213</v>
+      <c r="B46" s="6"/>
+      <c r="I46" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="I47" t="s">
-        <v>213</v>
+      <c r="B47" s="6"/>
+      <c r="I47" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="I48" t="s">
-        <v>213</v>
+      <c r="B48" s="6"/>
+      <c r="I48" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="I49" t="s">
-        <v>213</v>
+      <c r="B49" s="6"/>
+      <c r="I49" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="I50" t="s">
-        <v>213</v>
+      <c r="B50" s="6"/>
+      <c r="I50" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" t="s">
-        <v>213</v>
+      <c r="B51" s="6"/>
+      <c r="I51" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="I52" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="I53" t="s">
-        <v>213</v>
+      <c r="B52" s="6"/>
+      <c r="I52" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="I53" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="I54" t="s">
-        <v>213</v>
+      <c r="B54" s="6"/>
+      <c r="I54" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" t="s">
-        <v>213</v>
+      <c r="B55" s="6"/>
+      <c r="I55" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="I56" t="s">
-        <v>213</v>
+      <c r="B56" s="6"/>
+      <c r="I56" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="I57" t="s">
-        <v>213</v>
+      <c r="B57" s="6"/>
+      <c r="I57" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="I58" t="s">
-        <v>213</v>
+      <c r="B58" s="6"/>
+      <c r="I58" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="I59" t="s">
-        <v>213</v>
+      <c r="B59" s="6"/>
+      <c r="I59" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="I60" t="s">
-        <v>213</v>
+      <c r="B60" s="6"/>
+      <c r="I60" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="I61" t="s">
-        <v>213</v>
+      <c r="B61" s="6"/>
+      <c r="I61" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" t="s">
-        <v>213</v>
+      <c r="B62" s="6"/>
+      <c r="I62" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="I63" t="s">
-        <v>213</v>
+      <c r="B63" s="6"/>
+      <c r="I63" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="I64" t="s">
-        <v>213</v>
+      <c r="B64" s="6"/>
+      <c r="I64" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="I65" t="s">
-        <v>213</v>
+      <c r="B65" s="6"/>
+      <c r="I65" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="I66" t="s">
-        <v>213</v>
+      <c r="B66" s="6"/>
+      <c r="I66" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="I67" t="s">
-        <v>213</v>
+      <c r="B67" s="6"/>
+      <c r="I67" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="I68" t="s">
-        <v>213</v>
+      <c r="B68" s="6"/>
+      <c r="I68" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" t="s">
-        <v>213</v>
+      <c r="B69" s="6"/>
+      <c r="I69" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="I70" t="s">
-        <v>213</v>
+      <c r="B70" s="6"/>
+      <c r="I70" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="I71" t="s">
-        <v>213</v>
+      <c r="B71" s="6"/>
+      <c r="I71" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="I72" t="s">
-        <v>213</v>
+      <c r="B72" s="6"/>
+      <c r="I72" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="I73" t="s">
-        <v>213</v>
+      <c r="B73" s="6"/>
+      <c r="I73" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="I74" t="s">
-        <v>213</v>
+      <c r="B74" s="6"/>
+      <c r="I74" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I75" t="s">
-        <v>213</v>
+      <c r="B75" s="6"/>
+      <c r="I75" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I76" t="s">
-        <v>213</v>
+      <c r="B76" s="6"/>
+      <c r="I76" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I77" t="s">
-        <v>213</v>
+      <c r="B77" s="6"/>
+      <c r="I77" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="I78" t="s">
-        <v>213</v>
+      <c r="B78" s="6"/>
+      <c r="I78" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="I79" t="s">
-        <v>213</v>
+      <c r="B79" s="6"/>
+      <c r="I79" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="I80" t="s">
-        <v>213</v>
+      <c r="B80" s="6"/>
+      <c r="I80" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="I81" t="s">
-        <v>213</v>
+      <c r="B81" s="6"/>
+      <c r="I81" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="I82" t="s">
-        <v>213</v>
+      <c r="B82" s="6"/>
+      <c r="I82" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="I83" t="s">
-        <v>213</v>
+      <c r="B83" s="6"/>
+      <c r="I83" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I84" t="s">
-        <v>213</v>
+      <c r="B84" s="6"/>
+      <c r="I84" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="I85" t="s">
-        <v>213</v>
+      <c r="B85" s="6"/>
+      <c r="I85" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="I86" t="s">
-        <v>213</v>
+      <c r="I86" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I87" t="s">
-        <v>213</v>
+      <c r="B87" s="49"/>
+      <c r="I87" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I88" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B89" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="I89" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I90" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="H91" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="I91" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="I92" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="I93" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="I94" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="I95" t="s">
-        <v>213</v>
+      <c r="B88" s="49"/>
+      <c r="I88" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I89" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="I96" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I97" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="I98" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="I99" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I100" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B101" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="H101" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="I101" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="H102" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="I102" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H103" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="I103" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B104" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="H104" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="I104" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I105" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I106" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H107" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="I107" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I108" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I109" t="s">
-        <v>213</v>
-      </c>
+      <c r="B96" s="50"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="50"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="50"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="50"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="50"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="50"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="50"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="50"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1192773-6D67-48D4-88B4-D335560C8B0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39895758-3D35-4128-8A36-D1FC0D9D0C78}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Commands" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$61</definedName>
   </definedNames>
   <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="293">
   <si>
     <t>Issue No.</t>
   </si>
@@ -645,9 +645,6 @@
     <t>Same with setting up and using TELNETD</t>
   </si>
   <si>
-    <t>Need to document as a way to stop error messages if they start scrolling on screen (like FreeMem). Can also be used during boot to see msgs at each stage.</t>
-  </si>
-  <si>
     <t>Screen Shots</t>
   </si>
   <si>
@@ -761,9 +758,6 @@
     <t>Control-C out of many programs (telnet, ping, memdump) end with [$03]:Unknown Error.</t>
   </si>
   <si>
-    <t>$# now reports 1 high.  It reports 1 when no args are passed, and 12 when I pass 11. This is in 1047</t>
-  </si>
-  <si>
     <t>Closed CD/PWD issue fixed, but other/more problems see #133.</t>
   </si>
   <si>
@@ -774,21 +768,6 @@
   </si>
   <si>
     <t>Merged into 138, its happens on all commands.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">missing stz hFrameIn in LIBTCPIP.S.ICMP   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Confirmed still in 1047</t>
-    </r>
   </si>
   <si>
     <r>
@@ -855,9 +834,6 @@
     <t>At command line PWD shows right value, but in script it shows $HOME though I am in a different dir. If you change HOME at cmdline and then run script $PWD in script displays new HOME value.  MORE on this.  My current dir is /PKA2OSX/TESTS, I do LS no prob.  I do L and I get listing for /A2OSX.BUILD/ROOT.  I manually change HOME to PK/TESTS and do L again and I get the right dir.  Somehow L is looking at the same mem address the $PWD is to do the listing or something.</t>
   </si>
   <si>
-    <t xml:space="preserve">DNSINFO did not check TCPIP status before managing DNS cache. Always resetting cache before displaying/updating </t>
-  </si>
-  <si>
     <t>Remapped $03 to "User Interrupt" Error message</t>
   </si>
   <si>
@@ -894,9 +870,6 @@
     <t>$PWD always reset to $HOME</t>
   </si>
   <si>
-    <t>In 1050, half fixed.  If you DNSINFO host ip  twice in row from command line no more problem.  but if DNSINFO host ip is in script, 2nd time you run script machine LOCKS at that line in script, so calling from script is bad some how.</t>
-  </si>
-  <si>
     <t>Change name to RV or MV</t>
   </si>
   <si>
@@ -921,9 +894,6 @@
     <t>When editing a previous command (hit up arrow) and you move left and change a letter or two and press return to execute command it clears the remainder of the line.  Bash retains the whole line and executes edited command.</t>
   </si>
   <si>
-    <t>Future enhancement</t>
-  </si>
-  <si>
     <t>S0039</t>
   </si>
   <si>
@@ -958,13 +928,94 @@
   </si>
   <si>
     <t xml:space="preserve">This new sheet has multiple purposes.  1) It is to make sure that every command is being tracked and we have 1 complete list somewhere.  2) To track completion of commands (Col C, RG), that doc is written if appropriate (B, PK), a MAN page is written (E, PK), a test script is written for the command (F, PK) and that each command has imbeded help/usage (-h option) (Col G, RG). </t>
+  </si>
+  <si>
+    <t>BOOT, -RUN login. at /root/$ prompt do an L /A2OSX.BUILD, it works fine.  Then do an L /RAM3 and you get a [$40]:Invalid Path error.  It does not matter what 2 vols you use (both need to be valid) you will get the error, and continue getting the error with L until you do an LS and then L starts working again. Note the problem does not happen if you use LS -L /VOLname or even just plain LS /Volname, it only happens using L.</t>
+  </si>
+  <si>
+    <t>if you do CP /Vol1 /Vol2 it lists all the files in Vol1 but never copies them (you dont see the [ok].  If you do CP /VOL1/* /VOL2 all works as expected.  I would think the first one should work as well, especially since its listing the file names.</t>
+  </si>
+  <si>
+    <t>You can get edit to crash if you type multiple lines and then do DEL at the end of the line a bunch then type some more. It will lock or crash to monitor.</t>
+  </si>
+  <si>
+    <t>More is displaying all of its content on the bottom line of the screen, where it also displays the prompt, so you don’t actually see the file being displayed.</t>
+  </si>
+  <si>
+    <t>This may be fixed, but because of #150 you cannot tell.</t>
+  </si>
+  <si>
+    <r>
+      <t>missi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ng stz hFrameIn in LIBTCPIP.S.ICMP   Confirmed still in 1047. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Appears fixed in 1069.</t>
+    </r>
+  </si>
+  <si>
+    <t>On exit you always get the FreeMem errors, but only with NET loaded to get the crash on exit. 1069</t>
+  </si>
+  <si>
+    <t>If your PWD is /A2OSX.BUILD/ROOT, if you LS you get dir of ROOT, if you LS .. You get the dir of /A2OSX.BUILD, if you LS ../.. You stillf get /A2OSX.BUILD instead of / as expected.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This was partially implemented but in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1069, when you make the edit and press return, it processes the whole line, but it first blanks from the cursor to the end of line (so now it works like you want but displays like it did before).</t>
+    </r>
+  </si>
+  <si>
+    <t>In 1069, DNSINFO gives a [$F8]:Syntax Error when trying to add HOST IP.</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>WHILE..LOOP implemented</t>
+  </si>
+  <si>
+    <t>OA-1/OA-2/OA-3  Need to document as a way to stop error messages if they start scrolling on screen (like FreeMem). Can also be used during boot to see msgs at each stage.</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Problem with IF a ELSE if b ELSE c structure, only a b or c should happen but if a you get a and c, if b then b.  See INSTPDOS on PKA2OSX disc which has been added in SVN.</t>
+  </si>
+  <si>
+    <t>If a script is missing the bin/shell you now give a nice invalid BIN file message, but apple still locks up.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,8 +1082,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,14 +1114,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1204,11 +1255,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1317,9 +1377,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1329,26 +1386,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,10 +1737,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1950,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -1924,7 +1996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2060,7 +2132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2082,7 +2154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2122,7 +2194,7 @@
         <v>48</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -2267,9 +2339,9 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
@@ -2284,11 +2356,11 @@
       <c r="E30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
+      <c r="F30" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30">
+        <v>1069</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
@@ -2312,7 +2384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -2329,6 +2401,9 @@
       <c r="E32" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="F32" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="G32" t="s">
         <v>28</v>
       </c>
@@ -2375,7 +2450,7 @@
         <v>140</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
@@ -2405,7 +2480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -2423,9 +2498,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
@@ -2441,7 +2516,7 @@
         <v>189</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="G37">
         <v>1039</v>
@@ -2456,22 +2531,22 @@
         <v>130</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" s="2">
         <v>1034</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -2486,10 +2561,10 @@
         <v>1037</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>259</v>
+        <v>214</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>255</v>
       </c>
       <c r="G39">
         <v>1050</v>
@@ -2504,19 +2579,22 @@
         <v>132</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="2">
         <v>1037</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G40">
         <v>1047</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
         <v>133</v>
@@ -2528,13 +2606,19 @@
         <v>1047</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="G41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
         <v>134</v>
@@ -2546,10 +2630,10 @@
         <v>1047</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="G42" t="s">
         <v>28</v>
@@ -2570,16 +2654,19 @@
         <v>1047</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G43" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -2591,10 +2678,10 @@
         <v>1047</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>257</v>
+        <v>220</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2612,16 +2699,16 @@
         <v>1047</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>258</v>
+        <v>221</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>254</v>
       </c>
       <c r="G45">
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2636,37 +2723,43 @@
         <v>1047</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>252</v>
+        <v>229</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>248</v>
       </c>
       <c r="G46">
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D47" s="2">
         <v>1047</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F47" s="40" t="s">
-        <v>255</v>
+        <v>223</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>251</v>
       </c>
       <c r="G47">
         <v>1050</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -2678,34 +2771,37 @@
         <v>1047</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D49" s="2">
         <v>1047</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F49" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="G49" s="41" t="s">
-        <v>262</v>
+        <v>226</v>
+      </c>
+      <c r="F49" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>257</v>
       </c>
       <c r="H49" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -2720,16 +2816,16 @@
         <v>1047</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>253</v>
+        <v>235</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>249</v>
       </c>
       <c r="G50" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
@@ -2738,16 +2834,16 @@
         <v>143</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D51" s="2">
         <v>1047</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>260</v>
+        <v>247</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>256</v>
       </c>
       <c r="G51">
         <v>1050</v>
@@ -2759,31 +2855,34 @@
         <v>144</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D52" s="2">
         <v>1047</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D53" s="2">
         <v>1047</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -2798,46 +2897,131 @@
         <v>1047</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="G54" s="41" t="s">
-        <v>261</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="G54" s="40"/>
       <c r="H54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1069</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1069</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
+      <c r="C57" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1069</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>150</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1069</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>151</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1069</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>152</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1069</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>153</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1069</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G57" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:G61" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
-      <filters>
+      <filters blank="1">
+        <filter val="HT"/>
         <filter val="V"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;Z&amp;F  &amp;A&amp;C&amp;P  /  &amp;N&amp;R&amp;D  &amp;T</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2845,15 +3029,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
@@ -2910,8 +3094,8 @@
       <c r="D3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>209</v>
+      <c r="E3" s="53" t="s">
+        <v>208</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>143</v>
@@ -2947,7 +3131,7 @@
         <v>86</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
@@ -3004,7 +3188,9 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="B9" s="37" t="s">
         <v>75</v>
       </c>
@@ -3015,10 +3201,10 @@
         <v>109</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G9" s="37"/>
     </row>
@@ -3124,8 +3310,10 @@
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="B16" s="37" t="s">
         <v>96</v>
       </c>
@@ -3136,9 +3324,11 @@
         <v>98</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="F16" s="37"/>
+        <v>208</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>288</v>
+      </c>
       <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -3175,7 +3365,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G18" s="37"/>
     </row>
@@ -3194,7 +3384,7 @@
         <v>45</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G19" s="37"/>
     </row>
@@ -3213,7 +3403,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G20" s="37"/>
     </row>
@@ -3223,10 +3413,10 @@
         <v>103</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>45</v>
@@ -3251,7 +3441,7 @@
         <v>141</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G22" s="37"/>
     </row>
@@ -3288,10 +3478,10 @@
         <v>138</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G24" s="37">
         <v>1039</v>
@@ -3331,7 +3521,7 @@
         <v>45</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G26" s="37"/>
     </row>
@@ -3350,7 +3540,7 @@
         <v>45</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G27" s="37"/>
     </row>
@@ -3385,10 +3575,10 @@
         <v>187</v>
       </c>
       <c r="E29" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="37" t="s">
         <v>207</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>208</v>
       </c>
       <c r="G29" s="37"/>
     </row>
@@ -3413,14 +3603,14 @@
         <v>170</v>
       </c>
       <c r="C31" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="37" t="s">
         <v>194</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>195</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G31" s="37"/>
     </row>
@@ -3430,10 +3620,10 @@
         <v>171</v>
       </c>
       <c r="C32" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="37" t="s">
         <v>201</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>202</v>
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="37"/>
@@ -3445,10 +3635,10 @@
         <v>172</v>
       </c>
       <c r="C33" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>228</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>229</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="37"/>
@@ -3463,7 +3653,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E34" s="38"/>
       <c r="F34" s="37"/>
@@ -3478,7 +3668,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E35" s="38"/>
       <c r="F35" s="37"/>
@@ -3490,10 +3680,10 @@
         <v>175</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="37"/>
@@ -3505,10 +3695,10 @@
         <v>176</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="37"/>
@@ -3523,57 +3713,60 @@
         <v>157</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="B39" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>161</v>
@@ -3581,10 +3774,10 @@
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>185</v>
@@ -3592,63 +3785,66 @@
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="D44" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D48" s="27"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D49" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F  &amp;A&amp;C&amp;P / &amp;N&amp;R&amp;D  &amp;T</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3656,608 +3852,608 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="8" style="43" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="43"/>
-    <col min="6" max="6" width="5.85546875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="43"/>
+    <col min="1" max="1" width="9.7109375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="8" style="42" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="42"/>
+    <col min="6" max="6" width="5.85546875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="42"/>
     <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="43"/>
+    <col min="9" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="43" t="s">
+      <c r="B2" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="I5" s="43" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="I5" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
-      <c r="I33" s="43" t="s">
+      <c r="I33" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="I34" s="43" t="s">
+      <c r="I34" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
-      <c r="I35" s="43" t="s">
+      <c r="I35" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
-      <c r="I38" s="43" t="s">
+      <c r="I38" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
-      <c r="I42" s="43" t="s">
+      <c r="I42" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
-      <c r="I43" s="43" t="s">
+      <c r="I43" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="I45" s="43" t="s">
+      <c r="I45" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
-      <c r="I46" s="43" t="s">
+      <c r="I46" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
-      <c r="I47" s="43" t="s">
+      <c r="I47" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
-      <c r="I48" s="43" t="s">
+      <c r="I48" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
-      <c r="I49" s="43" t="s">
+      <c r="I49" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
-      <c r="I50" s="43" t="s">
+      <c r="I50" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
-      <c r="I51" s="43" t="s">
+      <c r="I51" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
-      <c r="I53" s="43" t="s">
+      <c r="I53" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
-      <c r="I54" s="43" t="s">
+      <c r="I54" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
-      <c r="I55" s="43" t="s">
+      <c r="I55" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
-      <c r="I56" s="43" t="s">
+      <c r="I56" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
-      <c r="I57" s="43" t="s">
+      <c r="I57" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
-      <c r="I58" s="43" t="s">
+      <c r="I58" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
-      <c r="I59" s="43" t="s">
+      <c r="I59" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
-      <c r="I60" s="43" t="s">
+      <c r="I60" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
-      <c r="I61" s="43" t="s">
+      <c r="I61" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
-      <c r="I62" s="43" t="s">
+      <c r="I62" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
-      <c r="I63" s="43" t="s">
+      <c r="I63" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
-      <c r="I64" s="43" t="s">
+      <c r="I64" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
-      <c r="I65" s="43" t="s">
+      <c r="I65" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
-      <c r="I66" s="43" t="s">
+      <c r="I66" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
-      <c r="I67" s="43" t="s">
+      <c r="I67" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
-      <c r="I68" s="43" t="s">
+      <c r="I68" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
-      <c r="I69" s="43" t="s">
+      <c r="I69" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
-      <c r="I70" s="43" t="s">
+      <c r="I70" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
-      <c r="I71" s="43" t="s">
+      <c r="I71" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
-      <c r="I72" s="43" t="s">
+      <c r="I72" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
-      <c r="I73" s="43" t="s">
+      <c r="I73" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
-      <c r="I74" s="43" t="s">
+      <c r="I74" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
-      <c r="I75" s="43" t="s">
+      <c r="I75" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
-      <c r="I76" s="43" t="s">
+      <c r="I76" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
-      <c r="I77" s="43" t="s">
+      <c r="I77" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
-      <c r="I78" s="43" t="s">
+      <c r="I78" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
-      <c r="I79" s="43" t="s">
+      <c r="I79" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
-      <c r="I80" s="43" t="s">
+      <c r="I80" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
-      <c r="I81" s="43" t="s">
+      <c r="I81" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
-      <c r="I82" s="43" t="s">
+      <c r="I82" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
-      <c r="I83" s="43" t="s">
+      <c r="I83" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
-      <c r="I84" s="43" t="s">
+      <c r="I84" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
-      <c r="I85" s="43" t="s">
+      <c r="I85" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I86" s="43" t="s">
+      <c r="I86" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="49"/>
-      <c r="I87" s="43" t="s">
+      <c r="B87" s="47"/>
+      <c r="I87" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="49"/>
-      <c r="I88" s="43" t="s">
+      <c r="B88" s="47"/>
+      <c r="I88" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I89" s="43" t="s">
+      <c r="I89" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="50"/>
+      <c r="B96" s="48"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="50"/>
+      <c r="B97" s="48"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="50"/>
+      <c r="B98" s="48"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="50"/>
+      <c r="B100" s="48"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="50"/>
+      <c r="B101" s="48"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="50"/>
+      <c r="B103" s="48"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="50"/>
+      <c r="B104" s="48"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="50"/>
+      <c r="B106" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39895758-3D35-4128-8A36-D1FC0D9D0C78}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$61</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1014,7 +1008,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1268,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1377,9 +1371,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1404,9 +1395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1420,6 +1408,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1728,34 +1719,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1770,7 +1761,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -1783,7 +1774,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>122</v>
@@ -1796,7 +1787,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -1809,12 +1800,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -1837,7 +1828,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1858,7 +1849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1880,7 +1871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1902,7 +1893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1950,7 +1941,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -2018,7 +2009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2086,7 +2077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2110,7 +2101,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2200,7 +2191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2267,7 +2258,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2356,14 +2347,14 @@
       <c r="E30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="48" t="s">
         <v>287</v>
       </c>
       <c r="G30">
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2384,7 +2375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -2480,7 +2471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -2522,7 +2513,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2563,7 +2554,7 @@
       <c r="E39" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="49" t="s">
         <v>255</v>
       </c>
       <c r="G39">
@@ -2591,7 +2582,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -2615,7 +2606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2663,7 +2654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>122</v>
       </c>
@@ -2680,11 +2671,11 @@
       <c r="E44" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="48" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
@@ -2701,7 +2692,7 @@
       <c r="E45" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="48" t="s">
         <v>254</v>
       </c>
       <c r="G45">
@@ -2725,7 +2716,7 @@
       <c r="E46" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="48" t="s">
         <v>248</v>
       </c>
       <c r="G46">
@@ -2749,14 +2740,14 @@
       <c r="E47" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F47" s="48" t="s">
         <v>251</v>
       </c>
       <c r="G47">
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2774,7 +2765,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2791,10 +2782,10 @@
       <c r="E49" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="50" t="s">
         <v>257</v>
       </c>
       <c r="H49" t="s">
@@ -2818,7 +2809,7 @@
       <c r="E50" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="48" t="s">
         <v>249</v>
       </c>
       <c r="G50" t="s">
@@ -2842,14 +2833,14 @@
       <c r="E51" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F51" s="48" t="s">
         <v>256</v>
       </c>
       <c r="G51">
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -2882,7 +2873,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -2902,12 +2893,14 @@
       <c r="F54" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="G54" s="40"/>
+      <c r="G54">
+        <v>1071</v>
+      </c>
       <c r="H54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>147</v>
@@ -2922,7 +2915,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>148</v>
@@ -2937,7 +2930,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -2952,7 +2945,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B58" s="1">
         <v>150</v>
       </c>
@@ -2966,7 +2959,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B59" s="1">
         <v>151</v>
       </c>
@@ -2980,7 +2973,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B60" s="1">
         <v>152</v>
       </c>
@@ -2993,8 +2986,11 @@
       <c r="E60" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B61" s="1">
         <v>153</v>
       </c>
@@ -3007,12 +3003,14 @@
       <c r="E61" s="3" t="s">
         <v>292</v>
       </c>
+      <c r="G61">
+        <v>1071</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G61" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:G61">
     <filterColumn colId="0">
       <filters blank="1">
-        <filter val="HT"/>
         <filter val="V"/>
       </filters>
     </filterColumn>
@@ -3026,23 +3024,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3094,7 +3092,7 @@
       <c r="D3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="51" t="s">
         <v>208</v>
       </c>
       <c r="F3" s="37" t="s">
@@ -3136,7 +3134,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3153,7 +3151,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3170,7 +3168,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
       <c r="B8" s="37" t="s">
         <v>72</v>
@@ -3208,7 +3206,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -3242,7 +3240,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -3276,7 +3274,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -3293,7 +3291,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -3487,7 +3485,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
         <v>107</v>
@@ -3506,7 +3504,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -3525,7 +3523,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>166</v>
@@ -3544,7 +3542,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>167</v>
@@ -3597,7 +3595,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>170</v>
@@ -3659,7 +3657,7 @@
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>174</v>
@@ -3732,7 +3730,7 @@
       <c r="D39" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="52" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3794,7 +3792,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>270</v>
       </c>
@@ -3805,7 +3803,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>271</v>
       </c>
@@ -3816,7 +3814,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>272</v>
       </c>
@@ -3827,13 +3825,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D48" s="27"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>274</v>
       </c>
@@ -3849,611 +3847,611 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="8" style="42" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="42"/>
-    <col min="6" max="6" width="5.85546875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="42"/>
-    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="8" style="41" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="41"/>
+    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="41"/>
+    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="42" t="s">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I3" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="I5" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="45"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="I5" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
-      <c r="I6" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
-      <c r="I7" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
-      <c r="I8" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
-      <c r="I9" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="I10" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
-      <c r="I11" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
-      <c r="I12" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
-      <c r="I13" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
-      <c r="I14" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="I15" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="I16" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
-      <c r="I17" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="I18" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
-      <c r="I19" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
-      <c r="I20" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
-      <c r="I21" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
-      <c r="I22" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
-      <c r="I23" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
-      <c r="I24" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="I25" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="I26" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="I27" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="I28" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="I29" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
-      <c r="I30" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="I31" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="I32" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="I33" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="I34" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="I35" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
-      <c r="I36" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
-      <c r="I37" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
-      <c r="I38" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
-      <c r="I39" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I40" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
-      <c r="I41" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
-      <c r="I42" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
-      <c r="I43" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="6"/>
-      <c r="I44" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
-      <c r="I45" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
-      <c r="I46" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
-      <c r="I47" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
-      <c r="I48" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
-      <c r="I49" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
-      <c r="I50" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
-      <c r="I51" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
-      <c r="I52" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
-      <c r="I53" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
-      <c r="I54" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
-      <c r="I55" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
-      <c r="I56" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
-      <c r="I57" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
-      <c r="I58" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
-      <c r="I59" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
-      <c r="I60" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
-      <c r="I61" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
-      <c r="I62" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
-      <c r="I63" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
-      <c r="I64" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I64" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="6"/>
-      <c r="I65" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
-      <c r="I66" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
-      <c r="I67" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I67" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
-      <c r="I68" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I68" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
-      <c r="I69" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
-      <c r="I70" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
-      <c r="I71" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
-      <c r="I72" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I72" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
-      <c r="I73" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
-      <c r="I74" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I74" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
-      <c r="I75" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
-      <c r="I76" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I76" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
-      <c r="I77" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="6"/>
-      <c r="I78" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="6"/>
-      <c r="I79" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="6"/>
-      <c r="I80" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I80" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="6"/>
-      <c r="I81" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I81" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="6"/>
-      <c r="I82" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I82" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="6"/>
-      <c r="I83" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I83" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="6"/>
-      <c r="I84" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I84" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="6"/>
-      <c r="I85" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I86" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="47"/>
-      <c r="I87" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="47"/>
-      <c r="I88" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I89" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="48"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="48"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="48"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="48"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="48"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="48"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="48"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="48"/>
+      <c r="I85" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I86" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="46"/>
+      <c r="I87" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="46"/>
+      <c r="I88" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I89" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="47"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="47"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="47"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="47"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="47"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="47"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="47"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1719,7 +1719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1730,8 +1730,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2972,6 +2972,9 @@
       <c r="E59" s="3" t="s">
         <v>284</v>
       </c>
+      <c r="G59">
+        <v>1072</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B60" s="1">
@@ -3010,7 +3013,7 @@
   </sheetData>
   <autoFilter ref="A7:G61">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="V"/>
       </filters>
     </filterColumn>
@@ -3734,7 +3737,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>265</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>266</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>267</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>268</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>269</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="45"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -3928,109 +3931,109 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="I6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
       <c r="I8" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
       <c r="I9" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DE96DC-A2D0-45E3-8AF2-4AE47CFF1E05}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$61</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="300">
   <si>
     <t>Issue No.</t>
   </si>
@@ -845,11 +851,6 @@
 CP,MV,RM should also be impacted</t>
   </si>
   <si>
-    <t>REN is a simple binting to ProDOS API: 
-syntax is : REN oldpath newpath
-if you want REN oldpath newNAME, it is an enhencement</t>
-  </si>
-  <si>
     <t>Beware of bad VBL emulation in Applewin
 should be flagged HT</t>
   </si>
@@ -1004,12 +1005,36 @@
   <si>
     <t>If a script is missing the bin/shell you now give a nice invalid BIN file message, but apple still locks up.</t>
   </si>
+  <si>
+    <t>For DNSINFO make a note that if you add a host with the command you can then add that host again with a different IP and it will update the IP.  Good Stuff.</t>
+  </si>
+  <si>
+    <t>Fixed, created BADSH to test.</t>
+  </si>
+  <si>
+    <t>Redirection</t>
+  </si>
+  <si>
+    <t>If you LS &gt; afile then CAT afile, you see VT100 escape codes buried in the file.  When doing redirection, TERM type should be set to a plain/stripped type so that these formatting codes do not appear in the file.  This would be the same if you were piping the output (say to a printer) you dont want VT100 codes going to a printer).</t>
+  </si>
+  <si>
+    <t>.93</t>
+  </si>
+  <si>
+    <t>May exist with VT100 codes, need to check</t>
+  </si>
+  <si>
+    <t>.95</t>
+  </si>
+  <si>
+    <t>.92</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,6 +1103,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1262,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1413,6 +1446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1719,34 +1753,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1761,7 +1795,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -1774,7 +1808,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>122</v>
@@ -1787,7 +1821,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -1800,12 +1834,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -1828,7 +1862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1849,7 +1883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1871,7 +1905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1893,7 +1927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2009,7 +2043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2077,7 +2111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2101,7 +2135,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2119,8 +2153,8 @@
         <v>31</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" t="s">
-        <v>28</v>
+      <c r="G20">
+        <v>0.93</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -2191,7 +2225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2209,8 +2243,8 @@
         <v>145</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" t="s">
-        <v>28</v>
+      <c r="G24">
+        <v>0.93</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -2258,7 +2292,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2278,8 +2312,8 @@
       <c r="F27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G27" t="s">
-        <v>28</v>
+      <c r="G27">
+        <v>0.93</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -2348,13 +2382,13 @@
         <v>117</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G30">
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2371,13 +2405,13 @@
       <c r="E31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
@@ -2393,10 +2427,10 @@
         <v>130</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
+        <v>280</v>
+      </c>
+      <c r="G32">
+        <v>0.93</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -2471,7 +2505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -2507,13 +2541,13 @@
         <v>189</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G37">
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2533,8 +2567,8 @@
       <c r="F38" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G38" t="s">
-        <v>28</v>
+      <c r="G38" s="54">
+        <v>0.92</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -2555,7 +2589,7 @@
         <v>214</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G39">
         <v>1050</v>
@@ -2582,7 +2616,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -2600,13 +2634,13 @@
         <v>231</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+      <c r="G41" s="54">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2626,8 +2660,8 @@
       <c r="F42" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G42" t="s">
-        <v>28</v>
+      <c r="G42">
+        <v>0.93</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2654,7 +2688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>122</v>
       </c>
@@ -2672,7 +2706,7 @@
         <v>220</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -2693,7 +2727,7 @@
         <v>221</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G45">
         <v>1050</v>
@@ -2747,7 +2781,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2764,8 +2798,11 @@
       <c r="E48" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2782,11 +2819,11 @@
       <c r="E49" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="G49" s="50" t="s">
-        <v>257</v>
+      <c r="F49" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="G49">
+        <v>0.93</v>
       </c>
       <c r="H49" t="s">
         <v>160</v>
@@ -2834,13 +2871,13 @@
         <v>247</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G51">
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -2854,6 +2891,9 @@
       <c r="E52" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="G52">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -2873,9 +2913,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2891,16 +2931,13 @@
         <v>246</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="G54">
-        <v>1071</v>
+        <v>285</v>
       </c>
       <c r="H54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>147</v>
@@ -2912,10 +2949,13 @@
         <v>1069</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+      <c r="G55">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>148</v>
@@ -2927,10 +2967,13 @@
         <v>1069</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+      <c r="G56">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -2942,10 +2985,13 @@
         <v>1069</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+      <c r="G57">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>150</v>
       </c>
@@ -2956,10 +3002,16 @@
         <v>1069</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+      <c r="G58">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B59" s="1">
         <v>151</v>
       </c>
@@ -2970,30 +3022,36 @@
         <v>1069</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G59">
         <v>1072</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B60" s="1">
         <v>152</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D60" s="2">
         <v>1069</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G60">
         <v>1071</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B61" s="1">
         <v>153</v>
       </c>
@@ -3004,14 +3062,34 @@
         <v>1069</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="G61">
         <v>1071</v>
       </c>
     </row>
+    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>154</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1072</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62">
+        <v>0.93</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:G61">
+  <autoFilter ref="A7:G61" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="V"/>
@@ -3027,23 +3105,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3086,7 +3164,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
         <v>43</v>
@@ -3137,7 +3215,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3154,7 +3232,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3171,7 +3249,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="37" t="s">
         <v>72</v>
@@ -3185,7 +3263,9 @@
       <c r="E8" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>297</v>
+      </c>
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -3209,7 +3289,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -3221,7 +3301,7 @@
         <v>79</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
@@ -3238,12 +3318,12 @@
         <v>82</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -3255,7 +3335,7 @@
         <v>85</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -3272,12 +3352,12 @@
         <v>89</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -3289,12 +3369,12 @@
         <v>92</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -3306,7 +3386,7 @@
         <v>95</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -3328,7 +3408,7 @@
         <v>208</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G16" s="37"/>
     </row>
@@ -3344,7 +3424,7 @@
         <v>111</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -3382,7 +3462,7 @@
         <v>114</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>211</v>
@@ -3401,7 +3481,7 @@
         <v>128</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>202</v>
@@ -3420,7 +3500,7 @@
         <v>238</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -3446,7 +3526,7 @@
       </c>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>46</v>
       </c>
@@ -3488,7 +3568,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
         <v>107</v>
@@ -3500,14 +3580,14 @@
         <v>163</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F25" s="37" t="s">
         <v>164</v>
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -3519,14 +3599,14 @@
         <v>178</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F26" s="37" t="s">
         <v>209</v>
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>166</v>
@@ -3538,14 +3618,14 @@
         <v>180</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>212</v>
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>167</v>
@@ -3557,7 +3637,7 @@
         <v>182</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="F28" s="37" t="s">
         <v>164</v>
@@ -3594,11 +3674,13 @@
       <c r="D30" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="38"/>
+      <c r="E30" s="38" t="s">
+        <v>298</v>
+      </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>170</v>
@@ -3609,7 +3691,9 @@
       <c r="D31" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="38" t="s">
+        <v>299</v>
+      </c>
       <c r="F31" s="37" t="s">
         <v>195</v>
       </c>
@@ -3641,7 +3725,9 @@
       <c r="D33" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="E33" s="38"/>
+      <c r="E33" s="38" t="s">
+        <v>296</v>
+      </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
     </row>
@@ -3656,11 +3742,13 @@
       <c r="D34" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="E34" s="38"/>
+      <c r="E34" s="38" t="s">
+        <v>296</v>
+      </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>174</v>
@@ -3671,7 +3759,9 @@
       <c r="D35" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="38"/>
+      <c r="E35" s="38" t="s">
+        <v>296</v>
+      </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
     </row>
@@ -3681,12 +3771,14 @@
         <v>175</v>
       </c>
       <c r="C36" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="E36" s="38"/>
+      <c r="E36" s="38" t="s">
+        <v>296</v>
+      </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
     </row>
@@ -3696,12 +3788,14 @@
         <v>176</v>
       </c>
       <c r="C37" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="D37" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="E37" s="38"/>
+      <c r="E37" s="38" t="s">
+        <v>296</v>
+      </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
     </row>
@@ -3714,9 +3808,11 @@
         <v>157</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="E38" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>296</v>
+      </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
     </row>
@@ -3725,24 +3821,27 @@
         <v>53</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F39" s="52" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B40" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>197</v>
@@ -3751,9 +3850,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
@@ -3761,82 +3860,114 @@
       <c r="D41" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="E41" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="E42" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E43" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D44" s="27" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E44" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E45" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B47" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="C47" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E47" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="D48" s="27"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="D49" s="27"/>
     </row>
@@ -3850,34 +3981,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="41"/>
-    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="41"/>
-    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="41"/>
+    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="41"/>
+    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="41"/>
+    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -3889,12 +4020,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I3" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
@@ -3920,7 +4051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -3931,529 +4062,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="I6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="I8" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="I9" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="46"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="46"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="47"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="47"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="47"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="47"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="47"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="47"/>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DE96DC-A2D0-45E3-8AF2-4AE47CFF1E05}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,10 @@
     <sheet name="Commands" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$49</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="298">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1018,22 +1013,16 @@
     <t>If you LS &gt; afile then CAT afile, you see VT100 escape codes buried in the file.  When doing redirection, TERM type should be set to a plain/stripped type so that these formatting codes do not appear in the file.  This would be the same if you were piping the output (say to a printer) you dont want VT100 codes going to a printer).</t>
   </si>
   <si>
-    <t>.93</t>
-  </si>
-  <si>
     <t>May exist with VT100 codes, need to check</t>
   </si>
   <si>
     <t>.95</t>
-  </si>
-  <si>
-    <t>.92</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1443,10 +1432,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1753,22 +1742,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
@@ -2135,7 +2124,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2225,7 +2214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2292,7 +2281,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2388,7 +2377,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2409,7 +2398,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2567,7 +2556,7 @@
       <c r="F38" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="54">
+      <c r="G38" s="53">
         <v>0.92</v>
       </c>
     </row>
@@ -2636,11 +2625,11 @@
       <c r="F41" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G41" s="54">
+      <c r="G41" s="53">
         <v>0.92</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2781,7 +2770,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2802,7 +2791,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2877,7 +2866,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -2913,7 +2902,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>46</v>
       </c>
@@ -2937,7 +2926,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>147</v>
@@ -2955,7 +2944,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>148</v>
@@ -2973,7 +2962,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -2991,7 +2980,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>150</v>
       </c>
@@ -3008,7 +2997,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -3028,7 +3017,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
@@ -3048,7 +3037,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -3071,7 +3060,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>154</v>
       </c>
@@ -3089,10 +3078,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G61" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:G62">
     <filterColumn colId="0">
       <filters>
         <filter val="V"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters blank="1">
+        <filter val="0,92"/>
+        <filter val="1071"/>
+        <filter val="1072"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3105,14 +3101,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
@@ -3147,7 +3144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
         <v>42</v>
@@ -3179,9 +3176,11 @@
       <c r="F3" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="G3" s="37">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="37" t="s">
         <v>44</v>
@@ -3198,7 +3197,7 @@
       </c>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="37" t="s">
         <v>64</v>
@@ -3215,7 +3214,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3264,7 +3263,7 @@
         <v>45</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G8" s="37"/>
     </row>
@@ -3289,7 +3288,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -3301,12 +3300,12 @@
         <v>79</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="37" t="s">
         <v>80</v>
@@ -3318,12 +3317,12 @@
         <v>82</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -3335,12 +3334,12 @@
         <v>85</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="37" t="s">
         <v>87</v>
@@ -3352,12 +3351,12 @@
         <v>89</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>298</v>
+        <v>142</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -3369,12 +3368,12 @@
         <v>92</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -3386,7 +3385,7 @@
         <v>95</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -3412,7 +3411,7 @@
       </c>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="37" t="s">
         <v>99</v>
@@ -3424,7 +3423,7 @@
         <v>111</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -3450,7 +3449,7 @@
       </c>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="37" t="s">
         <v>101</v>
@@ -3462,7 +3461,7 @@
         <v>114</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>211</v>
@@ -3481,14 +3480,14 @@
         <v>128</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>202</v>
       </c>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="37" t="s">
         <v>103</v>
@@ -3500,7 +3499,7 @@
         <v>238</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -3568,7 +3567,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
         <v>107</v>
@@ -3580,14 +3579,14 @@
         <v>163</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F25" s="37" t="s">
         <v>164</v>
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -3599,14 +3598,14 @@
         <v>178</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F26" s="37" t="s">
         <v>209</v>
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>166</v>
@@ -3618,7 +3617,7 @@
         <v>180</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>212</v>
@@ -3637,14 +3636,14 @@
         <v>182</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="F28" s="37" t="s">
         <v>164</v>
       </c>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="37" t="s">
         <v>168</v>
@@ -3663,7 +3662,7 @@
       </c>
       <c r="G29" s="37"/>
     </row>
-    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="37" t="s">
         <v>169</v>
@@ -3675,7 +3674,7 @@
         <v>191</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -3692,7 +3691,7 @@
         <v>194</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="F31" s="37" t="s">
         <v>195</v>
@@ -3714,7 +3713,7 @@
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
     </row>
-    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="37" t="s">
         <v>172</v>
@@ -3726,12 +3725,12 @@
         <v>228</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
     </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
         <v>173</v>
@@ -3743,12 +3742,12 @@
         <v>219</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>174</v>
@@ -3760,12 +3759,12 @@
         <v>245</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
     </row>
-    <row r="36" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
         <v>175</v>
@@ -3777,12 +3776,12 @@
         <v>258</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="37" t="s">
         <v>176</v>
@@ -3794,12 +3793,12 @@
         <v>260</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
     </row>
-    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="37" t="s">
         <v>177</v>
@@ -3811,7 +3810,7 @@
         <v>261</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -3829,8 +3828,8 @@
       <c r="D39" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>299</v>
+      <c r="E39" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="F39" s="52" t="s">
         <v>284</v>
@@ -3850,7 +3849,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>265</v>
       </c>
@@ -3860,8 +3859,8 @@
       <c r="D41" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>296</v>
+      <c r="E41" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -3874,8 +3873,8 @@
       <c r="D42" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>299</v>
+      <c r="E42" s="38" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3888,8 +3887,8 @@
       <c r="D43" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>299</v>
+      <c r="E43" s="38" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3902,8 +3901,8 @@
       <c r="D44" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>299</v>
+      <c r="E44" s="38" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3916,8 +3915,8 @@
       <c r="D45" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>299</v>
+      <c r="E45" s="38" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3930,8 +3929,8 @@
       <c r="D46" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>299</v>
+      <c r="E46" s="38" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3944,8 +3943,8 @@
       <c r="D47" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>299</v>
+      <c r="E47" s="38" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3958,8 +3957,8 @@
       <c r="D48" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>299</v>
+      <c r="E48" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>195</v>
@@ -3972,6 +3971,14 @@
       <c r="D49" s="27"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G49">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="0,92"/>
+        <filter val="0.92"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -3981,14 +3988,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
@@ -4007,15 +4014,15 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="41" t="s">
         <v>28</v>
       </c>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A097CC-019C-4DBD-90B2-DADD19A2DD8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -12,10 +18,10 @@
     <sheet name="Commands" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$49</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="310">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1018,11 +1024,47 @@
   <si>
     <t>.95</t>
   </si>
+  <si>
+    <t>If you do REN without arguments you get a [$C0] Script Syntax Error.  This is not a script.  Maybe its issuing the wrong error code.</t>
+  </si>
+  <si>
+    <t>MV Dir1 Dir2  results in 0 Files Moved.  I tried full path names, paths with and with out beg/end /</t>
+  </si>
+  <si>
+    <t>The Quit option on more only responds to "Q" being pressed, it should also quit on lcase "q".</t>
+  </si>
+  <si>
+    <t>Now MORE doesn’t process the \f \n\n type things, I just started to write MANPAGES based on this.  Is this a bug or decide to change MORE?</t>
+  </si>
+  <si>
+    <t>TELNETD</t>
+  </si>
+  <si>
+    <t>When you load TELNETD and then do a login a message appears on main user screen about incoming connection.  This message should go to the OA-2 screen, not the OA-1 one.</t>
+  </si>
+  <si>
+    <t>If you have both a local and telnetd session going, you start getting out of mem errors and other strange behavior (like try doing a long LS -R in one session and while going do a LS in the other).</t>
+  </si>
+  <si>
+    <t>LS -R</t>
+  </si>
+  <si>
+    <t>LS -R is displaying contents and doing recursion in the order the filenames/dirs occur in prodos, this is really hard to file.  The recursion on Dirs should happen first and then the files in that DIR should be showed.</t>
+  </si>
+  <si>
+    <t>At a minimum we should remove TELNETD startup from NET.</t>
+  </si>
+  <si>
+    <t>String Tests All Fail, see new IFSTRTEST</t>
+  </si>
+  <si>
+    <t>Was editing script, did a number of mark block copy and paste, after 5-6 EDIT crashed with hMem error.  Came back later and did large Block B/E and Ctrl-D and EDIT crashed with Hmem error.  3rd Reboot, edit file and deleted multiple lines (10+) with Ctrl-W and EDIT went bat shit crazy then locked.  Went to close AWin and PC Crashed hard.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1742,22 +1784,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
@@ -2124,7 +2166,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2214,7 +2256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2281,7 +2323,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2377,7 +2419,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2629,7 +2671,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2770,7 +2812,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2791,7 +2833,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2866,7 +2908,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -2926,7 +2968,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>147</v>
@@ -2944,7 +2986,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>148</v>
@@ -2962,7 +3004,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -2980,7 +3022,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>150</v>
       </c>
@@ -3060,7 +3102,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>154</v>
       </c>
@@ -3077,18 +3119,140 @@
         <v>0.93</v>
       </c>
     </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>155</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1075</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>156</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1075</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>157</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1075</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>158</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1075</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>159</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1075</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>160</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1075</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>161</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1075</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>162</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1075</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>163</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1075</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:G62">
+  <autoFilter ref="A7:G71" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
-      <filters>
+      <filters blank="1">
         <filter val="V"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="0,92"/>
-        <filter val="1071"/>
-        <filter val="1072"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3101,15 +3265,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
@@ -3231,7 +3395,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3267,7 +3431,7 @@
       </c>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>46</v>
       </c>
@@ -3390,7 +3554,7 @@
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>46</v>
       </c>
@@ -3428,7 +3592,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>46</v>
       </c>
@@ -3504,7 +3668,7 @@
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
@@ -3525,7 +3689,7 @@
       </c>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>46</v>
       </c>
@@ -3544,7 +3708,7 @@
       </c>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>46</v>
       </c>
@@ -3971,7 +4135,12 @@
       <c r="D49" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G49">
+  <autoFilter ref="A1:G49" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="V"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="0,92"/>
@@ -3988,14 +4157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A097CC-019C-4DBD-90B2-DADD19A2DD8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$49</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="313">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1019,9 +1013,6 @@
     <t>If you LS &gt; afile then CAT afile, you see VT100 escape codes buried in the file.  When doing redirection, TERM type should be set to a plain/stripped type so that these formatting codes do not appear in the file.  This would be the same if you were piping the output (say to a printer) you dont want VT100 codes going to a printer).</t>
   </si>
   <si>
-    <t>May exist with VT100 codes, need to check</t>
-  </si>
-  <si>
     <t>.95</t>
   </si>
   <si>
@@ -1059,12 +1050,31 @@
   </si>
   <si>
     <t>Was editing script, did a number of mark block copy and paste, after 5-6 EDIT crashed with hMem error.  Came back later and did large Block B/E and Ctrl-D and EDIT crashed with Hmem error.  3rd Reboot, edit file and deleted multiple lines (10+) with Ctrl-W and EDIT went bat shit crazy then locked.  Went to close AWin and PC Crashed hard.</t>
+  </si>
+  <si>
+    <t>ECHO -N "blah blah" suppress ending CR/LF
+ECHO -N "blah blah\r" move cursor back to beginning of line
+ECHO "\e[10;33Htest" prints "test at line 10, row 33</t>
+  </si>
+  <si>
+    <t>Ehnancement</t>
+  </si>
+  <si>
+    <t>MV -R is required to cp/mv/rm DIRs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designed to run as a daemon under PS0 (kernel)
+Output to PS StdOut, so SYS screen for PS0
+should be launched as :
+TELNETD &amp; 
+1&gt; ${ROOT}/VAR/LOG/TELNETD.LOG 
+2&gt; ${ROOT}/VAR/LOG/TELNETD.ERR </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1784,34 +1794,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1826,7 +1836,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -1839,7 +1849,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>122</v>
@@ -1852,7 +1862,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -1865,12 +1875,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -1893,7 +1903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1914,7 +1924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1958,7 +1968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2074,7 +2084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2142,7 +2152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2166,7 +2176,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2256,7 +2266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2323,7 +2333,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2419,7 +2429,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2578,7 +2588,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2647,7 +2657,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -2671,7 +2681,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2812,7 +2822,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2833,7 +2843,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2908,7 +2918,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -2968,7 +2978,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>147</v>
@@ -2979,14 +2989,14 @@
       <c r="D55" s="2">
         <v>1069</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="39" t="s">
         <v>276</v>
       </c>
       <c r="G55">
         <v>0.92</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>148</v>
@@ -3001,10 +3011,10 @@
         <v>277</v>
       </c>
       <c r="G56">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -3015,14 +3025,14 @@
       <c r="D57" s="2">
         <v>1069</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="39" t="s">
         <v>278</v>
       </c>
       <c r="G57">
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B58" s="1">
         <v>150</v>
       </c>
@@ -3036,7 +3046,7 @@
         <v>279</v>
       </c>
       <c r="G58">
-        <v>0.92</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -3102,7 +3112,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1">
         <v>154</v>
       </c>
@@ -3119,7 +3129,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B63" s="1">
         <v>155</v>
       </c>
@@ -3130,10 +3140,13 @@
         <v>1075</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="G63">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1">
         <v>156</v>
       </c>
@@ -3144,10 +3157,16 @@
         <v>1075</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B65" s="1">
         <v>157</v>
       </c>
@@ -3158,10 +3177,13 @@
         <v>1075</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="G65">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B66" s="1">
         <v>158</v>
       </c>
@@ -3172,55 +3194,67 @@
         <v>1075</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="G66">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="116" x14ac:dyDescent="0.35">
       <c r="B67" s="1">
         <v>159</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D67" s="2">
         <v>1075</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
         <v>160</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D68" s="2">
         <v>1075</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1">
         <v>161</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D69" s="2">
         <v>1075</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="1">
         <v>162</v>
       </c>
@@ -3231,10 +3265,13 @@
         <v>1075</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="G70">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B71" s="1">
         <v>163</v>
       </c>
@@ -3244,15 +3281,21 @@
       <c r="D71" s="2">
         <v>1075</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>309</v>
+      <c r="E71" s="39" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G71" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:G71">
     <filterColumn colId="0">
+      <filters>
+        <filter val="V"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
       <filters blank="1">
-        <filter val="V"/>
+        <filter val="0,92"/>
+        <filter val="1078"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3265,24 +3308,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3378,7 +3421,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3395,7 +3438,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3412,7 +3455,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
       <c r="B8" s="37" t="s">
         <v>72</v>
@@ -3427,9 +3470,11 @@
         <v>45</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="G8" s="37"/>
+        <v>309</v>
+      </c>
+      <c r="G8" s="37">
+        <v>1078</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
@@ -3452,7 +3497,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -3486,7 +3531,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -3520,7 +3565,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -3537,7 +3582,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -3731,7 +3776,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
         <v>107</v>
@@ -3788,7 +3833,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>167</v>
@@ -3838,12 +3883,12 @@
         <v>191</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>170</v>
@@ -3911,7 +3956,7 @@
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>174</v>
@@ -3979,7 +4024,7 @@
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>53</v>
       </c>
@@ -3997,6 +4042,9 @@
       </c>
       <c r="F39" s="52" t="s">
         <v>284</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1078</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4069,7 +4117,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>269</v>
       </c>
@@ -4128,16 +4176,16 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D49" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G49" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:G49">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="V"/>
       </filters>
     </filterColumn>
@@ -4157,27 +4205,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="41"/>
-    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="41"/>
-    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="41"/>
+    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="41"/>
+    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="41"/>
+    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
@@ -4196,12 +4244,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I3" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
@@ -4227,7 +4275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -4238,529 +4286,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="I6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="I8" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="I9" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="6"/>
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" s="46"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" s="46"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B96" s="47"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="47"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="47"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="47"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="47"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="47"/>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="313">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1157,7 +1157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1179,6 +1179,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1486,6 +1504,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1794,7 +1822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1806,7 +1834,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2602,7 +2630,7 @@
       <c r="D38" s="2">
         <v>1034</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="57" t="s">
         <v>234</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2677,8 +2705,8 @@
       <c r="F41" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G41" s="53">
-        <v>0.92</v>
+      <c r="G41" s="56">
+        <v>1079</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -2992,8 +3020,8 @@
       <c r="E55" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="G55">
-        <v>0.92</v>
+      <c r="G55" s="56">
+        <v>1079</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -3025,7 +3053,7 @@
       <c r="D57" s="2">
         <v>1069</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="55" t="s">
         <v>278</v>
       </c>
       <c r="G57">
@@ -3216,6 +3244,9 @@
       <c r="F67" s="3" t="s">
         <v>312</v>
       </c>
+      <c r="G67" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="68" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
@@ -3227,7 +3258,7 @@
       <c r="D68" s="2">
         <v>1075</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="58" t="s">
         <v>303</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -3281,7 +3312,7 @@
       <c r="D71" s="2">
         <v>1075</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="55" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3677,7 +3708,7 @@
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
         <v>102</v>
@@ -3833,7 +3864,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>167</v>
@@ -3888,7 +3919,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>170</v>
@@ -3907,7 +3938,7 @@
       </c>
       <c r="G31" s="37"/>
     </row>
-    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A32" s="36"/>
       <c r="B32" s="37" t="s">
         <v>171</v>
@@ -4047,7 +4078,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>264</v>
       </c>
@@ -4075,7 +4106,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>266</v>
       </c>
@@ -4089,7 +4120,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>267</v>
       </c>
@@ -4103,7 +4134,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>268</v>
       </c>
@@ -4117,7 +4148,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>269</v>
       </c>
@@ -4131,7 +4162,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>270</v>
       </c>
@@ -4145,7 +4176,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>271</v>
       </c>
@@ -4159,7 +4190,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>272</v>
       </c>
@@ -4176,7 +4207,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>273</v>
       </c>
@@ -4275,7 +4306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="45"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -4286,109 +4317,109 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="I6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
       <c r="I8" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
       <c r="I9" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16EA3FB-77CF-46AD-8640-BCAF4568A212}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$49</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="327">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1070,11 +1076,53 @@
 1&gt; ${ROOT}/VAR/LOG/TELNETD.LOG 
 2&gt; ${ROOT}/VAR/LOG/TELNETD.ERR </t>
   </si>
+  <si>
+    <t>Editing comand line, Ctrl-X deletes rest of line, Ctrl-C clear line but keep in history, hist is 256 bytes</t>
+  </si>
+  <si>
+    <t>S0049</t>
+  </si>
+  <si>
+    <t>Add the ability to parse substrings ${VAR:12:22}.  This will likely also require a LEN($VAR) command.</t>
+  </si>
+  <si>
+    <t>S0050</t>
+  </si>
+  <si>
+    <t>S0051</t>
+  </si>
+  <si>
+    <t>S0052</t>
+  </si>
+  <si>
+    <t>S0053</t>
+  </si>
+  <si>
+    <t>S0054</t>
+  </si>
+  <si>
+    <t>S0055</t>
+  </si>
+  <si>
+    <t>Add a way to ECHO "something" with no CR/LF, so that the next ECHO "else" will put on screen "somethingelse".  There are many uses like Displaying "Test IF LT: " and then after test run "Pass or Fail" on same line.  Or if processing large loop, can ECHO "."; and have dots appear for each loop run.</t>
+  </si>
+  <si>
+    <t>If you are running a long script (IFNUMTEST) and press Ctrl-S to pause output you get [$80} Unknown Error in the script, and you have to press return to continue the script.</t>
+  </si>
+  <si>
+    <t>EDIT longfile.  Down arrow 5 or 6 times, hit Ctrl-P to page down, the top 5-6 lines get blanked and cursor goes bottom.  If you Ctrl-O/P at top/bttm screen its ok</t>
+  </si>
+  <si>
+    <t>IF Numerics</t>
+  </si>
+  <si>
+    <t>Several Tests failing, see new IFNUMTEST tests 4 8 9 12 and 14</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1503,9 +1551,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1514,6 +1559,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1822,34 +1870,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1864,7 +1912,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -1877,7 +1925,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>122</v>
@@ -1890,7 +1938,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -1903,12 +1951,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -1931,7 +1979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +2000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1974,7 +2022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1996,7 +2044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2112,7 +2160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2180,7 +2228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2204,7 +2252,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2616,7 +2664,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2630,7 +2678,7 @@
       <c r="D38" s="2">
         <v>1034</v>
       </c>
-      <c r="E38" s="57" t="s">
+      <c r="E38" s="56" t="s">
         <v>234</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2685,7 +2733,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -2705,11 +2753,11 @@
       <c r="F41" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G41" s="55">
         <v>1079</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2850,7 +2898,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2871,7 +2919,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2946,7 +2994,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -3006,7 +3054,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>147</v>
@@ -3020,11 +3071,14 @@
       <c r="E55" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="G55" s="56">
+      <c r="G55" s="55">
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>148</v>
@@ -3042,7 +3096,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -3053,14 +3107,17 @@
       <c r="D57" s="2">
         <v>1069</v>
       </c>
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="54" t="s">
         <v>278</v>
       </c>
       <c r="G57">
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B58" s="1">
         <v>150</v>
       </c>
@@ -3140,7 +3197,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>154</v>
       </c>
@@ -3157,7 +3214,10 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B63" s="1">
         <v>155</v>
       </c>
@@ -3174,7 +3234,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>156</v>
       </c>
@@ -3194,7 +3254,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B65" s="1">
         <v>157</v>
       </c>
@@ -3211,7 +3274,10 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B66" s="1">
         <v>158</v>
       </c>
@@ -3228,7 +3294,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>159</v>
       </c>
@@ -3248,7 +3314,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>160</v>
       </c>
@@ -3258,14 +3324,14 @@
       <c r="D68" s="2">
         <v>1075</v>
       </c>
-      <c r="E68" s="58" t="s">
+      <c r="E68" s="57" t="s">
         <v>303</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>161</v>
       </c>
@@ -3285,7 +3351,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B70" s="1">
         <v>162</v>
       </c>
@@ -3302,7 +3371,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>163</v>
       </c>
@@ -3312,12 +3381,54 @@
       <c r="D71" s="2">
         <v>1075</v>
       </c>
-      <c r="E71" s="55" t="s">
+      <c r="E71" s="54" t="s">
         <v>308</v>
       </c>
     </row>
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>164</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1079</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>165</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1079</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>166</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1079</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:G71">
+  <autoFilter ref="A7:G71" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="V"/>
@@ -3339,24 +3450,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3452,7 +3563,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3469,7 +3580,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3486,7 +3597,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="37" t="s">
         <v>72</v>
@@ -3528,7 +3639,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -3562,7 +3673,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -3596,7 +3707,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -3613,7 +3724,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -3708,7 +3819,7 @@
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
         <v>102</v>
@@ -3807,7 +3918,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
         <v>107</v>
@@ -3864,7 +3975,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>167</v>
@@ -3919,7 +4030,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>170</v>
@@ -3938,7 +4049,7 @@
       </c>
       <c r="G31" s="37"/>
     </row>
-    <row r="32" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="37" t="s">
         <v>171</v>
@@ -3987,7 +4098,7 @@
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>174</v>
@@ -4055,7 +4166,7 @@
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>53</v>
       </c>
@@ -4078,7 +4189,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>264</v>
       </c>
@@ -4106,7 +4217,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>266</v>
       </c>
@@ -4120,7 +4231,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>267</v>
       </c>
@@ -4134,7 +4245,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>268</v>
       </c>
@@ -4148,7 +4259,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>269</v>
       </c>
@@ -4162,7 +4273,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>270</v>
       </c>
@@ -4176,7 +4287,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>271</v>
       </c>
@@ -4190,7 +4301,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>272</v>
       </c>
@@ -4207,14 +4318,66 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D49" s="27"/>
+      <c r="C49" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>321</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G49">
+  <autoFilter ref="A1:G49" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="V"/>
@@ -4236,51 +4399,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="41"/>
-    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="41"/>
-    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="41"/>
+    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="41"/>
+    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="41"/>
+    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I3" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
@@ -4306,7 +4469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -4317,529 +4480,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="I6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="I8" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="I9" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="46"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="46"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="47"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="47"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="47"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="47"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="47"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="47"/>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16EA3FB-77CF-46AD-8640-BCAF4568A212}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA2519E-6417-4F7D-8DC8-3082F9169171}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Commands" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$56</definedName>
   </definedNames>
   <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="337">
   <si>
     <t>Issue No.</t>
   </si>
@@ -457,12 +457,6 @@
   </si>
   <si>
     <t>Exiting shell (Ctrl-D) then relog in puts you in a nomans land for CD/PWD and then gives FreeMem error.</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>0.93</t>
   </si>
   <si>
     <t>A2OSX.SRC is FULL
@@ -556,9 +550,6 @@
     <t>MAN</t>
   </si>
   <si>
-    <t>Need a product specification for V1.0 and V2.0 of MAN system.</t>
-  </si>
-  <si>
     <t>Assign to PK</t>
   </si>
   <si>
@@ -683,18 +674,12 @@
   </si>
   <si>
     <t>GH #35</t>
-  </si>
-  <si>
-    <t>0,93</t>
   </si>
   <si>
     <t>SHELL will handle SYS files, calling API shutown with arg=.SYS file
 this will pass .SYS file to A2osX QC</t>
   </si>
   <si>
-    <t>0,92</t>
-  </si>
-  <si>
     <t>my son did it ! Coming soon…</t>
   </si>
   <si>
@@ -708,9 +693,6 @@
 Same for "FNT": A2osX bitmap font format </t>
   </si>
   <si>
-    <t>REN works with file dir, and volume</t>
-  </si>
-  <si>
     <t>On a Linux host, if you are doing something that productes a lot of output (ls -l /usr/bin or ps -ef) there are times of noticable pauses and they grow longer and longer.  And in Linux if you want to abort the command and get back to prompt its Ctrl-C, which aborts TELNET (its handled locally rather than passed to session).  For Telnet you should pass Ctrl-C then have another abort key or sequence (maybe Escape Ctrl-C).</t>
   </si>
   <si>
@@ -721,9 +703,6 @@
   </si>
   <si>
     <t>PAUSE should accept any keystroke to continue not just return.</t>
-  </si>
-  <si>
-    <t>Planned 0.93 or after.</t>
   </si>
   <si>
     <t>MD5 should return its result in all lowercase (as do most other MD5 utils/sites).</t>
@@ -866,9 +845,6 @@
     <t>$PWD always reset to $HOME</t>
   </si>
   <si>
-    <t>Change name to RV or MV</t>
-  </si>
-  <si>
     <t>COMP</t>
   </si>
   <si>
@@ -1019,9 +995,6 @@
     <t>If you LS &gt; afile then CAT afile, you see VT100 escape codes buried in the file.  When doing redirection, TERM type should be set to a plain/stripped type so that these formatting codes do not appear in the file.  This would be the same if you were piping the output (say to a printer) you dont want VT100 codes going to a printer).</t>
   </si>
   <si>
-    <t>.95</t>
-  </si>
-  <si>
     <t>If you do REN without arguments you get a [$C0] Script Syntax Error.  This is not a script.  Maybe its issuing the wrong error code.</t>
   </si>
   <si>
@@ -1061,9 +1034,6 @@
     <t>ECHO -N "blah blah" suppress ending CR/LF
 ECHO -N "blah blah\r" move cursor back to beginning of line
 ECHO "\e[10;33Htest" prints "test at line 10, row 33</t>
-  </si>
-  <si>
-    <t>Ehnancement</t>
   </si>
   <si>
     <t>MV -R is required to cp/mv/rm DIRs</t>
@@ -1077,9 +1047,6 @@
 2&gt; ${ROOT}/VAR/LOG/TELNETD.ERR </t>
   </si>
   <si>
-    <t>Editing comand line, Ctrl-X deletes rest of line, Ctrl-C clear line but keep in history, hist is 256 bytes</t>
-  </si>
-  <si>
     <t>S0049</t>
   </si>
   <si>
@@ -1117,6 +1084,69 @@
   </si>
   <si>
     <t>Several Tests failing, see new IFNUMTEST tests 4 8 9 12 and 14</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Extend Exit command in scripts to support a return code.</t>
+  </si>
+  <si>
+    <t>See http://wiki.bash-hackers.org/scripting/terminalcodes</t>
+  </si>
+  <si>
+    <t>Need a product specification for V1.0 and V2.0 of MAN system. A special MAN program that does page up and down and does hyperlinks (tab) and HyperCard Like behaviors.</t>
+  </si>
+  <si>
+    <t>File Structure/Layout, what files go where, HOME, USR/BIN</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>Write up idea for RAM3/Cache/Bin thing at startup</t>
+  </si>
+  <si>
+    <t>ECHO -N</t>
+  </si>
+  <si>
+    <t>Change name to RV or MV.  This is also a document error, README.MD needs to be updated so say REN only works on vol names.</t>
+  </si>
+  <si>
+    <t>When you Ctrl-S save, it prompts for filename and you press return to save, after it saves your cursor is moved down one line, like you pressed down arrow.</t>
+  </si>
+  <si>
+    <t>If you Ctrl-W to delete 2 lines in a row it erases the wrong row.  If you are on row 2, and ctrl-w twice it first erases 2 and then it erases 1 instead of the new 2 (which is the old 3).  Its not always, it may have to do with if you are at the end of the line when doing deletes or have added below and moved back up in file.  I will try to get exact keystrokes to reproduce.</t>
+  </si>
+  <si>
+    <t>add support for \a bell, \t tab, \v vtab, \r CR and I would not mind a \p14:22 thing that is a short code for position cursor to line 14 col 22</t>
+  </si>
+  <si>
+    <t>VTTEST if you run it, error occurs because of ; in the VT100 code (valid code), if you MORE the file it processes the code correctly, but running the script causes error. VTTEST2 tries other codes too that do not seem to work.</t>
+  </si>
+  <si>
+    <t>I need to understand what codes work for CONSOLE.DRV so I can document for developers and script writers.</t>
+  </si>
+  <si>
+    <t>No longer locks without Arg.</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
+    <t>REN works with VOL</t>
+  </si>
+  <si>
+    <t>Editing comand line, Ctrl-X is destrcutive BS, Ctrl-C clear line but keep in history, hist is 256 bytes</t>
+  </si>
+  <si>
+    <t>EXIT Arg</t>
+  </si>
+  <si>
+    <t>When you do EXIT 20 in a script, the script then gives yuou a Line #xx:[$14] Unknown Error (14 being Hex for 20).  The script should not through the error, but rather return it to called script that can be evaluating $?.  See RCTEST, RCSUB1 and RCSUB2</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1544,9 +1574,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1563,6 +1590,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1878,11 +1920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A73" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,7 +2020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2000,7 +2041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2022,7 +2063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -2044,7 +2085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2068,7 +2109,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -2092,7 +2133,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -2116,7 +2157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2138,7 +2179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2156,11 +2197,8 @@
         <v>20</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2182,7 +2220,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2206,7 +2244,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -2228,7 +2266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2246,13 +2284,13 @@
         <v>32</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G19">
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2274,7 +2312,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2296,7 +2334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2318,7 +2356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2336,13 +2374,13 @@
         <v>48</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2357,14 +2395,14 @@
         <v>1016</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24">
         <v>0.93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2388,7 +2426,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2409,7 +2447,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2433,7 +2471,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2457,7 +2495,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2481,7 +2519,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -2499,13 +2537,13 @@
         <v>117</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G30">
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2526,7 +2564,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2544,13 +2582,13 @@
         <v>130</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G32">
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2568,13 +2606,13 @@
         <v>136</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -2592,13 +2630,13 @@
         <v>140</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -2607,22 +2645,22 @@
         <v>127</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D35" s="2">
         <v>1034</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -2631,16 +2669,16 @@
         <v>128</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2655,10 +2693,10 @@
         <v>1034</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G37">
         <v>1039</v>
@@ -2673,22 +2711,22 @@
         <v>130</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D38" s="2">
         <v>1034</v>
       </c>
-      <c r="E38" s="56" t="s">
-        <v>234</v>
+      <c r="E38" s="55" t="s">
+        <v>227</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G38" s="53">
+        <v>202</v>
+      </c>
+      <c r="G38" s="52">
         <v>0.92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -2703,16 +2741,16 @@
         <v>1037</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G39">
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -2721,13 +2759,13 @@
         <v>132</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D40" s="2">
         <v>1037</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G40">
         <v>1047</v>
@@ -2735,29 +2773,29 @@
     </row>
     <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D41" s="2">
         <v>1047</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G41" s="55">
+        <v>274</v>
+      </c>
+      <c r="G41" s="54">
         <v>1079</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2766,22 +2804,19 @@
         <v>134</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2">
         <v>1047</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G42">
         <v>0.93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2796,16 +2831,16 @@
         <v>1047</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>122</v>
       </c>
@@ -2820,13 +2855,13 @@
         <v>1047</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
@@ -2835,22 +2870,22 @@
         <v>137</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D45" s="2">
         <v>1047</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G45">
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2865,16 +2900,16 @@
         <v>1047</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G46">
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2883,22 +2918,22 @@
         <v>139</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D47" s="2">
         <v>1047</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G47">
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2913,13 +2948,13 @@
         <v>1047</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G48">
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2928,25 +2963,25 @@
         <v>141</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D49" s="2">
         <v>1047</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="G49">
         <v>0.93</v>
       </c>
       <c r="H49" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -2961,16 +2996,16 @@
         <v>1047</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G50" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
@@ -2979,40 +3014,46 @@
         <v>143</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D51" s="2">
         <v>1047</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G51">
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D52" s="2">
         <v>1047</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="G52">
         <v>0.93</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -3021,16 +3062,16 @@
         <v>145</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D53" s="2">
         <v>1047</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>46</v>
       </c>
@@ -3045,13 +3086,13 @@
         <v>1047</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -3069,9 +3110,9 @@
         <v>1069</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G55" s="55">
+        <v>268</v>
+      </c>
+      <c r="G55" s="54">
         <v>1079</v>
       </c>
     </row>
@@ -3090,7 +3131,7 @@
         <v>1069</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G56">
         <v>1078</v>
@@ -3107,8 +3148,8 @@
       <c r="D57" s="2">
         <v>1069</v>
       </c>
-      <c r="E57" s="54" t="s">
-        <v>278</v>
+      <c r="E57" s="53" t="s">
+        <v>270</v>
       </c>
       <c r="G57">
         <v>0.92</v>
@@ -3128,13 +3169,13 @@
         <v>1069</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G58">
         <v>1078</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -3148,13 +3189,13 @@
         <v>1069</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G59">
         <v>1072</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
@@ -3162,19 +3203,19 @@
         <v>152</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D60" s="2">
         <v>1069</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G60">
         <v>1071</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -3188,27 +3229,27 @@
         <v>1069</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G61">
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>154</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D62" s="2">
         <v>1072</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G62">
         <v>0.93</v>
@@ -3222,19 +3263,19 @@
         <v>155</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D63" s="2">
         <v>1075</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G63">
         <v>1078</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>156</v>
       </c>
@@ -3245,13 +3286,13 @@
         <v>1075</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="G64" t="s">
-        <v>142</v>
+        <v>301</v>
+      </c>
+      <c r="G64" s="52">
+        <v>0.92</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3268,7 +3309,7 @@
         <v>1075</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G65">
         <v>1078</v>
@@ -3288,30 +3329,33 @@
         <v>1075</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G66">
         <v>1078</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="B67" s="1">
         <v>159</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D67" s="2">
         <v>1075</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="G67" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3319,36 +3363,36 @@
         <v>160</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D68" s="2">
         <v>1075</v>
       </c>
-      <c r="E68" s="57" t="s">
-        <v>303</v>
+      <c r="E68" s="56" t="s">
+        <v>294</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>161</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D69" s="2">
         <v>1075</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G69" t="s">
-        <v>142</v>
+        <v>332</v>
+      </c>
+      <c r="G69">
+        <v>0.93</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3365,7 +3409,7 @@
         <v>1075</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G70">
         <v>1078</v>
@@ -3381,11 +3425,14 @@
       <c r="D71" s="2">
         <v>1075</v>
       </c>
-      <c r="E71" s="54" t="s">
-        <v>308</v>
+      <c r="E71" s="53" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B72" s="1">
         <v>164</v>
       </c>
@@ -3396,7 +3443,7 @@
         <v>1079</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3410,37 +3457,87 @@
         <v>1079</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B74" s="1">
         <v>166</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D74" s="2">
         <v>1079</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>167</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1081</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>168</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1081</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>326</v>
       </c>
     </row>
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>169</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1081</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>170</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1081</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:G71" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="V"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="0,92"/>
-        <filter val="1078"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:G74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -3451,11 +3548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,7 +3560,7 @@
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="62" customWidth="1"/>
     <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.7109375" style="4"/>
@@ -3483,7 +3579,7 @@
       <c r="D1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="58" t="s">
         <v>116</v>
       </c>
       <c r="F1" s="34" t="s">
@@ -3493,7 +3589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
         <v>42</v>
@@ -3504,14 +3600,16 @@
       <c r="D2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>142</v>
+      <c r="E2" s="59">
+        <v>0.93</v>
       </c>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="B3" s="37" t="s">
         <v>43</v>
       </c>
@@ -3519,17 +3617,17 @@
       <c r="D3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>208</v>
+      <c r="E3" s="60">
+        <v>0.92</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" s="37">
         <v>1075</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="37" t="s">
         <v>44</v>
@@ -3538,15 +3636,15 @@
       <c r="D4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="59">
+        <v>0.93</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="37" t="s">
-        <v>144</v>
-      </c>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="37" t="s">
         <v>64</v>
@@ -3557,13 +3655,13 @@
       <c r="D5" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>206</v>
+      <c r="E5" s="59">
+        <v>0.93</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3574,13 +3672,13 @@
       <c r="D6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>142</v>
+      <c r="E6" s="59">
+        <v>0.93</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3593,12 +3691,14 @@
       <c r="D7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="B8" s="37" t="s">
         <v>72</v>
       </c>
@@ -3608,17 +3708,17 @@
       <c r="D8" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="61" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G8" s="37">
         <v>1078</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>46</v>
       </c>
@@ -3631,15 +3731,15 @@
       <c r="D9" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>208</v>
+      <c r="E9" s="59">
+        <v>0.92</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -3650,13 +3750,13 @@
       <c r="D10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>142</v>
+      <c r="E10" s="59">
+        <v>0.93</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="37" t="s">
         <v>80</v>
@@ -3667,13 +3767,13 @@
       <c r="D11" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="38" t="s">
-        <v>142</v>
+      <c r="E11" s="59">
+        <v>0.93</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -3684,13 +3784,13 @@
       <c r="D12" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="38" t="s">
-        <v>142</v>
+      <c r="E12" s="59">
+        <v>0.93</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="37" t="s">
         <v>87</v>
@@ -3701,13 +3801,13 @@
       <c r="D13" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="38" t="s">
-        <v>142</v>
+      <c r="E13" s="59">
+        <v>0.93</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -3718,13 +3818,13 @@
       <c r="D14" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>142</v>
+      <c r="E14" s="59">
+        <v>0.93</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -3735,13 +3835,13 @@
       <c r="D15" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>142</v>
+      <c r="E15" s="59">
+        <v>0.93</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>46</v>
       </c>
@@ -3754,15 +3854,15 @@
       <c r="D16" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>208</v>
+      <c r="E16" s="59">
+        <v>0.92</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="37" t="s">
         <v>99</v>
@@ -3773,13 +3873,13 @@
       <c r="D17" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>142</v>
+      <c r="E17" s="59">
+        <v>0.93</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>46</v>
       </c>
@@ -3792,15 +3892,15 @@
       <c r="D18" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="61" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="37" t="s">
         <v>101</v>
@@ -3811,11 +3911,11 @@
       <c r="D19" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>142</v>
+      <c r="E19" s="59">
+        <v>0.93</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G19" s="37"/>
     </row>
@@ -3830,32 +3930,32 @@
       <c r="D20" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>208</v>
+      <c r="E20" s="59">
+        <v>0.92</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:7" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="37" t="s">
         <v>103</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>142</v>
+        <v>231</v>
+      </c>
+      <c r="E21" s="59">
+        <v>0.93</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
@@ -3868,15 +3968,15 @@
       <c r="D22" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="38" t="s">
-        <v>141</v>
+      <c r="E22" s="59">
+        <v>0.92</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>46</v>
       </c>
@@ -3889,13 +3989,13 @@
       <c r="D23" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="38"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>46</v>
       </c>
@@ -3908,124 +4008,124 @@
       <c r="D24" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="38" t="s">
-        <v>208</v>
+      <c r="E24" s="59">
+        <v>0.92</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G24" s="37">
         <v>1039</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
         <v>107</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>142</v>
+        <v>319</v>
+      </c>
+      <c r="E25" s="59">
+        <v>0.93</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>142</v>
+        <v>175</v>
+      </c>
+      <c r="E26" s="59">
+        <v>0.93</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>142</v>
+        <v>177</v>
+      </c>
+      <c r="E27" s="59">
+        <v>0.93</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>208</v>
+        <v>179</v>
+      </c>
+      <c r="E28" s="59">
+        <v>0.92</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>206</v>
+        <v>184</v>
+      </c>
+      <c r="E29" s="59">
+        <v>0.93</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G29" s="37"/>
     </row>
-    <row r="30" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="37" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>296</v>
+        <v>188</v>
+      </c>
+      <c r="E30" s="59">
+        <v>0.95</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -4033,157 +4133,157 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>208</v>
+        <v>191</v>
+      </c>
+      <c r="E31" s="59">
+        <v>0.92</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="E32" s="38"/>
+        <v>198</v>
+      </c>
+      <c r="E32" s="61"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
     </row>
-    <row r="33" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>142</v>
+        <v>221</v>
+      </c>
+      <c r="E33" s="59">
+        <v>0.93</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
     </row>
-    <row r="34" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>142</v>
+        <v>212</v>
+      </c>
+      <c r="E34" s="59">
+        <v>0.93</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>142</v>
+        <v>238</v>
+      </c>
+      <c r="E35" s="59">
+        <v>0.93</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
     </row>
-    <row r="36" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>142</v>
+        <v>250</v>
+      </c>
+      <c r="E36" s="59">
+        <v>0.93</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>142</v>
+        <v>252</v>
+      </c>
+      <c r="E37" s="59">
+        <v>0.93</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
     </row>
-    <row r="38" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>142</v>
+        <v>253</v>
+      </c>
+      <c r="E38" s="59">
+        <v>0.93</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>284</v>
+        <v>255</v>
+      </c>
+      <c r="E39" s="59">
+        <v>0.92</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>276</v>
       </c>
       <c r="G39" s="4">
         <v>1078</v>
@@ -4191,205 +4291,229 @@
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>142</v>
+        <v>196</v>
+      </c>
+      <c r="E41" s="59">
+        <v>0.93</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="D42" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>208</v>
+        <v>159</v>
+      </c>
+      <c r="E42" s="59">
+        <v>0.92</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>208</v>
+        <v>182</v>
+      </c>
+      <c r="E43" s="59">
+        <v>0.92</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>208</v>
+        <v>195</v>
+      </c>
+      <c r="E44" s="59">
+        <v>0.92</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>208</v>
+        <v>189</v>
+      </c>
+      <c r="E45" s="59">
+        <v>0.92</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>208</v>
+        <v>280</v>
+      </c>
+      <c r="E46" s="59">
+        <v>0.92</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>208</v>
+        <v>193</v>
+      </c>
+      <c r="E47" s="59">
+        <v>0.92</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>208</v>
+        <v>284</v>
+      </c>
+      <c r="E48" s="59">
+        <v>0.92</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>331</v>
+      </c>
       <c r="B49" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="B51" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G49" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="V"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="0,92"/>
-        <filter val="0.92"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G56" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -4425,15 +4549,15 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="B2" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="41" t="s">
         <v>28</v>
       </c>
@@ -4448,19 +4572,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>151</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>153</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>61</v>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA2519E-6417-4F7D-8DC8-3082F9169171}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -18,10 +12,10 @@
     <sheet name="Commands" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$56</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1152,7 +1146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1588,23 +1582,23 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1912,33 +1906,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1953,7 +1948,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -1966,7 +1961,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>122</v>
@@ -1979,7 +1974,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -1992,12 +1987,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -2020,7 +2015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2041,7 +2036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2063,7 +2058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -2085,7 +2080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2109,7 +2104,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -2133,7 +2128,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -2157,7 +2152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2179,7 +2174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2198,7 +2193,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2220,7 +2215,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2244,7 +2239,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -2266,7 +2261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2290,7 +2285,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2312,7 +2307,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2334,7 +2329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2356,7 +2351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2402,7 +2397,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2426,7 +2421,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2447,7 +2442,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2471,7 +2466,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2495,7 +2490,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2519,7 +2514,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -2543,7 +2538,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2564,7 +2559,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2588,7 +2583,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2612,7 +2607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -2636,7 +2631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -2660,7 +2655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -2678,7 +2673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2702,7 +2697,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2726,7 +2721,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -2750,7 +2745,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -2771,7 +2766,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -2795,7 +2790,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2816,7 +2811,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2840,7 +2835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>122</v>
       </c>
@@ -2861,7 +2856,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
@@ -2885,7 +2880,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2909,7 +2904,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2933,7 +2928,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2954,7 +2949,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2981,7 +2976,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3005,7 +3000,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
@@ -3029,7 +3024,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -3053,7 +3048,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -3071,7 +3066,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>46</v>
       </c>
@@ -3095,7 +3090,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>46</v>
       </c>
@@ -3116,7 +3111,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
@@ -3137,7 +3132,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -3155,7 +3150,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
@@ -3175,7 +3170,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -3195,7 +3190,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
@@ -3215,7 +3210,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -3238,7 +3233,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1">
         <v>154</v>
       </c>
@@ -3255,7 +3250,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
@@ -3275,7 +3270,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B64" s="1">
         <v>156</v>
       </c>
@@ -3295,7 +3290,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
@@ -3315,7 +3310,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>46</v>
       </c>
@@ -3335,7 +3330,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>331</v>
       </c>
@@ -3358,7 +3353,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
         <v>160</v>
       </c>
@@ -3375,7 +3370,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1">
         <v>161</v>
       </c>
@@ -3395,7 +3390,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
@@ -3415,7 +3410,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B71" s="1">
         <v>163</v>
       </c>
@@ -3429,7 +3424,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>46</v>
       </c>
@@ -3446,7 +3441,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B73" s="1">
         <v>165</v>
       </c>
@@ -3456,11 +3451,11 @@
       <c r="D73" s="2">
         <v>1079</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="53" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>46</v>
       </c>
@@ -3477,7 +3472,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B75" s="1">
         <v>167</v>
       </c>
@@ -3487,11 +3482,11 @@
       <c r="D75" s="2">
         <v>1081</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="B76" s="1">
         <v>168</v>
       </c>
@@ -3501,11 +3496,11 @@
       <c r="D76" s="2">
         <v>1081</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="53" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B77" s="1">
         <v>169</v>
       </c>
@@ -3521,8 +3516,11 @@
       <c r="F77" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B78" s="1">
         <v>170</v>
       </c>
@@ -3537,7 +3535,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A7:G78">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="D"/>
+        <filter val="V"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters blank="1">
+        <filter val="0,92"/>
+        <filter val="no fix needed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -3547,26 +3558,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="62" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
@@ -3579,7 +3591,7 @@
       <c r="D1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>116</v>
       </c>
       <c r="F1" s="34" t="s">
@@ -3589,7 +3601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
         <v>42</v>
@@ -3600,13 +3612,13 @@
       <c r="D2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="58">
         <v>0.93</v>
       </c>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
         <v>46</v>
       </c>
@@ -3617,7 +3629,7 @@
       <c r="D3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="59">
         <v>0.92</v>
       </c>
       <c r="F3" s="37" t="s">
@@ -3627,7 +3639,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="104" x14ac:dyDescent="0.35">
       <c r="A4" s="36"/>
       <c r="B4" s="37" t="s">
         <v>44</v>
@@ -3636,7 +3648,7 @@
       <c r="D4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="58">
         <v>0.93</v>
       </c>
       <c r="F4" s="37" t="s">
@@ -3644,7 +3656,7 @@
       </c>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="36"/>
       <c r="B5" s="37" t="s">
         <v>64</v>
@@ -3655,13 +3667,13 @@
       <c r="D5" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="58">
         <v>0.93</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3672,13 +3684,13 @@
       <c r="D6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="58">
         <v>0.93</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3691,11 +3703,11 @@
       <c r="D7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="61"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
@@ -3708,7 +3720,7 @@
       <c r="D8" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="60" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="37" t="s">
@@ -3718,7 +3730,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>46</v>
       </c>
@@ -3731,7 +3743,7 @@
       <c r="D9" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="58">
         <v>0.92</v>
       </c>
       <c r="F9" s="37" t="s">
@@ -3739,7 +3751,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -3750,13 +3762,13 @@
       <c r="D10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="58">
         <v>0.93</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
       <c r="B11" s="37" t="s">
         <v>80</v>
@@ -3767,13 +3779,13 @@
       <c r="D11" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="58">
         <v>0.93</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -3784,13 +3796,13 @@
       <c r="D12" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="58">
         <v>0.93</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="37" t="s">
         <v>87</v>
@@ -3801,13 +3813,13 @@
       <c r="D13" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="58">
         <v>0.93</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -3818,13 +3830,13 @@
       <c r="D14" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="58">
         <v>0.93</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -3835,13 +3847,13 @@
       <c r="D15" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="58">
         <v>0.93</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
         <v>46</v>
       </c>
@@ -3854,7 +3866,7 @@
       <c r="D16" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="58">
         <v>0.92</v>
       </c>
       <c r="F16" s="37" t="s">
@@ -3862,7 +3874,7 @@
       </c>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="36"/>
       <c r="B17" s="37" t="s">
         <v>99</v>
@@ -3873,13 +3885,13 @@
       <c r="D17" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="58">
         <v>0.93</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
         <v>46</v>
       </c>
@@ -3892,7 +3904,7 @@
       <c r="D18" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="60" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="37" t="s">
@@ -3900,7 +3912,7 @@
       </c>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
       <c r="B19" s="37" t="s">
         <v>101</v>
@@ -3911,7 +3923,7 @@
       <c r="D19" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="58">
         <v>0.93</v>
       </c>
       <c r="F19" s="37" t="s">
@@ -3919,7 +3931,7 @@
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
         <v>102</v>
@@ -3930,7 +3942,7 @@
       <c r="D20" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="58">
         <v>0.92</v>
       </c>
       <c r="F20" s="37" t="s">
@@ -3938,7 +3950,7 @@
       </c>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
       <c r="B21" s="37" t="s">
         <v>103</v>
@@ -3949,13 +3961,13 @@
       <c r="D21" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="58">
         <v>0.93</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
@@ -3968,7 +3980,7 @@
       <c r="D22" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="58">
         <v>0.92</v>
       </c>
       <c r="F22" s="37" t="s">
@@ -3976,7 +3988,7 @@
       </c>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>46</v>
       </c>
@@ -3989,13 +4001,13 @@
       <c r="D23" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="61"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="38" t="s">
         <v>148</v>
       </c>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>46</v>
       </c>
@@ -4008,7 +4020,7 @@
       <c r="D24" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="58">
         <v>0.92</v>
       </c>
       <c r="F24" s="37" t="s">
@@ -4018,7 +4030,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
         <v>107</v>
@@ -4029,7 +4041,7 @@
       <c r="D25" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="58">
         <v>0.93</v>
       </c>
       <c r="F25" s="37" t="s">
@@ -4037,7 +4049,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -4048,7 +4060,7 @@
       <c r="D26" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="58">
         <v>0.93</v>
       </c>
       <c r="F26" s="37" t="s">
@@ -4056,7 +4068,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>163</v>
@@ -4067,7 +4079,7 @@
       <c r="D27" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="58">
         <v>0.93</v>
       </c>
       <c r="F27" s="37" t="s">
@@ -4075,7 +4087,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>164</v>
@@ -4086,7 +4098,7 @@
       <c r="D28" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="58">
         <v>0.92</v>
       </c>
       <c r="F28" s="37" t="s">
@@ -4094,7 +4106,7 @@
       </c>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A29" s="36"/>
       <c r="B29" s="37" t="s">
         <v>165</v>
@@ -4105,7 +4117,7 @@
       <c r="D29" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="58">
         <v>0.93</v>
       </c>
       <c r="F29" s="37" t="s">
@@ -4113,7 +4125,7 @@
       </c>
       <c r="G29" s="37"/>
     </row>
-    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="36"/>
       <c r="B30" s="37" t="s">
         <v>166</v>
@@ -4124,13 +4136,13 @@
       <c r="D30" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="58">
         <v>0.95</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>167</v>
@@ -4141,7 +4153,7 @@
       <c r="D31" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="58">
         <v>0.92</v>
       </c>
       <c r="F31" s="37" t="s">
@@ -4149,7 +4161,7 @@
       </c>
       <c r="G31" s="37"/>
     </row>
-    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A32" s="36"/>
       <c r="B32" s="37" t="s">
         <v>168</v>
@@ -4160,11 +4172,11 @@
       <c r="D32" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="61"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
     </row>
-    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A33" s="36"/>
       <c r="B33" s="37" t="s">
         <v>169</v>
@@ -4175,13 +4187,13 @@
       <c r="D33" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="58">
         <v>0.93</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
     </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
         <v>170</v>
@@ -4192,13 +4204,13 @@
       <c r="D34" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="58">
         <v>0.93</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>171</v>
@@ -4209,13 +4221,13 @@
       <c r="D35" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="58">
         <v>0.93</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
     </row>
-    <row r="36" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
         <v>172</v>
@@ -4226,13 +4238,13 @@
       <c r="D36" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="58">
         <v>0.93</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A37" s="36"/>
       <c r="B37" s="37" t="s">
         <v>173</v>
@@ -4243,13 +4255,13 @@
       <c r="D37" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="E37" s="59">
+      <c r="E37" s="58">
         <v>0.93</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
     </row>
-    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A38" s="36"/>
       <c r="B38" s="37" t="s">
         <v>174</v>
@@ -4260,13 +4272,13 @@
       <c r="D38" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="E38" s="59">
+      <c r="E38" s="58">
         <v>0.93</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>46</v>
       </c>
@@ -4279,7 +4291,7 @@
       <c r="D39" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E39" s="59">
+      <c r="E39" s="58">
         <v>0.92</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -4289,7 +4301,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>256</v>
       </c>
@@ -4303,7 +4315,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>257</v>
       </c>
@@ -4313,11 +4325,11 @@
       <c r="D41" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="59">
+      <c r="E41" s="58">
         <v>0.93</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>258</v>
       </c>
@@ -4327,11 +4339,11 @@
       <c r="D42" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="E42" s="59">
+      <c r="E42" s="58">
         <v>0.92</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>259</v>
       </c>
@@ -4341,11 +4353,11 @@
       <c r="D43" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="E43" s="59">
+      <c r="E43" s="58">
         <v>0.92</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>260</v>
       </c>
@@ -4355,11 +4367,11 @@
       <c r="D44" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="E44" s="59">
+      <c r="E44" s="58">
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>261</v>
       </c>
@@ -4369,11 +4381,11 @@
       <c r="D45" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="E45" s="59">
+      <c r="E45" s="58">
         <v>0.92</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>262</v>
       </c>
@@ -4383,11 +4395,11 @@
       <c r="D46" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="E46" s="59">
+      <c r="E46" s="58">
         <v>0.92</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>263</v>
       </c>
@@ -4397,11 +4409,11 @@
       <c r="D47" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E47" s="59">
+      <c r="E47" s="58">
         <v>0.92</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>264</v>
       </c>
@@ -4411,14 +4423,14 @@
       <c r="D48" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="E48" s="59">
+      <c r="E48" s="58">
         <v>0.92</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
         <v>331</v>
       </c>
@@ -4432,7 +4444,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>303</v>
       </c>
@@ -4443,7 +4455,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="26" t="s">
         <v>46</v>
       </c>
@@ -4460,7 +4472,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
         <v>46</v>
       </c>
@@ -4474,7 +4486,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>307</v>
       </c>
@@ -4485,7 +4497,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>308</v>
       </c>
@@ -4496,7 +4508,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>309</v>
       </c>
@@ -4507,13 +4519,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>310</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G56" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G56">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="D"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -4523,51 +4541,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="41"/>
-    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="41"/>
-    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="41"/>
+    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="41"/>
+    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="41"/>
+    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I3" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
@@ -4593,7 +4611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -4604,529 +4622,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="I6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="I8" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="I9" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="6"/>
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" s="46"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" s="46"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B96" s="47"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="47"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="47"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="47"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="47"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="47"/>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1906,7 +1906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1917,8 +1917,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3532,6 +3532,9 @@
       </c>
       <c r="E78" s="3" t="s">
         <v>336</v>
+      </c>
+      <c r="G78">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -4527,7 +4530,7 @@
   </sheetData>
   <autoFilter ref="A1:G56">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="D"/>
       </filters>
     </filterColumn>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00628A7-CAF0-4734-BECA-DBF8DC5708D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$56</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="341">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1142,11 +1148,23 @@
   <si>
     <t>When you do EXIT 20 in a script, the script then gives yuou a Line #xx:[$14] Unknown Error (14 being Hex for 20).  The script should not through the error, but rather return it to called script that can be evaluating $?.  See RCTEST, RCSUB1 and RCSUB2</t>
   </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>If the last char being CATted is not a CR, append a CR.  Prompt can end up on last line of CAT contents instead of next new line.  Also once we do FOR $VAR in `CAT afile` all lines will need CR at end.</t>
+  </si>
+  <si>
+    <t>TCUTIL</t>
+  </si>
+  <si>
+    <t>Create a TCUTIL to set the time on a thunderclock that mirrors the function of the NSCUTIL program.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1906,34 +1924,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1948,7 +1965,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -1961,7 +1978,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>122</v>
@@ -1974,7 +1991,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -1987,12 +2004,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -2015,7 +2032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2036,7 +2053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2058,7 +2075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -2080,7 +2097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2104,7 +2121,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -2128,7 +2145,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -2152,7 +2169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2174,7 +2191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2193,7 +2210,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2215,7 +2232,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2239,7 +2256,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -2261,7 +2278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2285,7 +2302,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2307,7 +2324,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2329,7 +2346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2351,7 +2368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2375,7 +2392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2397,7 +2414,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2421,7 +2438,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2442,7 +2459,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2466,7 +2483,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2490,7 +2507,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2514,7 +2531,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -2538,7 +2555,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2559,7 +2576,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2583,7 +2600,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2607,7 +2624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -2631,7 +2648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -2655,7 +2672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -2673,7 +2690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2697,7 +2714,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2721,7 +2738,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -2745,7 +2762,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -2766,7 +2783,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -2790,7 +2807,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2811,7 +2828,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2835,7 +2852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>122</v>
       </c>
@@ -2856,7 +2873,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
@@ -2880,7 +2897,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2904,7 +2921,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2928,7 +2945,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2949,7 +2966,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2976,7 +2993,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
@@ -3024,7 +3041,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -3048,7 +3065,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -3066,7 +3083,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>46</v>
       </c>
@@ -3090,7 +3107,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>46</v>
       </c>
@@ -3111,7 +3128,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
@@ -3132,7 +3149,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -3150,7 +3167,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
@@ -3170,7 +3187,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -3190,7 +3207,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
@@ -3210,7 +3227,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -3233,7 +3250,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>154</v>
       </c>
@@ -3250,7 +3267,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
@@ -3270,7 +3287,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>156</v>
       </c>
@@ -3290,7 +3307,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
@@ -3310,7 +3327,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>46</v>
       </c>
@@ -3330,7 +3347,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>331</v>
       </c>
@@ -3353,7 +3370,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>160</v>
       </c>
@@ -3370,7 +3387,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>161</v>
       </c>
@@ -3390,7 +3407,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
@@ -3410,7 +3427,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>163</v>
       </c>
@@ -3424,7 +3441,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>46</v>
       </c>
@@ -3441,7 +3458,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>165</v>
       </c>
@@ -3455,7 +3472,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>46</v>
       </c>
@@ -3472,7 +3489,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>167</v>
       </c>
@@ -3486,7 +3503,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>168</v>
       </c>
@@ -3500,7 +3517,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>169</v>
       </c>
@@ -3520,7 +3537,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>170</v>
       </c>
@@ -3537,21 +3554,22 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>171</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1085</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:G78">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="D"/>
-        <filter val="V"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="0,92"/>
-        <filter val="no fix needed"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:G78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -3561,27 +3579,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="61" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
@@ -3604,7 +3622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
         <v>42</v>
@@ -3621,7 +3639,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="1:7" ht="65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>46</v>
       </c>
@@ -3642,7 +3660,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="37" t="s">
         <v>44</v>
@@ -3659,7 +3677,7 @@
       </c>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="37" t="s">
         <v>64</v>
@@ -3676,7 +3694,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3693,7 +3711,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3710,7 +3728,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
@@ -3754,7 +3772,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -3771,7 +3789,7 @@
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="37" t="s">
         <v>80</v>
@@ -3788,7 +3806,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -3805,7 +3823,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="37" t="s">
         <v>87</v>
@@ -3822,7 +3840,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -3839,7 +3857,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -3856,7 +3874,7 @@
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>46</v>
       </c>
@@ -3877,7 +3895,7 @@
       </c>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="37" t="s">
         <v>99</v>
@@ -3894,7 +3912,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="39" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>46</v>
       </c>
@@ -3915,7 +3933,7 @@
       </c>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="37" t="s">
         <v>101</v>
@@ -3934,7 +3952,7 @@
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
         <v>102</v>
@@ -3953,7 +3971,7 @@
       </c>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="37" t="s">
         <v>103</v>
@@ -3970,7 +3988,7 @@
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" ht="65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
@@ -4033,7 +4051,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
         <v>107</v>
@@ -4052,7 +4070,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -4071,7 +4089,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>163</v>
@@ -4090,7 +4108,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>164</v>
@@ -4109,7 +4127,7 @@
       </c>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="37" t="s">
         <v>165</v>
@@ -4128,7 +4146,7 @@
       </c>
       <c r="G29" s="37"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="37" t="s">
         <v>166</v>
@@ -4145,7 +4163,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>167</v>
@@ -4164,7 +4182,7 @@
       </c>
       <c r="G31" s="37"/>
     </row>
-    <row r="32" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="37" t="s">
         <v>168</v>
@@ -4179,7 +4197,7 @@
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
     </row>
-    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="37" t="s">
         <v>169</v>
@@ -4196,7 +4214,7 @@
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
     </row>
-    <row r="34" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
         <v>170</v>
@@ -4213,7 +4231,7 @@
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>171</v>
@@ -4230,7 +4248,7 @@
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
     </row>
-    <row r="36" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
         <v>172</v>
@@ -4247,7 +4265,7 @@
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="37" t="s">
         <v>173</v>
@@ -4264,7 +4282,7 @@
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
     </row>
-    <row r="38" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="37" t="s">
         <v>174</v>
@@ -4281,7 +4299,7 @@
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>46</v>
       </c>
@@ -4304,7 +4322,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>256</v>
       </c>
@@ -4318,7 +4336,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>257</v>
       </c>
@@ -4332,7 +4350,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>258</v>
       </c>
@@ -4346,7 +4364,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>259</v>
       </c>
@@ -4360,7 +4378,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>260</v>
       </c>
@@ -4374,7 +4392,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>261</v>
       </c>
@@ -4388,7 +4406,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>262</v>
       </c>
@@ -4402,7 +4420,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>263</v>
       </c>
@@ -4416,7 +4434,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>264</v>
       </c>
@@ -4433,7 +4451,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>331</v>
       </c>
@@ -4447,7 +4465,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>303</v>
       </c>
@@ -4458,7 +4476,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>46</v>
       </c>
@@ -4475,7 +4493,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>46</v>
       </c>
@@ -4489,7 +4507,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>307</v>
       </c>
@@ -4500,7 +4518,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>308</v>
       </c>
@@ -4511,7 +4529,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>309</v>
       </c>
@@ -4522,15 +4540,21 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>310</v>
       </c>
+      <c r="C56" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G56">
+  <autoFilter ref="A1:G56" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
-      <filters>
+      <filters blank="1">
         <filter val="D"/>
       </filters>
     </filterColumn>
@@ -4544,27 +4568,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="41"/>
-    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="41"/>
-    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="41"/>
+    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="41"/>
+    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="41"/>
+    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
@@ -4583,12 +4607,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I3" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
@@ -4614,7 +4638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -4625,529 +4649,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="I6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="I8" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="I9" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="46"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="46"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="47"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="47"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="47"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="47"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="47"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="47"/>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00628A7-CAF0-4734-BECA-DBF8DC5708D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F8D32-8BB7-4806-A386-C2B8DC9F143B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="347">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1159,6 +1159,24 @@
   </si>
   <si>
     <t>Create a TCUTIL to set the time on a thunderclock that mirrors the function of the NSCUTIL program.</t>
+  </si>
+  <si>
+    <t>S0056</t>
+  </si>
+  <si>
+    <t>WGET</t>
+  </si>
+  <si>
+    <t>Make a utility that will perfrom a wget to the internet using StdIn as URL and StdOut as returned result.  Option should include -F filename for taking input from a file (output redirection of &gt; should work).  Return codes should be set for invalid URL, DNS unresolved, empty return set or other things I make up).  Max URL length is 2048 chars.  Return results could be any length and multipart, how do we handle?</t>
+  </si>
+  <si>
+    <t>S0057</t>
+  </si>
+  <si>
+    <t>IFTTT</t>
+  </si>
+  <si>
+    <t>Write a script to build IFTTT actions to submit via WGET.  We will need to handle $EVENT, $KEYm and 3 Values ($VALUE1-$VALUE3) with the full URL being http://maker.ifttt.com/trigger/$EVENT/with/key/$KEY?value1=$VALUE1&amp;value2=VALUE2&amp;value3=VALUE3.</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
@@ -3581,10 +3599,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4549,6 +4567,28 @@
       </c>
       <c r="D56" s="4" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F8D32-8BB7-4806-A386-C2B8DC9F143B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0B347B-2B21-4DEA-BBB5-A1498F641B69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="354">
   <si>
     <t>Issue No.</t>
   </si>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t>Verified in latest.  Boot, -run, at prompt EDIT A.  Then type some stuff, then ctrl-S  PRESS ESCAPE and then type aaa and return.  Error 40</t>
-  </si>
-  <si>
-    <t>Which NIC/Driver ? -RG This is on AppleWin using NET script.  I need to test this on a real Apple, it may be the Eth driver in AppleWin is reporting it wrong to you. -PK</t>
   </si>
   <si>
     <t>HT</t>
@@ -831,10 +828,6 @@
 CP,MV,RM should also be impacted</t>
   </si>
   <si>
-    <t>Beware of bad VBL emulation in Applewin
-should be flagged HT</t>
-  </si>
-  <si>
     <t>side note : Applewin does not allow Writing to NSC
 should be flagged HT</t>
   </si>
@@ -1177,6 +1170,33 @@
   </si>
   <si>
     <t>Write a script to build IFTTT actions to submit via WGET.  We will need to handle $EVENT, $KEYm and 3 Values ($VALUE1-$VALUE3) with the full URL being http://maker.ifttt.com/trigger/$EVENT/with/key/$KEY?value1=$VALUE1&amp;value2=VALUE2&amp;value3=VALUE3.</t>
+  </si>
+  <si>
+    <t>Fixed!</t>
+  </si>
+  <si>
+    <t>Link Status on real HW reports OK, AW does not report it correctly, will make note in our Doc.  Not a bug. Closed.</t>
+  </si>
+  <si>
+    <t>Confirmed behavior on both read Hardware (Apple //e U2 card) and AW. Happens with both local hosts and internet.  Behavior not consistent.</t>
+  </si>
+  <si>
+    <t>Closing.  Thought to be related to bad media or sector order problems on media.  If reoccurs, will try format/recopy files and test again.</t>
+  </si>
+  <si>
+    <t>Can no longer duplicated problem after DEL change.</t>
+  </si>
+  <si>
+    <t>S0058</t>
+  </si>
+  <si>
+    <t>It you have made changes to a file and Quite, Edit should warn you that you have not saved and kill you a Cancel Quit, Save Changes, Quit Anyways option.</t>
+  </si>
+  <si>
+    <t>When I telnet to linux, when session starts it is already asking me for my password as Telnet has sent a CR/LF or whatever and pushed me passed the login prompt.  Yes you can just press return and get another one.</t>
+  </si>
+  <si>
+    <t>No longer get error, but return code is not right.  Test RCTEST which calls RCSUB1 and RCSUB2, RCTEST should get the return codes, it only gets 0.</t>
   </si>
 </sst>
 </file>
@@ -1601,9 +1621,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1635,6 +1652,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1950,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,10 +2019,10 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="14"/>
@@ -2163,9 +2183,9 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
@@ -2181,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>121</v>
+        <v>346</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
@@ -2314,7 +2334,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G19">
         <v>1039</v>
@@ -2404,7 +2424,7 @@
         <v>48</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -2425,7 +2445,7 @@
         <v>1016</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24">
@@ -2450,7 +2470,7 @@
         <v>49</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25">
         <v>1034</v>
@@ -2495,7 +2515,7 @@
         <v>51</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27">
         <v>0.93</v>
@@ -2543,7 +2563,7 @@
         <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29">
         <v>1020</v>
@@ -2567,7 +2587,7 @@
         <v>117</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G30">
         <v>1069</v>
@@ -2588,7 +2608,7 @@
         <v>1027</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31">
         <v>0.93</v>
@@ -2609,10 +2629,10 @@
         <v>1027</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G32">
         <v>0.93</v>
@@ -2627,16 +2647,16 @@
         <v>125</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="2">
         <v>1027</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
@@ -2651,16 +2671,16 @@
         <v>126</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="2">
         <v>1027</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
@@ -2675,16 +2695,16 @@
         <v>127</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" s="2">
         <v>1034</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
@@ -2692,20 +2712,23 @@
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ref="B36:B57" si="1">B35+1</f>
         <v>128</v>
       </c>
       <c r="C36" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
+      <c r="F36" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G36">
+        <v>0.92</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2723,10 +2746,10 @@
         <v>1034</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G37">
         <v>1039</v>
@@ -2741,18 +2764,18 @@
         <v>130</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D38" s="2">
         <v>1034</v>
       </c>
-      <c r="E38" s="55" t="s">
-        <v>227</v>
+      <c r="E38" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="52">
+        <v>201</v>
+      </c>
+      <c r="G38" s="51">
         <v>0.92</v>
       </c>
     </row>
@@ -2771,10 +2794,10 @@
         <v>1037</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G39">
         <v>1050</v>
@@ -2789,13 +2812,13 @@
         <v>132</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D40" s="2">
         <v>1037</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G40">
         <v>1047</v>
@@ -2810,18 +2833,18 @@
         <v>133</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" s="2">
         <v>1047</v>
       </c>
-      <c r="E41" s="39" t="s">
-        <v>224</v>
+      <c r="E41" s="48" t="s">
+        <v>223</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G41" s="54">
+        <v>272</v>
+      </c>
+      <c r="G41" s="53">
         <v>1079</v>
       </c>
     </row>
@@ -2834,13 +2857,13 @@
         <v>134</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="2">
         <v>1047</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G42">
         <v>0.93</v>
@@ -2861,10 +2884,10 @@
         <v>1047</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="48" t="s">
         <v>225</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>226</v>
       </c>
       <c r="G43" t="s">
         <v>28</v>
@@ -2872,7 +2895,7 @@
     </row>
     <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2885,31 +2908,31 @@
         <v>1047</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>245</v>
+        <v>212</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45" s="2">
         <v>1047</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G45">
         <v>1050</v>
@@ -2930,10 +2953,10 @@
         <v>1047</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G46">
         <v>1050</v>
@@ -2948,16 +2971,16 @@
         <v>139</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D47" s="2">
         <v>1047</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G47">
         <v>1050</v>
@@ -2965,7 +2988,7 @@
     </row>
     <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2978,7 +3001,10 @@
         <v>1047</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="G48">
         <v>0.93</v>
@@ -2993,22 +3019,22 @@
         <v>141</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D49" s="2">
         <v>1047</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>324</v>
+        <v>218</v>
+      </c>
+      <c r="F49" s="62" t="s">
+        <v>322</v>
       </c>
       <c r="G49">
         <v>0.93</v>
       </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3026,13 +3052,13 @@
         <v>1047</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F50" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="G50" t="s">
         <v>242</v>
-      </c>
-      <c r="G50" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -3044,16 +3070,16 @@
         <v>143</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D51" s="2">
         <v>1047</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G51">
         <v>1050</v>
@@ -3068,16 +3094,16 @@
         <v>144</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D52" s="2">
         <v>1047</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G52">
         <v>0.93</v>
@@ -3092,13 +3118,13 @@
         <v>145</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D53" s="2">
         <v>1047</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3116,13 +3142,13 @@
         <v>1047</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F54" s="39" t="s">
-        <v>277</v>
+        <v>238</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>275</v>
       </c>
       <c r="H54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -3139,10 +3165,10 @@
       <c r="D55" s="2">
         <v>1069</v>
       </c>
-      <c r="E55" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="G55" s="54">
+      <c r="E55" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="G55" s="53">
         <v>1079</v>
       </c>
     </row>
@@ -3161,13 +3187,16 @@
         <v>1069</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G56">
         <v>1078</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -3178,8 +3207,11 @@
       <c r="D57" s="2">
         <v>1069</v>
       </c>
-      <c r="E57" s="53" t="s">
-        <v>270</v>
+      <c r="E57" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="G57">
         <v>0.92</v>
@@ -3199,7 +3231,7 @@
         <v>1069</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G58">
         <v>1078</v>
@@ -3219,7 +3251,7 @@
         <v>1069</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G59">
         <v>1072</v>
@@ -3233,13 +3265,13 @@
         <v>152</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D60" s="2">
         <v>1069</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G60">
         <v>1071</v>
@@ -3259,27 +3291,30 @@
         <v>1069</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="G61">
         <v>1071</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B62" s="1">
         <v>154</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D62" s="2">
         <v>1072</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G62">
         <v>0.93</v>
@@ -3293,19 +3328,22 @@
         <v>155</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D63" s="2">
         <v>1075</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G63">
         <v>1078</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B64" s="1">
         <v>156</v>
       </c>
@@ -3316,12 +3354,12 @@
         <v>1075</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G64" s="52">
+        <v>299</v>
+      </c>
+      <c r="G64" s="51">
         <v>0.92</v>
       </c>
     </row>
@@ -3339,7 +3377,7 @@
         <v>1075</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G65">
         <v>1078</v>
@@ -3359,7 +3397,7 @@
         <v>1075</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G66">
         <v>1078</v>
@@ -3367,25 +3405,25 @@
     </row>
     <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B67" s="1">
         <v>159</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D67" s="2">
         <v>1075</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3393,16 +3431,16 @@
         <v>160</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D68" s="2">
         <v>1075</v>
       </c>
-      <c r="E68" s="56" t="s">
-        <v>294</v>
+      <c r="E68" s="55" t="s">
+        <v>292</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3410,16 +3448,16 @@
         <v>161</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D69" s="2">
         <v>1075</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G69">
         <v>0.93</v>
@@ -3439,7 +3477,7 @@
         <v>1075</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G70">
         <v>1078</v>
@@ -3455,8 +3493,8 @@
       <c r="D71" s="2">
         <v>1075</v>
       </c>
-      <c r="E71" s="53" t="s">
-        <v>299</v>
+      <c r="E71" s="52" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3473,10 +3511,13 @@
         <v>1079</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B73" s="1">
         <v>165</v>
       </c>
@@ -3486,8 +3527,8 @@
       <c r="D73" s="2">
         <v>1079</v>
       </c>
-      <c r="E73" s="53" t="s">
-        <v>313</v>
+      <c r="E73" s="52" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3498,16 +3539,19 @@
         <v>166</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D74" s="2">
         <v>1079</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B75" s="1">
         <v>167</v>
       </c>
@@ -3517,11 +3561,14 @@
       <c r="D75" s="2">
         <v>1081</v>
       </c>
-      <c r="E75" s="53" t="s">
-        <v>325</v>
+      <c r="E75" s="52" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B76" s="1">
         <v>168</v>
       </c>
@@ -3531,11 +3578,14 @@
       <c r="D76" s="2">
         <v>1081</v>
       </c>
-      <c r="E76" s="53" t="s">
-        <v>326</v>
+      <c r="E76" s="48" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B77" s="1">
         <v>169</v>
       </c>
@@ -3546,44 +3596,67 @@
         <v>1081</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G77">
         <v>1085</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B78" s="1">
         <v>170</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D78" s="2">
         <v>1081</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
+      </c>
+      <c r="F78" s="39" t="s">
+        <v>353</v>
       </c>
       <c r="G78">
         <v>1100</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B79" s="1">
         <v>171</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D79" s="2">
         <v>1085</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>171</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1100</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3599,10 +3672,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,7 +3684,7 @@
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="60" customWidth="1"/>
     <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.7109375" style="4"/>
@@ -3630,7 +3703,7 @@
       <c r="D1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
         <v>116</v>
       </c>
       <c r="F1" s="34" t="s">
@@ -3651,7 +3724,7 @@
       <c r="D2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="57">
         <v>0.93</v>
       </c>
       <c r="F2" s="37"/>
@@ -3668,11 +3741,11 @@
       <c r="D3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="58">
         <v>0.92</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="37">
         <v>1075</v>
@@ -3687,11 +3760,11 @@
       <c r="D4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="57">
         <v>0.93</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" s="37"/>
     </row>
@@ -3706,7 +3779,7 @@
       <c r="D5" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="57">
         <v>0.93</v>
       </c>
       <c r="F5" s="37"/>
@@ -3723,7 +3796,7 @@
       <c r="D6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="57">
         <v>0.93</v>
       </c>
       <c r="F6" s="37"/>
@@ -3742,7 +3815,7 @@
       <c r="D7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
@@ -3759,11 +3832,11 @@
       <c r="D8" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G8" s="37">
         <v>1078</v>
@@ -3782,11 +3855,11 @@
       <c r="D9" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="57">
         <v>0.92</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G9" s="37"/>
     </row>
@@ -3801,7 +3874,7 @@
       <c r="D10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="57">
         <v>0.93</v>
       </c>
       <c r="F10" s="37"/>
@@ -3818,7 +3891,7 @@
       <c r="D11" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="57">
         <v>0.93</v>
       </c>
       <c r="F11" s="37"/>
@@ -3835,7 +3908,7 @@
       <c r="D12" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="57">
         <v>0.93</v>
       </c>
       <c r="F12" s="37"/>
@@ -3852,7 +3925,7 @@
       <c r="D13" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="57">
         <v>0.93</v>
       </c>
       <c r="F13" s="37"/>
@@ -3869,7 +3942,7 @@
       <c r="D14" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="57">
         <v>0.93</v>
       </c>
       <c r="F14" s="37"/>
@@ -3886,7 +3959,7 @@
       <c r="D15" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="57">
         <v>0.93</v>
       </c>
       <c r="F15" s="37"/>
@@ -3905,11 +3978,11 @@
       <c r="D16" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="57">
         <v>0.92</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G16" s="37"/>
     </row>
@@ -3924,7 +3997,7 @@
       <c r="D17" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="57">
         <v>0.93</v>
       </c>
       <c r="F17" s="37"/>
@@ -3943,11 +4016,11 @@
       <c r="D18" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="59" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G18" s="37"/>
     </row>
@@ -3962,11 +4035,11 @@
       <c r="D19" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="57">
         <v>0.93</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G19" s="37"/>
     </row>
@@ -3976,16 +4049,16 @@
         <v>102</v>
       </c>
       <c r="C20" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="58">
+      <c r="E20" s="57">
         <v>0.92</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="37"/>
     </row>
@@ -3995,12 +4068,12 @@
         <v>103</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="58">
+        <v>230</v>
+      </c>
+      <c r="E21" s="57">
         <v>0.93</v>
       </c>
       <c r="F21" s="37"/>
@@ -4014,16 +4087,16 @@
         <v>104</v>
       </c>
       <c r="C22" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="58">
+      <c r="E22" s="57">
         <v>0.92</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G22" s="37"/>
     </row>
@@ -4035,14 +4108,14 @@
         <v>105</v>
       </c>
       <c r="C23" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="60"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G23" s="37"/>
     </row>
@@ -4054,16 +4127,16 @@
         <v>106</v>
       </c>
       <c r="C24" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="58">
+      <c r="E24" s="57">
         <v>0.92</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G24" s="37">
         <v>1039</v>
@@ -4075,16 +4148,16 @@
         <v>107</v>
       </c>
       <c r="C25" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="E25" s="57">
+        <v>0.93</v>
+      </c>
+      <c r="F25" s="37" t="s">
         <v>160</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="E25" s="58">
-        <v>0.93</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>161</v>
       </c>
       <c r="G25" s="37"/>
     </row>
@@ -4094,88 +4167,88 @@
         <v>108</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="58">
+        <v>174</v>
+      </c>
+      <c r="E26" s="57">
         <v>0.93</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="58">
+      <c r="E27" s="57">
         <v>0.93</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D28" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="58">
+      <c r="E28" s="57">
         <v>0.92</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" s="58">
+      <c r="E29" s="57">
         <v>0.93</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="58">
+      <c r="E30" s="57">
         <v>0.95</v>
       </c>
       <c r="F30" s="37"/>
@@ -4184,49 +4257,49 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="E31" s="57">
+        <v>0.92</v>
+      </c>
+      <c r="F31" s="37" t="s">
         <v>191</v>
-      </c>
-      <c r="E31" s="58">
-        <v>0.92</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>192</v>
       </c>
       <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="60"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C33" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="E33" s="58">
+      <c r="E33" s="57">
         <v>0.93</v>
       </c>
       <c r="F33" s="37"/>
@@ -4235,15 +4308,15 @@
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="58">
+        <v>211</v>
+      </c>
+      <c r="E34" s="57">
         <v>0.93</v>
       </c>
       <c r="F34" s="37"/>
@@ -4252,15 +4325,15 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="E35" s="58">
+        <v>237</v>
+      </c>
+      <c r="E35" s="57">
         <v>0.93</v>
       </c>
       <c r="F35" s="37"/>
@@ -4269,15 +4342,15 @@
     <row r="36" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="E36" s="58">
+        <v>248</v>
+      </c>
+      <c r="E36" s="57">
         <v>0.93</v>
       </c>
       <c r="F36" s="37"/>
@@ -4286,15 +4359,15 @@
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="E37" s="58">
+        <v>250</v>
+      </c>
+      <c r="E37" s="57">
         <v>0.93</v>
       </c>
       <c r="F37" s="37"/>
@@ -4303,15 +4376,15 @@
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38" s="58">
+        <v>251</v>
+      </c>
+      <c r="E38" s="57">
         <v>0.93</v>
       </c>
       <c r="F38" s="37"/>
@@ -4322,19 +4395,19 @@
         <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E39" s="58">
+        <v>253</v>
+      </c>
+      <c r="E39" s="57">
         <v>0.92</v>
       </c>
-      <c r="F39" s="51" t="s">
-        <v>276</v>
+      <c r="F39" s="50" t="s">
+        <v>274</v>
       </c>
       <c r="G39" s="4">
         <v>1078</v>
@@ -4342,156 +4415,156 @@
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="58">
+        <v>195</v>
+      </c>
+      <c r="E41" s="57">
         <v>0.93</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="58">
+        <v>158</v>
+      </c>
+      <c r="E42" s="57">
         <v>0.92</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" s="58">
+        <v>181</v>
+      </c>
+      <c r="E43" s="57">
         <v>0.92</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" s="58">
+        <v>194</v>
+      </c>
+      <c r="E44" s="57">
         <v>0.92</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="E45" s="58">
+        <v>188</v>
+      </c>
+      <c r="E45" s="57">
         <v>0.92</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="E46" s="58">
+        <v>278</v>
+      </c>
+      <c r="E46" s="57">
         <v>0.92</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="58">
+        <v>192</v>
+      </c>
+      <c r="E47" s="57">
         <v>0.92</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="D48" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="E48" s="58">
+        <v>282</v>
+      </c>
+      <c r="E48" s="57">
         <v>0.92</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -4499,16 +4572,16 @@
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4516,79 +4589,90 @@
         <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>346</v>
+    </row>
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4634,15 +4718,15 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="41" t="s">
         <v>28</v>
       </c>
@@ -4657,19 +4741,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>157</v>
-      </c>
       <c r="E4" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="G4" s="43" t="s">
         <v>150</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>151</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>61</v>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0B347B-2B21-4DEA-BBB5-A1498F641B69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421FF9A2-3CC9-4919-BEA4-5EBD74D493D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="362">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1197,6 +1197,30 @@
   </si>
   <si>
     <t>No longer get error, but return code is not right.  Test RCTEST which calls RCSUB1 and RCSUB2, RCTEST should get the return codes, it only gets 0.</t>
+  </si>
+  <si>
+    <t>License file added to Github, GNU GPL 2.0</t>
+  </si>
+  <si>
+    <t>S0059</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Create standard Copyright Slug that should go as a comment at the top of all Source Files, Scripts, Documentation or other public facing files.  Follow up to S0027 (license).</t>
+  </si>
+  <si>
+    <t>-RUN, then NET.  DNSINFO host ip then DNSINFO again and it lists host and then starts scrolling non stop a whole bunch of what looks like a memory dump filled with IP addresses.</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>S0060</t>
+  </si>
+  <si>
+    <t>Add an option to READ -L 22 that limits the length of the input to arg for -L, in this example only allow for 22 chars.</t>
   </si>
 </sst>
 </file>
@@ -1650,11 +1674,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1970,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,7 +3051,7 @@
       <c r="E49" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F49" s="62" t="s">
+      <c r="F49" s="61" t="s">
         <v>322</v>
       </c>
       <c r="G49">
@@ -3657,6 +3681,25 @@
       </c>
       <c r="E80" s="3" t="s">
         <v>352</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>172</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3672,10 +3715,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4200,7 +4243,9 @@
       <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="B28" s="37" t="s">
         <v>163</v>
       </c>
@@ -4214,7 +4259,7 @@
         <v>0.92</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="G28" s="37"/>
     </row>
@@ -4673,6 +4718,28 @@
       </c>
       <c r="D59" s="4" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4718,15 +4785,15 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="41" t="s">
         <v>28</v>
       </c>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421FF9A2-3CC9-4919-BEA4-5EBD74D493D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -18,10 +12,10 @@
     <sheet name="Commands" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$56</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1226,7 +1220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1986,33 +1980,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -2027,7 +2022,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -2040,7 +2035,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>121</v>
@@ -2053,7 +2048,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -2066,12 +2061,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -2094,7 +2089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2115,7 +2110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2137,7 +2132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -2159,7 +2154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2183,7 +2178,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -2207,7 +2202,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -2231,7 +2226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2253,7 +2248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2272,7 +2267,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2294,7 +2289,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2318,7 +2313,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -2340,7 +2335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2364,7 +2359,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2386,7 +2381,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2408,7 +2403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2430,7 +2425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2454,7 +2449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2476,7 +2471,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2500,7 +2495,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2521,7 +2516,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2545,7 +2540,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2569,7 +2564,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2593,7 +2588,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -2617,7 +2612,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2638,7 +2633,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2662,7 +2657,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2686,7 +2681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -2710,7 +2705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -2734,7 +2729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -2755,7 +2750,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2779,7 +2774,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2803,7 +2798,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -2827,7 +2822,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -2848,7 +2843,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -2872,7 +2867,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2893,7 +2888,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2917,7 +2912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -2938,7 +2933,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>121</v>
       </c>
@@ -2962,7 +2957,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2986,7 +2981,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3010,7 +3005,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -3034,7 +3029,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -3061,7 +3056,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3085,7 +3080,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
@@ -3109,7 +3104,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -3133,7 +3128,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -3151,7 +3146,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>46</v>
       </c>
@@ -3175,7 +3170,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>46</v>
       </c>
@@ -3196,7 +3191,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
@@ -3217,7 +3212,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>46</v>
       </c>
@@ -3241,7 +3236,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
@@ -3261,7 +3256,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -3281,7 +3276,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
@@ -3301,7 +3296,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -3324,7 +3319,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
@@ -3344,7 +3339,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
@@ -3364,7 +3359,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -3387,7 +3382,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
@@ -3407,7 +3402,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>46</v>
       </c>
@@ -3427,7 +3422,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>329</v>
       </c>
@@ -3450,7 +3445,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
         <v>160</v>
       </c>
@@ -3467,7 +3462,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B69" s="1">
         <v>161</v>
       </c>
@@ -3487,7 +3482,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
@@ -3507,7 +3502,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B71" s="1">
         <v>163</v>
       </c>
@@ -3521,7 +3516,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>46</v>
       </c>
@@ -3538,7 +3533,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>53</v>
       </c>
@@ -3555,7 +3550,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>46</v>
       </c>
@@ -3572,7 +3567,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>53</v>
       </c>
@@ -3589,7 +3584,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>46</v>
       </c>
@@ -3606,7 +3601,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>46</v>
       </c>
@@ -3629,7 +3624,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>53</v>
       </c>
@@ -3649,10 +3644,10 @@
         <v>353</v>
       </c>
       <c r="G78">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
@@ -3669,7 +3664,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B80" s="1">
         <v>171</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B81" s="1">
         <v>172</v>
       </c>
@@ -3697,13 +3692,20 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="1">
         <v>173</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A7:G82">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="D"/>
+        <filter val="V"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -3713,24 +3715,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3828,7 +3830,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3845,7 +3847,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3906,7 +3908,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -3940,7 +3942,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -3974,7 +3976,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -3991,7 +3993,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -4204,7 +4206,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -4223,7 +4225,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>162</v>
@@ -4242,7 +4244,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>46</v>
       </c>
@@ -4299,7 +4301,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>166</v>
@@ -4350,7 +4352,7 @@
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
     </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
         <v>169</v>
@@ -4365,9 +4367,11 @@
         <v>0.93</v>
       </c>
       <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="37">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>170</v>
@@ -4528,7 +4532,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>259</v>
       </c>
@@ -4629,7 +4633,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>46</v>
       </c>
@@ -4654,7 +4658,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>306</v>
       </c>
@@ -4720,7 +4724,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>355</v>
       </c>
@@ -4731,7 +4735,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
         <v>360</v>
       </c>
@@ -4743,9 +4747,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G56" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:G56">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="D"/>
       </filters>
     </filterColumn>
@@ -4759,27 +4763,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="41"/>
-    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="41"/>
-    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="41"/>
+    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="41"/>
+    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="41"/>
+    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
@@ -4798,12 +4802,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I3" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
@@ -4829,7 +4833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -4840,529 +4844,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="I6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="I8" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="I9" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="6"/>
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" s="46"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" s="46"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B96" s="47"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="47"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="47"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="47"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="47"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="47"/>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92486D8-F92E-46E6-9C15-43159EB18AC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$56</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="367">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1216,11 +1222,26 @@
   <si>
     <t>Add an option to READ -L 22 that limits the length of the input to arg for -L, in this example only allow for 22 chars.</t>
   </si>
+  <si>
+    <t>S0061</t>
+  </si>
+  <si>
+    <t>VEDRIVE</t>
+  </si>
+  <si>
+    <t>ADTPRO can serve up 2 images to an Apple which can connect to them through Ether or SSC.  VEDRIVE is the ether version.  Would it be possible to write our own driver that used the ADTPRO spec but written on top of our net apis to do the same.</t>
+  </si>
+  <si>
+    <t>Control-C to erase command line does not erase the right characters depending where on the line you are when you press it (I think it assumes you are always at the end and you may not be).</t>
+  </si>
+  <si>
+    <t>Cp filename1 filename2, no message and no file copied.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1980,34 +2001,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -2022,7 +2043,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -2035,7 +2056,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>121</v>
@@ -2048,7 +2069,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -2061,12 +2082,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -2089,7 +2110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2110,7 +2131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2132,7 +2153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -2154,7 +2175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2267,7 +2288,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2335,7 +2356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2359,7 +2380,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2381,7 +2402,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2403,7 +2424,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2449,7 +2470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2471,7 +2492,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2516,7 +2537,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2540,7 +2561,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2612,7 +2633,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2633,7 +2654,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2774,7 +2795,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2798,7 +2819,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -2867,7 +2888,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2888,7 +2909,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2912,7 +2933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -2933,7 +2954,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>121</v>
       </c>
@@ -2981,7 +3002,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3029,7 +3050,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -3056,7 +3077,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3104,7 +3125,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -3236,7 +3257,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
@@ -3319,7 +3340,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
@@ -3339,7 +3360,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
@@ -3359,7 +3380,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -3382,7 +3403,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
@@ -3402,7 +3423,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>46</v>
       </c>
@@ -3422,7 +3443,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>329</v>
       </c>
@@ -3445,7 +3466,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>160</v>
       </c>
@@ -3462,7 +3483,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>161</v>
       </c>
@@ -3482,7 +3503,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
@@ -3502,7 +3523,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>163</v>
       </c>
@@ -3516,7 +3537,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>46</v>
       </c>
@@ -3533,7 +3554,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>53</v>
       </c>
@@ -3550,7 +3571,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>46</v>
       </c>
@@ -3567,7 +3588,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>53</v>
       </c>
@@ -3584,7 +3605,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>46</v>
       </c>
@@ -3624,7 +3645,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>53</v>
       </c>
@@ -3647,7 +3668,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
@@ -3664,7 +3685,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>171</v>
       </c>
@@ -3678,7 +3699,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>172</v>
       </c>
@@ -3692,13 +3713,36 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>173</v>
       </c>
+      <c r="C82" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1100</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>174</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G82">
+  <autoFilter ref="A7:G82" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="D"/>
@@ -3715,24 +3759,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3830,7 +3874,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3847,7 +3891,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3908,7 +3952,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -3942,7 +3986,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -3976,7 +4020,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -3993,7 +4037,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -4206,7 +4250,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -4225,7 +4269,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>162</v>
@@ -4244,7 +4288,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>46</v>
       </c>
@@ -4301,7 +4345,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>166</v>
@@ -4352,7 +4396,7 @@
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
     </row>
-    <row r="34" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
         <v>169</v>
@@ -4371,7 +4415,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>170</v>
@@ -4532,7 +4576,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>259</v>
       </c>
@@ -4633,7 +4677,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>46</v>
       </c>
@@ -4658,7 +4702,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>306</v>
       </c>
@@ -4724,7 +4768,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>355</v>
       </c>
@@ -4735,7 +4779,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>360</v>
       </c>
@@ -4746,8 +4790,19 @@
         <v>361</v>
       </c>
     </row>
+    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G56">
+  <autoFilter ref="A1:G56" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="D"/>
@@ -4763,27 +4818,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="41"/>
-    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="41"/>
-    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="41"/>
+    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="41"/>
+    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="41"/>
+    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
@@ -4802,12 +4857,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I3" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
@@ -4833,7 +4888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -4844,529 +4899,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="I6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="I8" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="I9" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="46"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="46"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="47"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="47"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="47"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="47"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="47"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="47"/>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92486D8-F92E-46E6-9C15-43159EB18AC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -18,10 +12,10 @@
     <sheet name="Commands" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$56</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="371">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1237,11 +1231,27 @@
   <si>
     <t>Cp filename1 filename2, no message and no file copied.</t>
   </si>
+  <si>
+    <t>MT,PM</t>
+  </si>
+  <si>
+    <t>MT = Multiple thread : BIN can be executed simultaneously in multiple sessions
+- CODE must not use SELF MODIFIED code
+- CODE must avoid MASQUED CODE for 2 bytes instruction (e.g. .HS 2C for BIT abs)
+- CODE must not write CS segment initialized DATA</t>
+  </si>
+  <si>
+    <t>PM = Preemptive mode : BIN excecution while INIT/RUN/QUIT is "time sliced" (SYS Clock required, PM mode must be enabled in KCONFIG)
+- same as MT</t>
+  </si>
+  <si>
+    <t>see impact in RCTEST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1521,7 +1531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1694,6 +1704,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2001,34 +2023,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -2043,7 +2065,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -2056,7 +2078,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>121</v>
@@ -2069,7 +2091,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -2082,12 +2104,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -2110,7 +2132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2131,7 +2153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2153,7 +2175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -2175,7 +2197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2288,7 +2310,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2356,7 +2378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2402,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2470,7 +2492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2537,7 +2559,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2633,7 +2655,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2795,7 +2817,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2888,7 +2910,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2933,7 +2955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -3050,7 +3072,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -3125,7 +3147,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -3340,7 +3362,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
@@ -3380,7 +3402,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -3443,7 +3465,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>329</v>
       </c>
@@ -3466,7 +3488,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
         <v>160</v>
       </c>
@@ -3483,7 +3505,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B69" s="1">
         <v>161</v>
       </c>
@@ -3503,7 +3525,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
@@ -3523,7 +3545,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B71" s="1">
         <v>163</v>
       </c>
@@ -3554,7 +3576,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>53</v>
       </c>
@@ -3588,7 +3610,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>53</v>
       </c>
@@ -3645,7 +3667,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>53</v>
       </c>
@@ -3668,7 +3690,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
@@ -3685,7 +3707,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B80" s="1">
         <v>171</v>
       </c>
@@ -3699,7 +3721,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B81" s="1">
         <v>172</v>
       </c>
@@ -3712,8 +3734,11 @@
       <c r="E81" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B82" s="1">
         <v>173</v>
       </c>
@@ -3726,8 +3751,11 @@
       <c r="E82" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B83" s="1">
         <v>174</v>
       </c>
@@ -3740,9 +3768,15 @@
       <c r="E83" s="3" t="s">
         <v>366</v>
       </c>
+      <c r="F83" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G83">
+        <v>1111</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G82" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:G83">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="D"/>
@@ -3759,24 +3793,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3874,7 +3908,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3891,7 +3925,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3952,7 +3986,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -3986,7 +4020,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -4020,7 +4054,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -4037,7 +4071,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -4250,7 +4284,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -4269,7 +4303,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>162</v>
@@ -4288,7 +4322,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>46</v>
       </c>
@@ -4345,7 +4379,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>166</v>
@@ -4415,7 +4449,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>170</v>
@@ -4576,7 +4610,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>259</v>
       </c>
@@ -4677,7 +4711,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>46</v>
       </c>
@@ -4702,7 +4736,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>306</v>
       </c>
@@ -4768,7 +4802,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>355</v>
       </c>
@@ -4779,7 +4813,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
         <v>360</v>
       </c>
@@ -4790,7 +4824,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
         <v>362</v>
       </c>
@@ -4802,7 +4836,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G56" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:G56">
     <filterColumn colId="0">
       <filters>
         <filter val="D"/>
@@ -4818,615 +4852,662 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:I106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="41"/>
-    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="41"/>
-    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="41"/>
+    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="41"/>
+    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="41"/>
+    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+    </row>
+    <row r="4" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+    </row>
+    <row r="5" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I7" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C8" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D8" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E8" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F8" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G8" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H8" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="I5" s="41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="I6" s="41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="I7" s="41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
       <c r="I8" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="I9" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="6"/>
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="6"/>
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="46"/>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="6"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="46"/>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="6"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="6"/>
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="47"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="47"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="47"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I90" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B91" s="46"/>
+      <c r="I91" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B92" s="46"/>
+      <c r="I92" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I93" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="47"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="47"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B102" s="47"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="47"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="47"/>
+    <row r="105" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B105" s="47"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="47"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="47"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC760D8-303D-49FD-ABE8-8290126DB897}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
     <sheet name="Suggestions" sheetId="2" r:id="rId2"/>
     <sheet name="Commands" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$63</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="401">
   <si>
     <t>Issue No.</t>
   </si>
@@ -532,9 +539,6 @@
     <t>Doc.</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>We need a document that discusses the tools and processes one uses to work on the A2OSX project.  Examples include the TortoiseSVN package to contribute, MarkDownPad to edit MD and other DOC files on github.  Github tools and registration.  How to edit, compile and run a program under A2OSX.</t>
   </si>
   <si>
@@ -1190,9 +1194,6 @@
     <t>When I telnet to linux, when session starts it is already asking me for my password as Telnet has sent a CR/LF or whatever and pushed me passed the login prompt.  Yes you can just press return and get another one.</t>
   </si>
   <si>
-    <t>No longer get error, but return code is not right.  Test RCTEST which calls RCSUB1 and RCSUB2, RCTEST should get the return codes, it only gets 0.</t>
-  </si>
-  <si>
     <t>License file added to Github, GNU GPL 2.0</t>
   </si>
   <si>
@@ -1247,11 +1248,107 @@
   <si>
     <t>see impact in RCTEST</t>
   </si>
+  <si>
+    <t>S0062</t>
+  </si>
+  <si>
+    <t>Add SET -E option to continute on error in scripts (implies hiding error ptr) and not display 3 error lines and with out -E shell should print error msgs and STOP executing script.  Current behavior is it both prints errors and continues execution.</t>
+  </si>
+  <si>
+    <t>S0063</t>
+  </si>
+  <si>
+    <t>Console</t>
+  </si>
+  <si>
+    <t>Can we add the \a or bell special char so we can ECHO "\a" a bell per the VT100 standard?  Is this a big thing (lot of code or a simple apple call)?</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CD return code not set properly with success, it is set right on errors.</t>
+  </si>
+  <si>
+    <t>see CDTEST</t>
+  </si>
+  <si>
+    <t>Memory Check Sheet</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Free Ptr</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Avail</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Aux</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>$2000</t>
+  </si>
+  <si>
+    <t>$86E0</t>
+  </si>
+  <si>
+    <t>$BD00</t>
+  </si>
+  <si>
+    <t>26336</t>
+  </si>
+  <si>
+    <t>$9800</t>
+  </si>
+  <si>
+    <t>30720</t>
+  </si>
+  <si>
+    <t>$ED5C</t>
+  </si>
+  <si>
+    <t>$F459</t>
+  </si>
+  <si>
+    <t>$FFFA</t>
+  </si>
+  <si>
+    <t>02977</t>
+  </si>
+  <si>
+    <t>S0064</t>
+  </si>
+  <si>
+    <t>Tweak</t>
+  </si>
+  <si>
+    <t>Rename A2OSX.BUILD to just A2OSX or BUILD, it saves memory and shortens PATH.  Move files in BIN/DEV to BIN and remove BIN/DEV from PATH (done in INIT).  Add USR/BIN to PATH (for User Scripts and programs).</t>
+  </si>
+  <si>
+    <t>S0065</t>
+  </si>
+  <si>
+    <t>Get rid of $LIB and $DRV. Make programs that rely on those vars look at ${ROOT}LIB/ or DRV/.  This will save ENV space which is limited.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1531,7 +1628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1705,16 +1802,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2023,34 +2123,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -2065,7 +2164,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -2078,7 +2177,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>121</v>
@@ -2091,7 +2190,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -2104,12 +2203,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +2231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2153,7 +2252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2175,7 +2274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -2197,7 +2296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2221,7 +2320,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -2245,7 +2344,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -2263,13 +2362,13 @@
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2291,7 +2390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2310,7 +2409,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2332,7 +2431,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2356,7 +2455,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -2378,7 +2477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2396,13 +2495,13 @@
         <v>32</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G19">
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2424,7 +2523,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2446,7 +2545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2468,7 +2567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2486,13 +2585,13 @@
         <v>48</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2514,7 +2613,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2538,7 +2637,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2559,7 +2658,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2583,7 +2682,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2607,7 +2706,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2631,7 +2730,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -2649,13 +2748,13 @@
         <v>117</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G30">
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2676,7 +2775,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2694,13 +2793,13 @@
         <v>129</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G32">
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2724,7 +2823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -2742,13 +2841,13 @@
         <v>139</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -2772,7 +2871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -2781,19 +2880,19 @@
         <v>128</v>
       </c>
       <c r="C36" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G36">
         <v>0.92</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2808,16 +2907,16 @@
         <v>1034</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G37">
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2826,22 +2925,22 @@
         <v>130</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D38" s="2">
         <v>1034</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G38" s="51">
         <v>0.92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -2856,16 +2955,16 @@
         <v>1037</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G39">
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -2874,19 +2973,19 @@
         <v>132</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D40" s="2">
         <v>1037</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G40">
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -2901,16 +3000,16 @@
         <v>1047</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G41" s="53">
         <v>1079</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2925,13 +3024,13 @@
         <v>1047</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G42">
         <v>0.93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2946,16 +3045,16 @@
         <v>1047</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F43" s="48" t="s">
-        <v>225</v>
-      </c>
       <c r="G43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -2970,13 +3069,13 @@
         <v>1047</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>121</v>
       </c>
@@ -2991,16 +3090,16 @@
         <v>1047</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G45">
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -3015,16 +3114,16 @@
         <v>1047</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G46">
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3033,22 +3132,22 @@
         <v>139</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D47" s="2">
         <v>1047</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G47">
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -3063,16 +3162,16 @@
         <v>1047</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G48">
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -3081,25 +3180,22 @@
         <v>141</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D49" s="2">
         <v>1047</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G49">
         <v>0.93</v>
       </c>
-      <c r="H49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3114,16 +3210,16 @@
         <v>1047</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F50" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="G50" t="s">
         <v>241</v>
       </c>
-      <c r="G50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
@@ -3132,22 +3228,22 @@
         <v>143</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D51" s="2">
         <v>1047</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G51">
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -3156,22 +3252,22 @@
         <v>144</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D52" s="2">
         <v>1047</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G52">
         <v>0.93</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -3180,16 +3276,16 @@
         <v>145</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D53" s="2">
         <v>1047</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>46</v>
       </c>
@@ -3204,16 +3300,13 @@
         <v>1047</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="H54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>46</v>
       </c>
@@ -3228,13 +3321,13 @@
         <v>1069</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G55" s="53">
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
@@ -3249,13 +3342,13 @@
         <v>1069</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G56">
         <v>1078</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>46</v>
       </c>
@@ -3270,16 +3363,16 @@
         <v>1069</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G57">
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
@@ -3293,13 +3386,13 @@
         <v>1069</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G58">
         <v>1078</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -3313,13 +3406,13 @@
         <v>1069</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G59">
         <v>1072</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
@@ -3327,19 +3420,19 @@
         <v>152</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D60" s="2">
         <v>1069</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G60">
         <v>1071</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -3353,16 +3446,16 @@
         <v>1069</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G61">
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
@@ -3370,19 +3463,19 @@
         <v>154</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D62" s="2">
         <v>1072</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G62">
         <v>0.93</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
@@ -3390,19 +3483,19 @@
         <v>155</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D63" s="2">
         <v>1075</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G63">
         <v>1078</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -3416,16 +3509,16 @@
         <v>1075</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G64" s="51">
         <v>0.92</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
@@ -3439,13 +3532,13 @@
         <v>1075</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G65">
         <v>1078</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>46</v>
       </c>
@@ -3459,73 +3552,73 @@
         <v>1075</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G66">
         <v>1078</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B67" s="1">
         <v>159</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D67" s="2">
         <v>1075</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G67" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>160</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D68" s="2">
         <v>1075</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>161</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D69" s="2">
         <v>1075</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G69">
         <v>0.93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
@@ -3539,13 +3632,13 @@
         <v>1075</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G70">
         <v>1078</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>163</v>
       </c>
@@ -3556,10 +3649,10 @@
         <v>1075</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>46</v>
       </c>
@@ -3573,10 +3666,10 @@
         <v>1079</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>53</v>
       </c>
@@ -3590,10 +3683,10 @@
         <v>1079</v>
       </c>
       <c r="E73" s="52" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>46</v>
       </c>
@@ -3601,16 +3694,16 @@
         <v>166</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D74" s="2">
         <v>1079</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>53</v>
       </c>
@@ -3624,10 +3717,10 @@
         <v>1081</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>46</v>
       </c>
@@ -3641,10 +3734,10 @@
         <v>1081</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>46</v>
       </c>
@@ -3658,39 +3751,37 @@
         <v>1081</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="G77">
         <v>1085</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B78" s="1">
         <v>170</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D78" s="2">
         <v>1081</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F78" s="39" t="s">
-        <v>353</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="F78" s="48"/>
       <c r="G78">
         <v>1107</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
@@ -3698,16 +3789,19 @@
         <v>171</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D79" s="2">
         <v>1085</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B80" s="1">
         <v>171</v>
       </c>
@@ -3718,10 +3812,16 @@
         <v>1100</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+      <c r="G80">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B81" s="1">
         <v>172</v>
       </c>
@@ -3732,13 +3832,16 @@
         <v>1100</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G81">
         <v>1111</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B82" s="1">
         <v>173</v>
       </c>
@@ -3749,13 +3852,16 @@
         <v>1100</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G82">
         <v>1111</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B83" s="1">
         <v>174</v>
       </c>
@@ -3766,24 +3872,37 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G83">
         <v>1111</v>
       </c>
     </row>
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="1">
+        <v>175</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1120</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:G83">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="D"/>
-        <filter val="V"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:G83" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -3793,24 +3912,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3853,7 +3971,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>46</v>
       </c>
@@ -3908,7 +4026,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -3925,7 +4043,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -3942,7 +4060,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
@@ -3959,13 +4077,13 @@
         <v>45</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G8" s="37">
         <v>1078</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>46</v>
       </c>
@@ -3982,11 +4100,11 @@
         <v>0.92</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -4020,7 +4138,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -4054,7 +4172,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -4071,7 +4189,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -4088,7 +4206,7 @@
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>46</v>
       </c>
@@ -4105,7 +4223,7 @@
         <v>0.92</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G16" s="37"/>
     </row>
@@ -4126,7 +4244,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>46</v>
       </c>
@@ -4143,7 +4261,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G18" s="37"/>
     </row>
@@ -4162,7 +4280,7 @@
         <v>0.93</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G19" s="37"/>
     </row>
@@ -4181,7 +4299,7 @@
         <v>0.92</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="37"/>
     </row>
@@ -4191,10 +4309,10 @@
         <v>103</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="57">
         <v>0.93</v>
@@ -4202,7 +4320,7 @@
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
@@ -4219,11 +4337,11 @@
         <v>0.92</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>46</v>
       </c>
@@ -4242,7 +4360,7 @@
       </c>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>46</v>
       </c>
@@ -4259,7 +4377,7 @@
         <v>0.92</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G24" s="37">
         <v>1039</v>
@@ -4271,107 +4389,107 @@
         <v>107</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25" s="57">
         <v>0.93</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26" s="57">
         <v>0.93</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="37" t="s">
         <v>175</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>176</v>
       </c>
       <c r="E27" s="57">
         <v>0.93</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>177</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>178</v>
       </c>
       <c r="E28" s="57">
         <v>0.92</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>182</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>183</v>
       </c>
       <c r="E29" s="57">
         <v>0.93</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="37" t="s">
         <v>186</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>187</v>
       </c>
       <c r="E30" s="57">
         <v>0.95</v>
@@ -4379,35 +4497,35 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="37" t="s">
         <v>189</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>190</v>
       </c>
       <c r="E31" s="57">
         <v>0.92</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="37" t="s">
         <v>196</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>197</v>
       </c>
       <c r="E32" s="59"/>
       <c r="F32" s="37"/>
@@ -4416,13 +4534,13 @@
     <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>219</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>220</v>
       </c>
       <c r="E33" s="57">
         <v>0.93</v>
@@ -4433,13 +4551,13 @@
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E34" s="57">
         <v>0.93</v>
@@ -4449,16 +4567,16 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E35" s="57">
         <v>0.93</v>
@@ -4469,13 +4587,13 @@
     <row r="36" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>247</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>248</v>
       </c>
       <c r="E36" s="57">
         <v>0.93</v>
@@ -4486,13 +4604,13 @@
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C37" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="37" t="s">
         <v>249</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>250</v>
       </c>
       <c r="E37" s="57">
         <v>0.93</v>
@@ -4503,13 +4621,13 @@
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>154</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E38" s="57">
         <v>0.93</v>
@@ -4517,24 +4635,24 @@
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E39" s="57">
         <v>0.92</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G39" s="4">
         <v>1078</v>
@@ -4542,27 +4660,27 @@
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E41" s="57">
         <v>0.93</v>
@@ -4570,13 +4688,13 @@
     </row>
     <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E42" s="57">
         <v>0.92</v>
@@ -4584,13 +4702,13 @@
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E43" s="57">
         <v>0.92</v>
@@ -4598,27 +4716,27 @@
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E44" s="57">
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E45" s="57">
         <v>0.92</v>
@@ -4626,13 +4744,13 @@
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E46" s="57">
         <v>0.92</v>
@@ -4640,13 +4758,13 @@
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E47" s="57">
         <v>0.92</v>
@@ -4654,195 +4772,233 @@
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E48" s="57">
         <v>0.92</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="D49" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D60" s="4" t="s">
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B61" s="4" t="s">
+      <c r="D61" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>364</v>
+    </row>
+    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G56">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="D"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G63" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -4852,46 +5008,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="41"/>
-    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="41"/>
-    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="41"/>
+    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="41"/>
+    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="41"/>
+    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="B2" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -4900,9 +5056,9 @@
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="64" t="s">
-        <v>368</v>
+    <row r="4" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="65" t="s">
+        <v>366</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -4911,18 +5067,18 @@
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
     </row>
-    <row r="5" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -4931,12 +5087,12 @@
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
     </row>
-    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
@@ -4962,7 +5118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>58</v>
       </c>
@@ -4972,535 +5128,535 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I9" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I90" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="46"/>
       <c r="I91" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="46"/>
       <c r="I92" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I93" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="47"/>
     </row>
-    <row r="102" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="47"/>
     </row>
-    <row r="105" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="47"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="47"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="47"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="47"/>
     </row>
   </sheetData>
@@ -5512,4 +5668,115 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E12D459-7A3B-43CD-9A95-0F7C890F4CFC}">
+  <dimension ref="A3:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H5" t="s">
+        <v>384</v>
+      </c>
+      <c r="L5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J6" t="s">
+        <v>382</v>
+      </c>
+      <c r="K6" t="s">
+        <v>379</v>
+      </c>
+      <c r="L6" t="s">
+        <v>380</v>
+      </c>
+      <c r="M6" t="s">
+        <v>381</v>
+      </c>
+      <c r="N6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="K7" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="L7" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="M7" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="N7" s="63" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC760D8-303D-49FD-ABE8-8290126DB897}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3465CA62-2B07-473B-8C94-C76DA0A3A467}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
     <sheet name="Suggestions" sheetId="2" r:id="rId2"/>
     <sheet name="Commands" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Memory" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$83</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="402">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1336,13 +1336,16 @@
     <t>Tweak</t>
   </si>
   <si>
-    <t>Rename A2OSX.BUILD to just A2OSX or BUILD, it saves memory and shortens PATH.  Move files in BIN/DEV to BIN and remove BIN/DEV from PATH (done in INIT).  Add USR/BIN to PATH (for User Scripts and programs).</t>
-  </si>
-  <si>
     <t>S0065</t>
   </si>
   <si>
     <t>Get rid of $LIB and $DRV. Make programs that rely on those vars look at ${ROOT}LIB/ or DRV/.  This will save ENV space which is limited.</t>
+  </si>
+  <si>
+    <t>If are editing a new file "EDIT NEWFILE" when you go to save the first time the name field is blank, you have to enter the name again.  Update: this happens multiple times while editing the file.</t>
+  </si>
+  <si>
+    <t>Rename A2OSX.BUILD to A2DEV, it saves memory and shortens PATH.  Also A2DEV reflects that it is a development image, not a production/test/release image.  Move files in BIN/DEV to BIN and remove BIN/DEV from PATH (done in INIT).  Add USR/BIN to PATH (for User Scripts and programs).</t>
   </si>
 </sst>
 </file>
@@ -2131,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A79" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3901,6 +3904,20 @@
         <v>376</v>
       </c>
     </row>
+    <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>176</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1129</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A7:G83" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3915,8 +3932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4975,7 +4992,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>396</v>
       </c>
@@ -4983,18 +5000,18 @@
         <v>397</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>397</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3465CA62-2B07-473B-8C94-C76DA0A3A467}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B772D6F-89AF-4C84-B753-C3F24799292E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="416">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1276,9 +1276,6 @@
     <t>Memory Check Sheet</t>
   </si>
   <si>
-    <t>Base</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -1346,6 +1343,51 @@
   </si>
   <si>
     <t>Rename A2OSX.BUILD to A2DEV, it saves memory and shortens PATH.  Also A2DEV reflects that it is a development image, not a production/test/release image.  Move files in BIN/DEV to BIN and remove BIN/DEV from PATH (done in INIT).  Add USR/BIN to PATH (for User Scripts and programs).</t>
+  </si>
+  <si>
+    <t>$1FFD</t>
+  </si>
+  <si>
+    <t>$7BE0</t>
+  </si>
+  <si>
+    <t>23523</t>
+  </si>
+  <si>
+    <t>$199F</t>
+  </si>
+  <si>
+    <t>$9A80</t>
+  </si>
+  <si>
+    <t>32993</t>
+  </si>
+  <si>
+    <t>$EE0A</t>
+  </si>
+  <si>
+    <t>$EF4A</t>
+  </si>
+  <si>
+    <t>04272</t>
+  </si>
+  <si>
+    <t>$1FEE</t>
+  </si>
+  <si>
+    <t>$7EE0</t>
+  </si>
+  <si>
+    <t>24306</t>
+  </si>
+  <si>
+    <t>$EDE0</t>
+  </si>
+  <si>
+    <t>$EF20</t>
+  </si>
+  <si>
+    <t>04314</t>
   </si>
 </sst>
 </file>
@@ -3915,7 +3957,7 @@
         <v>1129</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +3974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
@@ -4994,24 +5036,24 @@
     </row>
     <row r="65" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5689,10 +5731,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E12D459-7A3B-43CD-9A95-0F7C890F4CFC}">
-  <dimension ref="A3:N7"/>
+  <dimension ref="A3:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5704,92 +5746,174 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" t="s">
         <v>383</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>384</v>
-      </c>
-      <c r="L5" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" t="s">
         <v>379</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>380</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>381</v>
       </c>
-      <c r="F6" t="s">
-        <v>382</v>
-      </c>
       <c r="G6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H6" t="s">
         <v>379</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>380</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>381</v>
       </c>
-      <c r="J6" t="s">
-        <v>382</v>
-      </c>
       <c r="K6" t="s">
+        <v>378</v>
+      </c>
+      <c r="L6" t="s">
         <v>379</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>380</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>381</v>
       </c>
-      <c r="N6" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>378</v>
+      <c r="A7">
+        <v>1117</v>
       </c>
       <c r="C7" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="E7" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="F7" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="G7" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="H7" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="G7" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="H7" s="63" t="s">
+      <c r="I7" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="J7" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="I7" s="63" t="s">
-        <v>390</v>
-      </c>
-      <c r="J7" s="63" t="s">
+      <c r="K7" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="L7" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="L7" s="63" t="s">
+      <c r="M7" s="63" t="s">
         <v>393</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="N7" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="N7" s="63" t="s">
-        <v>395</v>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1127</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>406</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>407</v>
+      </c>
+      <c r="L8" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="M8" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N8" s="63" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1137</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>406</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="L9" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="M9" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N9" s="63" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B772D6F-89AF-4C84-B753-C3F24799292E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02494A4-09EB-41D8-9DC0-A59B44D10CC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="425">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1339,9 +1339,6 @@
     <t>Get rid of $LIB and $DRV. Make programs that rely on those vars look at ${ROOT}LIB/ or DRV/.  This will save ENV space which is limited.</t>
   </si>
   <si>
-    <t>If are editing a new file "EDIT NEWFILE" when you go to save the first time the name field is blank, you have to enter the name again.  Update: this happens multiple times while editing the file.</t>
-  </si>
-  <si>
     <t>Rename A2OSX.BUILD to A2DEV, it saves memory and shortens PATH.  Also A2DEV reflects that it is a development image, not a production/test/release image.  Move files in BIN/DEV to BIN and remove BIN/DEV from PATH (done in INIT).  Add USR/BIN to PATH (for User Scripts and programs).</t>
   </si>
   <si>
@@ -1388,6 +1385,36 @@
   </si>
   <si>
     <t>04314</t>
+  </si>
+  <si>
+    <t>MORE on anyfile fails with [$06] unknown error</t>
+  </si>
+  <si>
+    <t>$ED99</t>
+  </si>
+  <si>
+    <t>$EED9</t>
+  </si>
+  <si>
+    <t>04385</t>
+  </si>
+  <si>
+    <t>set -x</t>
+  </si>
+  <si>
+    <t>SETXTEST fails.  IFTEST fails.  Any script with SET -X in it gives [$02]:Unknown error.</t>
+  </si>
+  <si>
+    <t>Return Code</t>
+  </si>
+  <si>
+    <t>RCTEST failed, calling RCSUB2 should return 20 it returns 0.</t>
+  </si>
+  <si>
+    <t>TELNET to linux, it says connected but I never get Login prompt from host.  Telnet to a80s seems to work fine.  Tried at both fast and normal speeds.</t>
+  </si>
+  <si>
+    <t>If are editing a new file "EDIT NEWFILE" when you go to save the first time the name field is blank, you have to enter the name again.  Update: this happens multiple times while editing the file. Update 2, ha[ppens with old files too.  Cd to ETC then EDIT HOSTS make changes and ctrl-S, file name will be blank.</t>
   </si>
 </sst>
 </file>
@@ -2176,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3946,7 +3973,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>176</v>
       </c>
@@ -3957,7 +3984,63 @@
         <v>1129</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>399</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>177</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1139</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>178</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1139</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>179</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1139</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>180</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1139</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -5042,7 +5125,7 @@
         <v>396</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
@@ -5731,10 +5814,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E12D459-7A3B-43CD-9A95-0F7C890F4CFC}">
-  <dimension ref="A3:N9"/>
+  <dimension ref="A3:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5839,40 +5922,40 @@
         <v>1127</v>
       </c>
       <c r="C8" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" s="63" t="s">
         <v>401</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>402</v>
       </c>
       <c r="E8" s="63" t="s">
         <v>387</v>
       </c>
       <c r="F8" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="H8" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="I8" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J8" s="63" t="s">
         <v>405</v>
       </c>
-      <c r="I8" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="J8" s="63" t="s">
+      <c r="K8" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="L8" s="63" t="s">
         <v>407</v>
-      </c>
-      <c r="L8" s="63" t="s">
-        <v>408</v>
       </c>
       <c r="M8" s="63" t="s">
         <v>393</v>
       </c>
       <c r="N8" s="63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5880,40 +5963,81 @@
         <v>1137</v>
       </c>
       <c r="C9" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" s="63" t="s">
         <v>410</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>411</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>387</v>
       </c>
       <c r="F9" s="63" t="s">
+        <v>411</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K9" s="63" t="s">
         <v>412</v>
       </c>
-      <c r="G9" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="H9" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>406</v>
-      </c>
-      <c r="K9" s="63" t="s">
+      <c r="L9" s="63" t="s">
         <v>413</v>
-      </c>
-      <c r="L9" s="63" t="s">
-        <v>414</v>
       </c>
       <c r="M9" s="63" t="s">
         <v>393</v>
       </c>
       <c r="N9" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1139</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>411</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K10" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="L10" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="M10" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N10" s="63" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02494A4-09EB-41D8-9DC0-A59B44D10CC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -19,10 +13,10 @@
     <sheet name="Memory" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$63</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="426">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1416,11 +1410,14 @@
   <si>
     <t>If are editing a new file "EDIT NEWFILE" when you go to save the first time the name field is blank, you have to enter the name again.  Update: this happens multiple times while editing the file. Update 2, ha[ppens with old files too.  Cd to ETC then EDIT HOSTS make changes and ctrl-S, file name will be blank.</t>
   </si>
+  <si>
+    <t>cannot reproduce on 1142</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2195,33 +2192,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -2236,7 +2234,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -2249,7 +2247,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>121</v>
@@ -2262,7 +2260,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -2275,12 +2273,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -2303,7 +2301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2324,7 +2322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2346,7 +2344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -2368,7 +2366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2392,7 +2390,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -2416,7 +2414,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2462,7 +2460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2481,7 +2479,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2527,7 +2525,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -2549,7 +2547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2595,7 +2593,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2617,7 +2615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2639,7 +2637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2663,7 +2661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2685,7 +2683,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2730,7 +2728,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2754,7 +2752,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2778,7 +2776,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2802,7 +2800,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -2826,7 +2824,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2847,7 +2845,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2871,7 +2869,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2895,7 +2893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -2919,7 +2917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -2943,7 +2941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -2964,7 +2962,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2988,7 +2986,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -3012,7 +3010,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -3036,7 +3034,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -3057,7 +3055,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -3081,7 +3079,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -3102,7 +3100,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -3126,7 +3124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -3147,7 +3145,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>121</v>
       </c>
@@ -3171,7 +3169,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -3195,7 +3193,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3219,7 +3217,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -3243,7 +3241,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -3267,7 +3265,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3291,7 +3289,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
@@ -3315,7 +3313,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -3339,7 +3337,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -3357,7 +3355,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>46</v>
       </c>
@@ -3378,7 +3376,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>46</v>
       </c>
@@ -3399,7 +3397,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
@@ -3420,7 +3418,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>46</v>
       </c>
@@ -3444,7 +3442,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
@@ -3464,7 +3462,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -3484,7 +3482,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
@@ -3504,7 +3502,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -3527,7 +3525,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
@@ -3547,7 +3545,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
@@ -3567,7 +3565,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -3590,7 +3588,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
@@ -3610,7 +3608,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>46</v>
       </c>
@@ -3630,7 +3628,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>328</v>
       </c>
@@ -3653,7 +3651,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
         <v>160</v>
       </c>
@@ -3670,7 +3668,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B69" s="1">
         <v>161</v>
       </c>
@@ -3690,7 +3688,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
@@ -3710,7 +3708,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B71" s="1">
         <v>163</v>
       </c>
@@ -3724,7 +3722,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>46</v>
       </c>
@@ -3741,7 +3739,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>53</v>
       </c>
@@ -3758,7 +3756,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>46</v>
       </c>
@@ -3775,7 +3773,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>53</v>
       </c>
@@ -3792,7 +3790,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>46</v>
       </c>
@@ -3809,7 +3807,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>46</v>
       </c>
@@ -3832,7 +3830,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>46</v>
       </c>
@@ -3853,7 +3851,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
@@ -3870,7 +3868,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>53</v>
       </c>
@@ -3890,7 +3888,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>46</v>
       </c>
@@ -3910,7 +3908,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>46</v>
       </c>
@@ -3930,7 +3928,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>46</v>
       </c>
@@ -3953,7 +3951,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>46</v>
       </c>
@@ -3973,7 +3971,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B85" s="1">
         <v>176</v>
       </c>
@@ -3986,8 +3984,11 @@
       <c r="E85" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F85" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B86" s="1">
         <v>177</v>
       </c>
@@ -4000,8 +4001,11 @@
       <c r="E86" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B87" s="1">
         <v>178</v>
       </c>
@@ -4014,8 +4018,11 @@
       <c r="E87" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B88" s="1">
         <v>179</v>
       </c>
@@ -4029,7 +4036,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B89" s="1">
         <v>180</v>
       </c>
@@ -4044,7 +4051,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G83" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A7:G89">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="D"/>
+        <filter val="V"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -4054,23 +4068,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -4168,7 +4182,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -4185,7 +4199,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -4202,7 +4216,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
@@ -4246,7 +4260,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -4280,7 +4294,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -4314,7 +4328,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -4331,7 +4345,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -4544,7 +4558,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -4563,7 +4577,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>161</v>
@@ -4582,7 +4596,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>46</v>
       </c>
@@ -4639,7 +4653,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>165</v>
@@ -4709,7 +4723,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>169</v>
@@ -4870,7 +4884,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>258</v>
       </c>
@@ -4971,7 +4985,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>46</v>
       </c>
@@ -4996,7 +5010,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>305</v>
       </c>
@@ -5128,7 +5142,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>397</v>
       </c>
@@ -5140,7 +5154,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G63" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G63"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5150,27 +5164,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="41"/>
-    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="41"/>
-    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="41"/>
+    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="41"/>
+    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="41"/>
+    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
@@ -5189,7 +5203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -5198,7 +5212,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="65" t="s">
         <v>366</v>
       </c>
@@ -5209,7 +5223,7 @@
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
     </row>
-    <row r="5" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="65" t="s">
         <v>367</v>
       </c>
@@ -5220,7 +5234,7 @@
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -5229,12 +5243,12 @@
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
@@ -5260,7 +5274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>58</v>
       </c>
@@ -5276,529 +5290,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="6"/>
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B86" s="6"/>
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" s="6"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" s="6"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B89" s="6"/>
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I90" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B91" s="46"/>
       <c r="I91" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B92" s="46"/>
       <c r="I92" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I93" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="47"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="47"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="47"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="47"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="47"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="47"/>
     </row>
   </sheetData>
@@ -5813,14 +5827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E12D459-7A3B-43CD-9A95-0F7C890F4CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CA52DD-E8F3-4197-99E5-E9FE9B4965A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$63</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="468">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1413,11 +1419,140 @@
   <si>
     <t>cannot reproduce on 1142</t>
   </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>$81E0</t>
+  </si>
+  <si>
+    <t>25074</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>$1FF7</t>
+  </si>
+  <si>
+    <t>24297</t>
+  </si>
+  <si>
+    <t>$EB5F</t>
+  </si>
+  <si>
+    <t>$EC4F</t>
+  </si>
+  <si>
+    <t>05035</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>$4E00</t>
+  </si>
+  <si>
+    <t>11785</t>
+  </si>
+  <si>
+    <t>$EEE5</t>
+  </si>
+  <si>
+    <t>04373</t>
+  </si>
+  <si>
+    <t>25065</t>
+  </si>
+  <si>
+    <t>Uther</t>
+  </si>
+  <si>
+    <t>$EEE2</t>
+  </si>
+  <si>
+    <t>04376</t>
+  </si>
+  <si>
+    <t>tcp</t>
+  </si>
+  <si>
+    <t>dhcp</t>
+  </si>
+  <si>
+    <t>$1FFA</t>
+  </si>
+  <si>
+    <t>25062</t>
+  </si>
+  <si>
+    <t>$A200</t>
+  </si>
+  <si>
+    <t>$EB86</t>
+  </si>
+  <si>
+    <t>$EC46</t>
+  </si>
+  <si>
+    <t>34913</t>
+  </si>
+  <si>
+    <t>05044</t>
+  </si>
+  <si>
+    <t>$7D00</t>
+  </si>
+  <si>
+    <t>23814</t>
+  </si>
+  <si>
+    <t>$EEd9</t>
+  </si>
+  <si>
+    <t>04382</t>
+  </si>
+  <si>
+    <t>uther</t>
+  </si>
+  <si>
+    <t>$59E0</t>
+  </si>
+  <si>
+    <t>14822</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>$4000</t>
+  </si>
+  <si>
+    <t>$5500</t>
+  </si>
+  <si>
+    <t>05376</t>
+  </si>
+  <si>
+    <t>$8BE0</t>
+  </si>
+  <si>
+    <t>19424</t>
+  </si>
+  <si>
+    <t>$FEDE</t>
+  </si>
+  <si>
+    <t>00284</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1697,7 +1832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1874,6 +2009,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2192,34 +2329,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -2234,7 +2371,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -2247,7 +2384,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>121</v>
@@ -2260,7 +2397,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>53</v>
@@ -2273,12 +2410,12 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -2301,7 +2438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2322,7 +2459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2344,7 +2481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -2366,7 +2503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2479,7 +2616,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2547,7 +2684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2571,7 +2708,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2593,7 +2730,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2615,7 +2752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2661,7 +2798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2683,7 +2820,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2728,7 +2865,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2752,7 +2889,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2824,7 +2961,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2845,7 +2982,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2986,7 +3123,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -3010,7 +3147,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -3079,7 +3216,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -3100,7 +3237,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -3124,7 +3261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -3145,7 +3282,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>121</v>
       </c>
@@ -3193,7 +3330,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3241,7 +3378,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -3265,7 +3402,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3313,7 +3450,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -3442,7 +3579,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
@@ -3525,7 +3662,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
@@ -3545,7 +3682,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
@@ -3565,7 +3702,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -3588,7 +3725,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
@@ -3608,7 +3745,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>46</v>
       </c>
@@ -3628,7 +3765,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>328</v>
       </c>
@@ -3651,7 +3788,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>160</v>
       </c>
@@ -3668,7 +3805,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>161</v>
       </c>
@@ -3688,7 +3825,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
@@ -3708,7 +3845,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>163</v>
       </c>
@@ -3722,7 +3859,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>46</v>
       </c>
@@ -3739,7 +3876,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>53</v>
       </c>
@@ -3756,7 +3893,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>46</v>
       </c>
@@ -3773,7 +3910,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>53</v>
       </c>
@@ -3790,7 +3927,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>46</v>
       </c>
@@ -3851,7 +3988,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
@@ -3868,7 +4005,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>53</v>
       </c>
@@ -3888,7 +4025,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>46</v>
       </c>
@@ -3971,7 +4108,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>176</v>
       </c>
@@ -3988,7 +4125,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>177</v>
       </c>
@@ -4005,7 +4142,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>178</v>
       </c>
@@ -4022,7 +4159,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>179</v>
       </c>
@@ -4036,7 +4173,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>180</v>
       </c>
@@ -4051,7 +4188,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G89">
+  <autoFilter ref="A7:G89" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="D"/>
@@ -4068,23 +4205,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -4182,7 +4319,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -4199,7 +4336,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -4216,7 +4353,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
@@ -4260,7 +4397,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -4294,7 +4431,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -4328,7 +4465,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -4345,7 +4482,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -4558,7 +4695,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -4577,7 +4714,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>161</v>
@@ -4596,7 +4733,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>46</v>
       </c>
@@ -4653,7 +4790,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>165</v>
@@ -4723,7 +4860,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>169</v>
@@ -4884,7 +5021,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>258</v>
       </c>
@@ -4985,7 +5122,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>46</v>
       </c>
@@ -5010,7 +5147,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>305</v>
       </c>
@@ -5142,7 +5279,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>397</v>
       </c>
@@ -5154,7 +5291,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G63"/>
+  <autoFilter ref="A1:G63" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5164,46 +5301,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="41"/>
-    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="41"/>
-    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="41"/>
+    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="41"/>
+    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="41"/>
+    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -5212,29 +5349,29 @@
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+    <row r="4" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="67" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-    </row>
-    <row r="5" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+    </row>
+    <row r="5" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="67" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-    </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -5243,12 +5380,12 @@
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
     </row>
-    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
@@ -5274,7 +5411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>58</v>
       </c>
@@ -5290,529 +5427,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I90" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="46"/>
       <c r="I91" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="46"/>
       <c r="I92" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I93" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="47"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="47"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="47"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="47"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="47"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="47"/>
     </row>
   </sheetData>
@@ -5827,14 +5964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -6052,6 +6189,414 @@
       </c>
       <c r="N10" s="63" t="s">
         <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K11" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="L11" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="M11" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N11" s="63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>411</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="L12" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="M12" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N12" s="63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1144</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K13" s="63" t="s">
+        <v>432</v>
+      </c>
+      <c r="L13" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="M13" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N13" s="63" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>437</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K14" s="63" t="s">
+        <v>432</v>
+      </c>
+      <c r="L14" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="M14" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N14" s="63" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1145</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>430</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K15" s="63" t="s">
+        <v>432</v>
+      </c>
+      <c r="L15" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="M15" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N15" s="63" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" s="64">
+        <v>7900</v>
+      </c>
+      <c r="F16">
+        <v>22793</v>
+      </c>
+      <c r="L16" s="63" t="s">
+        <v>442</v>
+      </c>
+      <c r="N16" s="63" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>444</v>
+      </c>
+      <c r="D17" s="65">
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <v>14057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>445</v>
+      </c>
+      <c r="F18">
+        <v>14057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1153</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>446</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K19" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="L19" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="M19" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N19" s="63" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>446</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K20" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="L20" s="63" t="s">
+        <v>455</v>
+      </c>
+      <c r="M20" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>446</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K21" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="L21" s="63" t="s">
+        <v>455</v>
+      </c>
+      <c r="M21" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N21" s="63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>460</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>461</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>463</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>461</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="I22" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>465</v>
+      </c>
+      <c r="K22" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="L22" s="63" t="s">
+        <v>466</v>
+      </c>
+      <c r="M22" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N22" s="63" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CA52DD-E8F3-4197-99E5-E9FE9B4965A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183FC17-A33E-4244-8131-AE564281671E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="486">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1544,6 +1544,60 @@
   </si>
   <si>
     <t>00284</t>
+  </si>
+  <si>
+    <t>$1FE6</t>
+  </si>
+  <si>
+    <t>25082</t>
+  </si>
+  <si>
+    <t>$EC50</t>
+  </si>
+  <si>
+    <t>$EDBD</t>
+  </si>
+  <si>
+    <t>04669</t>
+  </si>
+  <si>
+    <t>1 tty</t>
+  </si>
+  <si>
+    <t>$87E0</t>
+  </si>
+  <si>
+    <t>26618</t>
+  </si>
+  <si>
+    <t>$7CE0</t>
+  </si>
+  <si>
+    <t>23802</t>
+  </si>
+  <si>
+    <t>When you more a file (more ../etc/init), if you are using the option of pressing return for one more line, when you get to the end of the file, return just gives you more and more blank lines instead of ending more because you are at the end of the file.</t>
+  </si>
+  <si>
+    <t>At the end of TESTS/BUILDTEST (line 68) there is a dashed line ended with \n, which should on screen be a dashed line and then blank line, instead you get 2 dashed lines.  If you look at code, you can remove \n and the comment mark in line 69 and it displays right, but this second dashed line should not happen.</t>
+  </si>
+  <si>
+    <t>NETWORKING</t>
+  </si>
+  <si>
+    <t>DHCP Never Leases and address.  If you do fixed IP address, DNS resolution does not appear to work and ping does not get any responses to local or remote networks.  TELNET locks after Ctrl-T and does not connect to any sources.</t>
+  </si>
+  <si>
+    <t>In a script, the CD command has no effect.  See TESTS/TESTS file which gets placed in root and should change you to usr/share/tests.  It does nothing.  Even if you do . TESTS.  I tried adding PWD after the CD command in the script, pwd shows that it the working dir changed, but script exits it goes back to wear it was.</t>
+  </si>
+  <si>
+    <t>RETURN CODE</t>
+  </si>
+  <si>
+    <t>RCTEST fails, you get bogus results.  Also in CDTEST, after each CD command you get some randowm number returned instead of 0 for no error (even though it worked).  Something is clearly off here.</t>
+  </si>
+  <si>
+    <t>More Line numbering on long files works if you press space for next page, but repeats the same number over and over if you press return (though it does display contents right, except it will keep going passed end see 181).</t>
   </si>
 </sst>
 </file>
@@ -2338,10 +2392,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,6 +4239,90 @@
       </c>
       <c r="E89" s="3" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>181</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1160</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>182</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1160</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>183</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1160</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>184</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1160</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>185</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1160</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>186</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1160</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -5965,10 +6103,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:N22"/>
+  <dimension ref="A3:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6599,6 +6737,129 @@
         <v>467</v>
       </c>
     </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1154</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>469</v>
+      </c>
+      <c r="G23" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="I23" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J23" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K23" s="63" t="s">
+        <v>470</v>
+      </c>
+      <c r="L23" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="M23" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N23" s="63" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>473</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>475</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="I24" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>470</v>
+      </c>
+      <c r="L24" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="M24" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N24" s="63" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1160</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>476</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="G25" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="I25" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>470</v>
+      </c>
+      <c r="L25" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="M25" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N25" s="63" t="s">
+        <v>472</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183FC17-A33E-4244-8131-AE564281671E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$63</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="488">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1599,13 +1593,20 @@
   <si>
     <t>More Line numbering on long files works if you press space for next page, but repeats the same number over and over if you press return (though it does display contents right, except it will keep going passed end see 181).</t>
   </si>
+  <si>
+    <t>Because it change $PWD in the child process, then exit back to parent process
+If you want a script change the current PS wrking dir, do ". /CDSCRIPT"</t>
+  </si>
+  <si>
+    <t>Bug in TERM scroll UP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1886,7 +1887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2063,7 +2064,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2077,6 +2078,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2383,34 +2397,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -2425,7 +2439,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -2438,7 +2452,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>121</v>
@@ -2469,7 +2483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -2492,7 +2506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2513,7 +2527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2670,7 +2684,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2738,7 +2752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2762,7 +2776,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -3015,7 +3029,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -3029,11 +3043,11 @@
       <c r="D31" s="2">
         <v>1027</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="70" t="s">
         <v>128</v>
       </c>
       <c r="G31">
-        <v>0.93</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -3504,7 +3518,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -3879,7 +3893,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
@@ -4179,7 +4193,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>177</v>
       </c>
@@ -4189,7 +4203,7 @@
       <c r="D86" s="2">
         <v>1139</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="70" t="s">
         <v>415</v>
       </c>
       <c r="G86">
@@ -4251,11 +4265,14 @@
       <c r="D90" s="2">
         <v>1160</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="70" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B91" s="1">
         <v>182</v>
       </c>
@@ -4268,8 +4285,14 @@
       <c r="E91" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G91" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B92" s="1">
         <v>183</v>
       </c>
@@ -4282,22 +4305,33 @@
       <c r="E92" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B93" s="1">
+      <c r="F92" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G92">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="71"/>
+      <c r="B93" s="72">
         <v>184</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="73" t="s">
         <v>480</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="71">
         <v>1160</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="52" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="F93" s="52"/>
+      <c r="G93" s="74">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B94" s="1">
         <v>185</v>
       </c>
@@ -4311,7 +4345,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B95" s="1">
         <v>186</v>
       </c>
@@ -4321,12 +4355,15 @@
       <c r="D95" s="2">
         <v>1160</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="70" t="s">
         <v>485</v>
       </c>
+      <c r="G95">
+        <v>1163</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G89" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:G89">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="D"/>
@@ -4343,23 +4380,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -4457,7 +4494,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -4474,7 +4511,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -4491,7 +4528,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
@@ -4535,7 +4572,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -4569,7 +4606,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -4603,7 +4640,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -4620,7 +4657,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -4833,7 +4870,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -4852,7 +4889,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>161</v>
@@ -4871,7 +4908,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>46</v>
       </c>
@@ -4928,7 +4965,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>165</v>
@@ -4998,7 +5035,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>169</v>
@@ -5159,7 +5196,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>258</v>
       </c>
@@ -5260,7 +5297,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>46</v>
       </c>
@@ -5285,7 +5322,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>305</v>
       </c>
@@ -5417,7 +5454,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>397</v>
       </c>
@@ -5429,7 +5466,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G63" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G63"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5439,27 +5476,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="41"/>
-    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="41"/>
-    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="41"/>
+    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="41"/>
+    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="41"/>
+    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
@@ -5478,7 +5515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -5487,7 +5524,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
         <v>366</v>
       </c>
@@ -5498,7 +5535,7 @@
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
     </row>
-    <row r="5" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67" t="s">
         <v>367</v>
       </c>
@@ -5509,7 +5546,7 @@
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -5518,12 +5555,12 @@
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
@@ -5549,7 +5586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>58</v>
       </c>
@@ -5565,529 +5602,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="6"/>
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B86" s="6"/>
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" s="6"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" s="6"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B89" s="6"/>
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I90" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B91" s="46"/>
       <c r="I91" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B92" s="46"/>
       <c r="I92" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I93" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="47"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="47"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="47"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="47"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="47"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="47"/>
     </row>
   </sheetData>
@@ -6102,14 +6139,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -2066,18 +2066,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2091,6 +2079,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2397,7 +2397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2409,7 +2409,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3043,7 +3043,7 @@
       <c r="D31" s="2">
         <v>1027</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="66" t="s">
         <v>128</v>
       </c>
       <c r="G31">
@@ -4203,7 +4203,7 @@
       <c r="D86" s="2">
         <v>1139</v>
       </c>
-      <c r="E86" s="70" t="s">
+      <c r="E86" s="66" t="s">
         <v>415</v>
       </c>
       <c r="G86">
@@ -4265,7 +4265,7 @@
       <c r="D90" s="2">
         <v>1160</v>
       </c>
-      <c r="E90" s="70" t="s">
+      <c r="E90" s="66" t="s">
         <v>478</v>
       </c>
       <c r="G90">
@@ -4313,21 +4313,21 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="71"/>
-      <c r="B93" s="72">
+      <c r="A93" s="67"/>
+      <c r="B93" s="68">
         <v>184</v>
       </c>
-      <c r="C93" s="73" t="s">
+      <c r="C93" s="69" t="s">
         <v>480</v>
       </c>
-      <c r="D93" s="71">
+      <c r="D93" s="67">
         <v>1160</v>
       </c>
       <c r="E93" s="52" t="s">
         <v>481</v>
       </c>
       <c r="F93" s="52"/>
-      <c r="G93" s="74">
+      <c r="G93" s="70">
         <v>1163</v>
       </c>
     </row>
@@ -4344,6 +4344,9 @@
       <c r="E94" s="3" t="s">
         <v>484</v>
       </c>
+      <c r="G94">
+        <v>1164</v>
+      </c>
     </row>
     <row r="95" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B95" s="1">
@@ -4355,7 +4358,7 @@
       <c r="D95" s="2">
         <v>1160</v>
       </c>
-      <c r="E95" s="70" t="s">
+      <c r="E95" s="66" t="s">
         <v>485</v>
       </c>
       <c r="G95">
@@ -5502,15 +5505,15 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="41" t="s">
         <v>28</v>
       </c>
@@ -5525,26 +5528,26 @@
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="62"/>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E436F-78EA-4413-BAC5-04535EFF5BFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$63</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,8 +31,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Patrick</author>
+  </authors>
+  <commentList>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{8FF86A30-C51C-452C-89AB-8368255F29CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manually did networkd libtcpip &amp;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1600,15 +1640,51 @@
   <si>
     <t>Bug in TERM scroll UP</t>
   </si>
+  <si>
+    <t>netd</t>
+  </si>
+  <si>
+    <t>$3300</t>
+  </si>
+  <si>
+    <t>04890</t>
+  </si>
+  <si>
+    <t>$F061</t>
+  </si>
+  <si>
+    <t>03993</t>
+  </si>
+  <si>
+    <t>telnetd</t>
+  </si>
+  <si>
+    <t>$2DE0</t>
+  </si>
+  <si>
+    <t>03578</t>
+  </si>
+  <si>
+    <t>drv uther</t>
+  </si>
+  <si>
+    <t>networkd</t>
+  </si>
+  <si>
+    <t>$4510</t>
+  </si>
+  <si>
+    <t>09514</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1688,6 +1764,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2064,7 +2153,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2397,34 +2486,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -2439,7 +2528,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -2452,7 +2541,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>121</v>
@@ -2483,7 +2572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -2506,7 +2595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2527,7 +2616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2684,7 +2773,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2752,7 +2841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2776,7 +2865,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -3029,7 +3118,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -3518,7 +3607,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -3893,7 +3982,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
@@ -4193,7 +4282,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>177</v>
       </c>
@@ -4272,7 +4361,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>182</v>
       </c>
@@ -4292,7 +4381,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>183</v>
       </c>
@@ -4312,7 +4401,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="67"/>
       <c r="B93" s="68">
         <v>184</v>
@@ -4331,7 +4420,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>185</v>
       </c>
@@ -4348,7 +4437,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>186</v>
       </c>
@@ -4366,7 +4455,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G89">
+  <autoFilter ref="A7:G89" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="D"/>
@@ -4383,23 +4472,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -4497,7 +4586,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -4514,7 +4603,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -4531,7 +4620,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
@@ -4575,7 +4664,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -4609,7 +4698,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -4643,7 +4732,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -4660,7 +4749,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -4873,7 +4962,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -4892,7 +4981,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>161</v>
@@ -4911,7 +5000,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>46</v>
       </c>
@@ -4968,7 +5057,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>165</v>
@@ -5038,7 +5127,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>169</v>
@@ -5199,7 +5288,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>258</v>
       </c>
@@ -5300,7 +5389,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>46</v>
       </c>
@@ -5325,7 +5414,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>305</v>
       </c>
@@ -5457,7 +5546,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>397</v>
       </c>
@@ -5469,7 +5558,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G63"/>
+  <autoFilter ref="A1:G63" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5479,27 +5568,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="41"/>
-    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="41"/>
-    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="41"/>
+    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="41"/>
+    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="41"/>
+    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
@@ -5518,7 +5607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -5527,7 +5616,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="72" t="s">
         <v>366</v>
       </c>
@@ -5538,7 +5627,7 @@
       <c r="G4" s="73"/>
       <c r="H4" s="73"/>
     </row>
-    <row r="5" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="72" t="s">
         <v>367</v>
       </c>
@@ -5549,7 +5638,7 @@
       <c r="G5" s="74"/>
       <c r="H5" s="74"/>
     </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -5558,12 +5647,12 @@
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
     </row>
-    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
@@ -5589,7 +5678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>58</v>
       </c>
@@ -5605,529 +5694,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="I77" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="I78" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="I79" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="I80" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="I81" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="I82" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="I83" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="I84" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="I85" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="I86" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="I87" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="I88" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="I89" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I90" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="46"/>
       <c r="I91" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="46"/>
       <c r="I92" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I93" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="47"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="47"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="47"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="47"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="47"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="47"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="47"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="47"/>
     </row>
   </sheetData>
@@ -6142,14 +6231,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -6900,8 +6992,214 @@
         <v>472</v>
       </c>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1167</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>476</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="I26" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J26" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K26" s="63" t="s">
+        <v>470</v>
+      </c>
+      <c r="L26" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="M26" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N26" s="63" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>496</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>476</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="G27" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="I27" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J27" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K27" s="63" t="s">
+        <v>470</v>
+      </c>
+      <c r="L27" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="M27" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N27" s="63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>497</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>499</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="I28" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J28" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K28" s="63" t="s">
+        <v>470</v>
+      </c>
+      <c r="L28" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="M28" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N28" s="63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>488</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="G29" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="I29" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J29" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K29" s="63" t="s">
+        <v>470</v>
+      </c>
+      <c r="L29" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="M29" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N29" s="63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="G30" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K30" s="63" t="s">
+        <v>470</v>
+      </c>
+      <c r="L30" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="M30" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N30" s="63" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E436F-78EA-4413-BAC5-04535EFF5BFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC92749-1016-4A2E-A88C-B4F239F6A6DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,12 +61,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{4625514B-D423-42AF-966A-ECB36E627AAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manually did networkd libtcpip &amp;</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="513">
   <si>
     <t>Issue No.</t>
   </si>
@@ -1675,6 +1699,45 @@
   </si>
   <si>
     <t>09514</t>
+  </si>
+  <si>
+    <t>$1FE4</t>
+  </si>
+  <si>
+    <t>$EC7F</t>
+  </si>
+  <si>
+    <t>$EE2D</t>
+  </si>
+  <si>
+    <t>04557</t>
+  </si>
+  <si>
+    <t>$F0D1</t>
+  </si>
+  <si>
+    <t>03881</t>
+  </si>
+  <si>
+    <t>$7B00</t>
+  </si>
+  <si>
+    <t>23324</t>
+  </si>
+  <si>
+    <t>13596</t>
+  </si>
+  <si>
+    <t>$4360</t>
+  </si>
+  <si>
+    <t>09084</t>
+  </si>
+  <si>
+    <t>$40B0</t>
+  </si>
+  <si>
+    <t>08396</t>
   </si>
 </sst>
 </file>
@@ -6232,10 +6295,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:N30"/>
+  <dimension ref="A3:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7197,6 +7260,211 @@
         <v>492</v>
       </c>
     </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1173</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>507</v>
+      </c>
+      <c r="G31" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I31" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J31" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K31" s="63" t="s">
+        <v>501</v>
+      </c>
+      <c r="L31" s="63" t="s">
+        <v>502</v>
+      </c>
+      <c r="M31" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N31" s="63" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>508</v>
+      </c>
+      <c r="G32" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I32" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J32" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K32" s="63" t="s">
+        <v>501</v>
+      </c>
+      <c r="L32" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="M32" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N32" s="63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>496</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>507</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I33" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K33" s="63" t="s">
+        <v>501</v>
+      </c>
+      <c r="L33" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="M33" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N33" s="63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>497</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>509</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>510</v>
+      </c>
+      <c r="G34" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H34" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I34" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J34" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K34" s="63" t="s">
+        <v>501</v>
+      </c>
+      <c r="L34" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="M34" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N34" s="63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>493</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>512</v>
+      </c>
+      <c r="G35" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H35" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="I35" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K35" s="63" t="s">
+        <v>501</v>
+      </c>
+      <c r="L35" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="M35" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="N35" s="63" t="s">
+        <v>505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/.A2osX Issue List.xlsx
+++ b/.A2osX Issue List.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\AppleWin\A2osX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC92749-1016-4A2E-A88C-B4F239F6A6DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Issues!$A$7:$G$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Suggestions!$A$1:$G$63</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Patrick</author>
   </authors>
   <commentList>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{8FF86A30-C51C-452C-89AB-8368255F29CF}">
+    <comment ref="B28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Patrick:</t>
         </r>
@@ -54,14 +48,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 manually did networkd libtcpip &amp;</t>
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{4625514B-D423-42AF-966A-ECB36E627AAC}">
+    <comment ref="B34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Patrick:</t>
         </r>
@@ -78,7 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 manually did networkd libtcpip &amp;</t>
@@ -1743,9 +1737,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1832,14 +1826,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2216,7 +2210,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2549,34 +2543,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -2591,7 +2585,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>55</v>
@@ -2604,7 +2598,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>121</v>
@@ -2635,7 +2629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -2658,7 +2652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2679,7 +2673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2836,7 +2830,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2904,7 +2898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2928,7 +2922,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2947,7 +2941,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20">
-        <v>0.93</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -3670,7 +3664,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -4045,7 +4039,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
@@ -4345,7 +4339,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>177</v>
       </c>
@@ -4444,7 +4438,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B92" s="1">
         <v>183</v>
       </c>
@@ -4464,7 +4458,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" s="67"/>
       <c r="B93" s="68">
         <v>184</v>
@@ -4483,7 +4477,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B94" s="1">
         <v>185</v>
       </c>
@@ -4500,7 +4494,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B95" s="1">
         <v>186</v>
       </c>
@@ -4518,7 +4512,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G89" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:G89">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="D"/>
@@ -4535,23 +4529,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="6.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -4649,7 +4643,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
         <v>66</v>
@@ -4666,7 +4660,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>46</v>
       </c>
@@ -4683,7 +4677,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
@@ -4727,7 +4721,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
@@ -4761,7 +4755,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
         <v>83</v>
@@ -4795,7 +4789,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>90</v>
@@ -4812,7 +4806,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
         <v>93</v>
@@ -5025,7 +5019,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>108</v>
@@ -5044,7 +5038,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>161</v>
@@ -5063,7 +5057,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>46</v>
       </c>
@@ -5120,7 +5114,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
         <v>165</v>
@@ -5190,7 +5184,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>169</v>
@@ -5351,7 +5345,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>258</v>
       </c>
@@ -5452,7 +5446,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>46</v>
       </c>
@@ -5477,7 +5471,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>305</v>
       </c>
@@ -5609,7 +5603,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>397</v>
       </c>
@@ -5621,7 +5615,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G63" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G63"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5631,27 +5625,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="40" customWidth="1"/>
     <col min="3" max="3" width="8" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="41"/>
-    <col min="6" max="6" width="5.85546875" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="41"/>
-    <col min="8" max="8" width="52.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="41"/>
+    <col min="4" max="4" width="5.1796875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="41"/>
+    <col min="6" max="6" width="5.81640625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="41"/>
+    <col min="8" max="8" width="52.1796875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
@@ -5670,7 +5664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -5679,7 +5673,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="72" t="s">
         <v>366</v>
       </c>
@@ -5690,7 +5684,7 @@
       <c r="G4" s="73"/>
       <c r="H4" s="73"/>
     </row>
-    <row r="5" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="72" t="s">
         <v>367</v>
       </c>
@@ -5701,7 +5695,7 @@
       <c r="G5" s="74"/>
       <c r="H5" s="74"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -5710,12 +5704,12 @@
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
@@ -5741,7 +5735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>58</v>
       </c>
@@ -5757,529 +5751,529 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="I11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="I12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="I13" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
       <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="I15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="I16" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="I17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
       <c r="I18" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="I19" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="I22" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
       <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="I24" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="I25" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
       <c r="I27" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="I28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
       <c r="I29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="I30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="I34" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="I35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="I36" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="I37" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="I38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="I39" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="6"/>
       <c r="I40" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
       <c r="I41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
       <c r="I42" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
       <c r="I43" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
       <c r="I45" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="I46" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="I47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="I48" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="I49" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="I50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="I51" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="I52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="I53" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="I54" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="I55" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="I56" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="I57" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="I58" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="I59" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="I60" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="I61" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="I62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="I63" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
       <c r="I64" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="6"/>
       <c r="I65" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="I66" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="I67" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
       <c r="I68" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
       <c r="I69" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
       <c r="I70" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
       <c r="I71" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
       <c r="I72" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
       <c r="I73" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
       <c r="I74" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
       <c r="I75" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
       <c r="I76" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
       <c r="I77